--- a/Rutas_Cemix_Origen_TodosDestinos.xlsx
+++ b/Rutas_Cemix_Origen_TodosDestinos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Cemix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E77D44-FE48-4C3E-99A5-0E3664C7E51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1433BAA-79E4-4D26-8B4A-EE4E419527DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="20505" windowHeight="10920" xr2:uid="{ABC5CFBD-A642-4244-A295-C882748C920D}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{ABC5CFBD-A642-4244-A295-C882748C920D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AB4770-D27B-4A3E-A38A-755CF371868C}">
   <dimension ref="A1:J2619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="D325" sqref="D325"/>
+    <sheetView tabSelected="1" topLeftCell="A2598" workbookViewId="0">
+      <selection activeCell="E2613" sqref="E2613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>1257.6609063978999</v>
+        <v>1257.6609063978972</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
@@ -1387,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>549.58775242362447</v>
+        <v>574.3644472015817</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3"/>
@@ -1467,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="C34">
-        <v>8072.6942065884805</v>
+        <v>210.00119906974413</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
@@ -1483,7 +1483,7 @@
         <v>28</v>
       </c>
       <c r="C35">
-        <v>365.98522935965394</v>
+        <v>714.77473164957246</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="3"/>
@@ -1547,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="C39">
-        <v>805.17525202916386</v>
+        <v>777.10137965059994</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3"/>
@@ -1659,7 +1659,7 @@
         <v>37</v>
       </c>
       <c r="C46">
-        <v>360.29756143815649</v>
+        <v>483.02224498304395</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="3"/>
@@ -1675,7 +1675,7 @@
         <v>38</v>
       </c>
       <c r="C47">
-        <v>722.62682593690272</v>
+        <v>891.59831284847201</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="3"/>
@@ -1691,7 +1691,7 @@
         <v>39</v>
       </c>
       <c r="C48">
-        <v>429.0790595675781</v>
+        <v>413.12449695301916</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="3"/>
@@ -1819,7 +1819,7 @@
         <v>45</v>
       </c>
       <c r="C56">
-        <v>479.10007699556161</v>
+        <v>475.17069984379992</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="3"/>
@@ -2059,7 +2059,7 @@
         <v>56</v>
       </c>
       <c r="C71">
-        <v>267.79516222441669</v>
+        <v>660.65725111030815</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="3"/>
@@ -2123,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="C75">
-        <v>803.30759897105327</v>
+        <v>844.13527392143044</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="3"/>
@@ -2203,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>725.46046953226721</v>
+        <v>1036.8770755888434</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="3"/>
@@ -2235,7 +2235,7 @@
         <v>63</v>
       </c>
       <c r="C82">
-        <v>110.73240469405212</v>
+        <v>270.14690593514615</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="3"/>
@@ -2251,7 +2251,7 @@
         <v>64</v>
       </c>
       <c r="C83">
-        <v>831.6621903132658</v>
+        <v>989.05858348064362</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="3"/>
@@ -2347,7 +2347,7 @@
         <v>68</v>
       </c>
       <c r="C89">
-        <v>1272.5476789075119</v>
+        <v>1191.2736458201393</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="3"/>
@@ -2379,7 +2379,7 @@
         <v>70</v>
       </c>
       <c r="C91">
-        <v>833.85066034988142</v>
+        <v>812.91588900522095</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="3"/>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>1007.5478131160731</v>
+        <v>630.91496175620421</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="3"/>
@@ -2459,7 +2459,7 @@
         <v>133</v>
       </c>
       <c r="C96">
-        <v>535.07729296811203</v>
+        <v>1213.5352215525534</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="3"/>
@@ -2475,7 +2475,7 @@
         <v>74</v>
       </c>
       <c r="C97">
-        <v>487.72499267439503</v>
+        <v>1095.5504662463213</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="3"/>
@@ -2507,7 +2507,7 @@
         <v>76</v>
       </c>
       <c r="C99">
-        <v>847.94405593698173</v>
+        <v>70.063272007832055</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="3"/>
@@ -2539,7 +2539,7 @@
         <v>77</v>
       </c>
       <c r="C101">
-        <v>1216.839775224988</v>
+        <v>399.57487664310327</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="3"/>
@@ -2555,7 +2555,7 @@
         <v>78</v>
       </c>
       <c r="C102">
-        <v>771.52027047815818</v>
+        <v>1542.0065922794888</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="3"/>
@@ -2699,7 +2699,7 @@
         <v>84</v>
       </c>
       <c r="C111">
-        <v>885.4188241830667</v>
+        <v>405.37746733845415</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="3"/>
@@ -2795,7 +2795,7 @@
         <v>138</v>
       </c>
       <c r="C117">
-        <v>1259.5336169055097</v>
+        <v>544.71443332969034</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="3"/>
@@ -2811,7 +2811,7 @@
         <v>90</v>
       </c>
       <c r="C118">
-        <v>802.96666745558991</v>
+        <v>555.42932986181836</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="3"/>
@@ -2827,7 +2827,7 @@
         <v>25</v>
       </c>
       <c r="C119">
-        <v>22.509839722247193</v>
+        <v>1171.1223389499703</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="3"/>
@@ -2843,7 +2843,7 @@
         <v>139</v>
       </c>
       <c r="C120">
-        <v>576.72317529043175</v>
+        <v>404.0010910337316</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="3"/>
@@ -2907,7 +2907,7 @@
         <v>142</v>
       </c>
       <c r="C124">
-        <v>688.64621893043716</v>
+        <v>986.89180149439585</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="3"/>
@@ -2955,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="C127">
-        <v>811.16100879525663</v>
+        <v>1061.7918822441789</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="3"/>
@@ -2971,7 +2971,7 @@
         <v>143</v>
       </c>
       <c r="C128">
-        <v>1073.1133112617986</v>
+        <v>443.82347925164453</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="3"/>
@@ -3051,7 +3051,7 @@
         <v>96</v>
       </c>
       <c r="C133">
-        <v>482.37522244097602</v>
+        <v>483.19139487756911</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="3"/>
@@ -3083,7 +3083,7 @@
         <v>146</v>
       </c>
       <c r="C135">
-        <v>557.60309826250204</v>
+        <v>532.09469446691662</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="3"/>
@@ -3163,7 +3163,7 @@
         <v>100</v>
       </c>
       <c r="C140">
-        <v>116.18467828873382</v>
+        <v>864.09551580494394</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="3"/>
@@ -3259,7 +3259,7 @@
         <v>102</v>
       </c>
       <c r="C146">
-        <v>1048.7264338252146</v>
+        <v>1034.1551647520869</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="3"/>
@@ -3275,7 +3275,7 @@
         <v>103</v>
       </c>
       <c r="C147">
-        <v>713.49965256789835</v>
+        <v>722.08203309096382</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="3"/>
@@ -3291,7 +3291,7 @@
         <v>152</v>
       </c>
       <c r="C148">
-        <v>1422.0702718935363</v>
+        <v>894.78701010578038</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="3"/>
@@ -3307,7 +3307,7 @@
         <v>104</v>
       </c>
       <c r="C149">
-        <v>737.99561156165646</v>
+        <v>746.44715263298019</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="3"/>
@@ -3419,7 +3419,7 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>718.72909854612919</v>
+        <v>1037.1848356725905</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="3"/>
@@ -3432,7 +3432,7 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>10076.470171200745</v>
+        <v>614.30826143519789</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="3"/>
@@ -3458,7 +3458,7 @@
         <v>111</v>
       </c>
       <c r="C159">
-        <v>760.92431679943058</v>
+        <v>784.34696293918114</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="3"/>
@@ -3510,7 +3510,7 @@
         <v>61</v>
       </c>
       <c r="C163">
-        <v>676.62999612733847</v>
+        <v>204.83723723188885</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="3"/>
@@ -3523,7 +3523,7 @@
         <v>158</v>
       </c>
       <c r="C164">
-        <v>360.29756143815649</v>
+        <v>326.43355450322156</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="3"/>
@@ -3627,7 +3627,7 @@
         <v>17</v>
       </c>
       <c r="C172">
-        <v>938.10275486631053</v>
+        <v>618.66501337382579</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="3"/>
@@ -3640,7 +3640,7 @@
         <v>18</v>
       </c>
       <c r="C173">
-        <v>2208.0812410464355</v>
+        <v>850.72873047063285</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="3"/>
@@ -3653,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="C174">
-        <v>2346.0440690984915</v>
+        <v>1091.1650805621996</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="3"/>
@@ -3666,7 +3666,7 @@
         <v>20</v>
       </c>
       <c r="C175">
-        <v>2197.7904367723686</v>
+        <v>944.36240858822146</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="3"/>
@@ -3679,7 +3679,7 @@
         <v>118</v>
       </c>
       <c r="C176">
-        <v>2400.1223076605847</v>
+        <v>1107.9837833718582</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="3"/>
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>431.02658011871006</v>
+        <v>1176.156190948044</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="3"/>
@@ -3705,7 +3705,7 @@
         <v>119</v>
       </c>
       <c r="C178">
-        <v>1112.3158341668131</v>
+        <v>310.22243690775906</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="3"/>
@@ -3718,7 +3718,7 @@
         <v>21</v>
       </c>
       <c r="C179">
-        <v>997.32527384086552</v>
+        <v>622.88083963626093</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="3"/>
@@ -3731,7 +3731,7 @@
         <v>22</v>
       </c>
       <c r="C180">
-        <v>1213.4086607818308</v>
+        <v>224.9176112739342</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="3"/>
@@ -3744,7 +3744,7 @@
         <v>120</v>
       </c>
       <c r="C181">
-        <v>1855.3362332087449</v>
+        <v>519.4080050918725</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="3"/>
@@ -3757,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="C182">
-        <v>1012.6757656886131</v>
+        <v>488.11544020859742</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="3"/>
@@ -3770,7 +3770,7 @@
         <v>23</v>
       </c>
       <c r="C183">
-        <v>1269.3859525377791</v>
+        <v>163.29670755685046</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="3"/>
@@ -3783,7 +3783,7 @@
         <v>121</v>
       </c>
       <c r="C184">
-        <v>410.15865617554272</v>
+        <v>1457.9469475403896</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="3"/>
@@ -3796,7 +3796,7 @@
         <v>24</v>
       </c>
       <c r="C185">
-        <v>1410.8010094396216</v>
+        <v>20.328524697449005</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="3"/>
@@ -3809,7 +3809,7 @@
         <v>122</v>
       </c>
       <c r="C186">
-        <v>2456.7207443299299</v>
+        <v>1208.0673931483402</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="3"/>
@@ -3822,7 +3822,7 @@
         <v>26</v>
       </c>
       <c r="C187">
-        <v>2457.114843372442</v>
+        <v>1232.7683727604935</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="3"/>
@@ -3835,7 +3835,7 @@
         <v>27</v>
       </c>
       <c r="C188">
-        <v>8497.5970071169522</v>
+        <v>670.79813786635759</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="3"/>
@@ -3848,7 +3848,7 @@
         <v>28</v>
       </c>
       <c r="C189">
-        <v>1156.2821431415898</v>
+        <v>106.59930983884098</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="3"/>
@@ -3861,7 +3861,7 @@
         <v>29</v>
       </c>
       <c r="C190">
-        <v>2440.6993581649467</v>
+        <v>1172.4658383818601</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="3"/>
@@ -3874,7 +3874,7 @@
         <v>123</v>
       </c>
       <c r="C191">
-        <v>2109.9929463679177</v>
+        <v>705.07916603875231</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="3"/>
@@ -3887,7 +3887,7 @@
         <v>124</v>
       </c>
       <c r="C192">
-        <v>959.39652687253795</v>
+        <v>954.10057359451207</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="3"/>
@@ -3900,7 +3900,7 @@
         <v>30</v>
       </c>
       <c r="C193">
-        <v>1559.9647784076838</v>
+        <v>146.80424243187781</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="3"/>
@@ -3913,7 +3913,7 @@
         <v>31</v>
       </c>
       <c r="C194">
-        <v>1187.5032381956105</v>
+        <v>644.24018144098295</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="3"/>
@@ -3926,7 +3926,7 @@
         <v>32</v>
       </c>
       <c r="C195">
-        <v>2004.5979082738652</v>
+        <v>614.45156577960574</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="3"/>
@@ -3939,7 +3939,7 @@
         <v>33</v>
       </c>
       <c r="C196">
-        <v>701.32356647013955</v>
+        <v>759.58748749209951</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="3"/>
@@ -3952,7 +3952,7 @@
         <v>34</v>
       </c>
       <c r="C197">
-        <v>213.55187638862714</v>
+        <v>1580.2257632636949</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="3"/>
@@ -3965,7 +3965,7 @@
         <v>35</v>
       </c>
       <c r="C198">
-        <v>867.75944215100276</v>
+        <v>786.72913856542777</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="3"/>
@@ -3978,7 +3978,7 @@
         <v>36</v>
       </c>
       <c r="C199">
-        <v>1001.4025276652106</v>
+        <v>616.86352460646765</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="3"/>
@@ -3991,7 +3991,7 @@
         <v>37</v>
       </c>
       <c r="C200">
-        <v>951.53261564112529</v>
+        <v>415.85878085359656</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="3"/>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="C201">
-        <v>1332.0167949480169</v>
+        <v>1481.8652643663529</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="3"/>
@@ -4017,7 +4017,7 @@
         <v>39</v>
       </c>
       <c r="C202">
-        <v>843.38693946127523</v>
+        <v>489.29713070001179</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="3"/>
@@ -4030,7 +4030,7 @@
         <v>40</v>
       </c>
       <c r="C203">
-        <v>393.63111957023403</v>
+        <v>1026.2990786935695</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="3"/>
@@ -4043,7 +4043,7 @@
         <v>41</v>
       </c>
       <c r="C204">
-        <v>1245.5675783826466</v>
+        <v>271.40799074783837</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="3"/>
@@ -4056,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="C205">
-        <v>779.38615891170014</v>
+        <v>2156.1708049362023</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="3"/>
@@ -4069,7 +4069,7 @@
         <v>42</v>
       </c>
       <c r="C206">
-        <v>1101.4050500528479</v>
+        <v>326.76042468089054</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="3"/>
@@ -4082,7 +4082,7 @@
         <v>125</v>
       </c>
       <c r="C207">
-        <v>1208.621453561022</v>
+        <v>636.52882460179501</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="3"/>
@@ -4095,7 +4095,7 @@
         <v>43</v>
       </c>
       <c r="C208">
-        <v>2475.1084001093263</v>
+        <v>1222.2009731879398</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="3"/>
@@ -4108,7 +4108,7 @@
         <v>44</v>
       </c>
       <c r="C209">
-        <v>2331.9402709198916</v>
+        <v>1097.861595285488</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="3"/>
@@ -4121,7 +4121,7 @@
         <v>45</v>
       </c>
       <c r="C210">
-        <v>600.03954502981833</v>
+        <v>738.78641666004773</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="3"/>
@@ -4134,7 +4134,7 @@
         <v>126</v>
       </c>
       <c r="C211">
-        <v>474.61692883010932</v>
+        <v>1180.5641820111603</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="3"/>
@@ -4147,7 +4147,7 @@
         <v>127</v>
       </c>
       <c r="C212">
-        <v>895.67603997700826</v>
+        <v>683.4398068831099</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="3"/>
@@ -4160,7 +4160,7 @@
         <v>46</v>
       </c>
       <c r="C213">
-        <v>1246.8638663704151</v>
+        <v>259.54266223677439</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="3"/>
@@ -4173,7 +4173,7 @@
         <v>47</v>
       </c>
       <c r="C214">
-        <v>1175.1178172901873</v>
+        <v>386.95694841288508</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="3"/>
@@ -4186,7 +4186,7 @@
         <v>48</v>
       </c>
       <c r="C215">
-        <v>1215.9224224988945</v>
+        <v>424.02060316977327</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="3"/>
@@ -4199,7 +4199,7 @@
         <v>128</v>
       </c>
       <c r="C216">
-        <v>447.94205984481761</v>
+        <v>1026.0122621320497</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="3"/>
@@ -4212,7 +4212,7 @@
         <v>49</v>
       </c>
       <c r="C217">
-        <v>1334.7892586566504</v>
+        <v>107.18871649405627</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="3"/>
@@ -4225,7 +4225,7 @@
         <v>50</v>
       </c>
       <c r="C218">
-        <v>962.60611674650909</v>
+        <v>645.84237592079273</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="3"/>
@@ -4238,7 +4238,7 @@
         <v>51</v>
       </c>
       <c r="C219">
-        <v>801.86920739949335</v>
+        <v>2200.3714924481201</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="3"/>
@@ -4251,7 +4251,7 @@
         <v>52</v>
       </c>
       <c r="C220">
-        <v>1176.0495195782605</v>
+        <v>263.21574103101176</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="3"/>
@@ -4264,7 +4264,7 @@
         <v>16</v>
       </c>
       <c r="C221">
-        <v>2046.0768444432645</v>
+        <v>653.97812780884749</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="3"/>
@@ -4277,7 +4277,7 @@
         <v>53</v>
       </c>
       <c r="C222">
-        <v>2439.3155594303266</v>
+        <v>1105.091569582818</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="3"/>
@@ -4290,7 +4290,7 @@
         <v>54</v>
       </c>
       <c r="C223">
-        <v>589.98679619697566</v>
+        <v>864.05521927238487</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="3"/>
@@ -4303,7 +4303,7 @@
         <v>55</v>
       </c>
       <c r="C224">
-        <v>2178.7652124610308</v>
+        <v>787.27928825466176</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="3"/>
@@ -4316,7 +4316,7 @@
         <v>56</v>
       </c>
       <c r="C225">
-        <v>1269.2317302585166</v>
+        <v>39.135414314466423</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="3"/>
@@ -4329,7 +4329,7 @@
         <v>57</v>
       </c>
       <c r="C226">
-        <v>872.56037833760479</v>
+        <v>2266.5730093176912</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="3"/>
@@ -4342,7 +4342,7 @@
         <v>58</v>
       </c>
       <c r="C227">
-        <v>1542.7509894717712</v>
+        <v>143.20238959261812</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="3"/>
@@ -4355,7 +4355,7 @@
         <v>59</v>
       </c>
       <c r="C228">
-        <v>1569.7320970745916</v>
+        <v>401.421541755519</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="3"/>
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="C229">
-        <v>1637.7230717227349</v>
+        <v>292.45561259603318</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="3"/>
@@ -4381,7 +4381,7 @@
         <v>129</v>
       </c>
       <c r="C230">
-        <v>2465.8863365781472</v>
+        <v>1245.4230214471365</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="3"/>
@@ -4394,7 +4394,7 @@
         <v>60</v>
       </c>
       <c r="C231">
-        <v>1904.9426862113207</v>
+        <v>503.31527960425348</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="3"/>
@@ -4407,7 +4407,7 @@
         <v>130</v>
       </c>
       <c r="C232">
-        <v>1051.800082890556</v>
+        <v>804.04681552636544</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="3"/>
@@ -4420,7 +4420,7 @@
         <v>62</v>
       </c>
       <c r="C233">
-        <v>1208.4300384419512</v>
+        <v>365.19585398903439</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="3"/>
@@ -4433,7 +4433,7 @@
         <v>7</v>
       </c>
       <c r="C234">
-        <v>1445.7396055242427</v>
+        <v>1272.2367403664446</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="3"/>
@@ -4446,7 +4446,7 @@
         <v>131</v>
       </c>
       <c r="C235">
-        <v>2221.1617530924091</v>
+        <v>816.90489096515273</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="3"/>
@@ -4459,7 +4459,7 @@
         <v>63</v>
       </c>
       <c r="C236">
-        <v>1048.6681209016067</v>
+        <v>637.26259269282934</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="3"/>
@@ -4472,7 +4472,7 @@
         <v>64</v>
       </c>
       <c r="C237">
-        <v>1625.5548872894171</v>
+        <v>1399.3000354207322</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="3"/>
@@ -4485,7 +4485,7 @@
         <v>65</v>
       </c>
       <c r="C238">
-        <v>1165.5059821598686</v>
+        <v>254.63128894257926</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="3"/>
@@ -4498,7 +4498,7 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>1364.1434695521602</v>
+        <v>232.07212504305846</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="3"/>
@@ -4511,7 +4511,7 @@
         <v>66</v>
       </c>
       <c r="C240">
-        <v>837.61574811871753</v>
+        <v>660.5521417874362</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="3"/>
@@ -4524,7 +4524,7 @@
         <v>67</v>
       </c>
       <c r="C241">
-        <v>1269.8999440389139</v>
+        <v>630.26065536685155</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="3"/>
@@ -4537,7 +4537,7 @@
         <v>132</v>
       </c>
       <c r="C242">
-        <v>563.44986679152521</v>
+        <v>1927.748709386047</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="3"/>
@@ -4550,7 +4550,7 @@
         <v>68</v>
       </c>
       <c r="C243">
-        <v>2244.1665781169759</v>
+        <v>854.48462514723951</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="3"/>
@@ -4563,7 +4563,7 @@
         <v>69</v>
       </c>
       <c r="C244">
-        <v>2302.2863441711452</v>
+        <v>898.51818140577268</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="3"/>
@@ -4576,7 +4576,7 @@
         <v>70</v>
       </c>
       <c r="C245">
-        <v>1102.7640882081673</v>
+        <v>541.00634442236901</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="3"/>
@@ -4589,7 +4589,7 @@
         <v>71</v>
       </c>
       <c r="C246">
-        <v>1159.7746038419943</v>
+        <v>282.66662809299879</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="3"/>
@@ -4602,7 +4602,7 @@
         <v>72</v>
       </c>
       <c r="C247">
-        <v>1108.621069407842</v>
+        <v>513.38608526252983</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="3"/>
@@ -4615,7 +4615,7 @@
         <v>73</v>
       </c>
       <c r="C248">
-        <v>1379.1083330023757</v>
+        <v>132.13089793714994</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="3"/>
@@ -4628,7 +4628,7 @@
         <v>133</v>
       </c>
       <c r="C249">
-        <v>472.47052875971167</v>
+        <v>1588.2829560502012</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="3"/>
@@ -4641,7 +4641,7 @@
         <v>74</v>
       </c>
       <c r="C250">
-        <v>667.08621636801774</v>
+        <v>613.69112438183515</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="3"/>
@@ -4654,7 +4654,7 @@
         <v>75</v>
       </c>
       <c r="C251">
-        <v>2180.6436876436478</v>
+        <v>942.71084418579812</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="3"/>
@@ -4667,7 +4667,7 @@
         <v>76</v>
       </c>
       <c r="C252">
-        <v>1285.4880363846744</v>
+        <v>599.08743354924638</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="3"/>
@@ -4680,7 +4680,7 @@
         <v>134</v>
       </c>
       <c r="C253">
-        <v>450.19171423925974</v>
+        <v>1637.7611434032058</v>
       </c>
       <c r="D253" s="4"/>
       <c r="E253" s="3"/>
@@ -4693,7 +4693,7 @@
         <v>77</v>
       </c>
       <c r="C254">
-        <v>451.56689651181068</v>
+        <v>1029.9266128098188</v>
       </c>
       <c r="D254" s="4"/>
       <c r="E254" s="3"/>
@@ -4706,7 +4706,7 @@
         <v>78</v>
       </c>
       <c r="C255">
-        <v>897.28171376897944</v>
+        <v>1143.6407222759249</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="3"/>
@@ -4719,7 +4719,7 @@
         <v>79</v>
       </c>
       <c r="C256">
-        <v>408.7524917129607</v>
+        <v>1656.9191633721</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="3"/>
@@ -4732,7 +4732,7 @@
         <v>80</v>
       </c>
       <c r="C257">
-        <v>899.18104759372022</v>
+        <v>885.41782234450409</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="3"/>
@@ -4745,7 +4745,7 @@
         <v>81</v>
       </c>
       <c r="C258">
-        <v>1394.3720796215828</v>
+        <v>151.24654156128128</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="3"/>
@@ -4758,7 +4758,7 @@
         <v>82</v>
       </c>
       <c r="C259">
-        <v>1454.9534191126811</v>
+        <v>162.8636007037104</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="3"/>
@@ -4771,7 +4771,7 @@
         <v>135</v>
       </c>
       <c r="C260">
-        <v>1034.5165078502848</v>
+        <v>577.87127077431262</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="3"/>
@@ -4784,7 +4784,7 @@
         <v>136</v>
       </c>
       <c r="C261">
-        <v>986.5859585351443</v>
+        <v>670.50699229864688</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261" s="3"/>
@@ -4797,7 +4797,7 @@
         <v>83</v>
       </c>
       <c r="C262">
-        <v>464.01687097019698</v>
+        <v>1826.0554573653285</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262" s="3"/>
@@ -4810,7 +4810,7 @@
         <v>137</v>
       </c>
       <c r="C263">
-        <v>205.42316004552009</v>
+        <v>1219.888349153646</v>
       </c>
       <c r="D263" s="4"/>
       <c r="E263" s="3"/>
@@ -4823,7 +4823,7 @@
         <v>84</v>
       </c>
       <c r="C264">
-        <v>1604.4250541157046</v>
+        <v>479.40677090491698</v>
       </c>
       <c r="D264" s="4"/>
       <c r="E264" s="3"/>
@@ -4836,7 +4836,7 @@
         <v>85</v>
       </c>
       <c r="C265">
-        <v>1603.1776611852993</v>
+        <v>201.42945740184848</v>
       </c>
       <c r="D265" s="4"/>
       <c r="E265" s="3"/>
@@ -4849,7 +4849,7 @@
         <v>86</v>
       </c>
       <c r="C266">
-        <v>1938.6233222878107</v>
+        <v>534.08079149296225</v>
       </c>
       <c r="D266" s="4"/>
       <c r="E266" s="3"/>
@@ -4862,7 +4862,7 @@
         <v>87</v>
       </c>
       <c r="C267">
-        <v>615.86391519416338</v>
+        <v>1181.1536467925291</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267" s="3"/>
@@ -4875,7 +4875,7 @@
         <v>88</v>
       </c>
       <c r="C268">
-        <v>1474.6243081813034</v>
+        <v>151.07629152489042</v>
       </c>
       <c r="D268" s="4"/>
       <c r="E268" s="3"/>
@@ -4888,7 +4888,7 @@
         <v>89</v>
       </c>
       <c r="C269">
-        <v>1374.6382575253826</v>
+        <v>98.185649981403117</v>
       </c>
       <c r="D269" s="4"/>
       <c r="E269" s="3"/>
@@ -4901,7 +4901,7 @@
         <v>138</v>
       </c>
       <c r="C270">
-        <v>2232.6952260717217</v>
+        <v>226.84540699061409</v>
       </c>
       <c r="D270" s="4"/>
       <c r="E270" s="3"/>
@@ -4914,7 +4914,7 @@
         <v>90</v>
       </c>
       <c r="C271">
-        <v>1645.0814030958252</v>
+        <v>156.96711774628346</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="3"/>
@@ -4927,7 +4927,7 @@
         <v>25</v>
       </c>
       <c r="C272">
-        <v>987.68467847719091</v>
+        <v>741.62380197135565</v>
       </c>
       <c r="D272" s="4"/>
       <c r="E272" s="3"/>
@@ -4940,7 +4940,7 @@
         <v>139</v>
       </c>
       <c r="C273">
-        <v>1243.6970585665647</v>
+        <v>1034.0800202087773</v>
       </c>
       <c r="D273" s="4"/>
       <c r="E273" s="3"/>
@@ -4953,7 +4953,7 @@
         <v>140</v>
       </c>
       <c r="C274">
-        <v>1523.2965296816985</v>
+        <v>146.24623348619849</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="3"/>
@@ -4966,7 +4966,7 @@
         <v>141</v>
       </c>
       <c r="C275">
-        <v>1048.2370469853115</v>
+        <v>421.41006849884565</v>
       </c>
       <c r="D275" s="4"/>
       <c r="E275" s="3"/>
@@ -4979,7 +4979,7 @@
         <v>91</v>
       </c>
       <c r="C276">
-        <v>119.14011623644991</v>
+        <v>1521.1170061898595</v>
       </c>
       <c r="D276" s="4"/>
       <c r="E276" s="3"/>
@@ -4992,7 +4992,7 @@
         <v>142</v>
       </c>
       <c r="C277">
-        <v>588.11549646818855</v>
+        <v>1395.5467641415235</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" s="3"/>
@@ -5005,7 +5005,7 @@
         <v>92</v>
       </c>
       <c r="C278">
-        <v>1090.1280777473999</v>
+        <v>601.58354799686572</v>
       </c>
       <c r="D278" s="4"/>
       <c r="E278" s="3"/>
@@ -5018,7 +5018,7 @@
         <v>83</v>
       </c>
       <c r="C279">
-        <v>464.01687097019698</v>
+        <v>1826.0554573653285</v>
       </c>
       <c r="D279" s="4"/>
       <c r="E279" s="3"/>
@@ -5031,7 +5031,7 @@
         <v>93</v>
       </c>
       <c r="C280">
-        <v>290.63203962069957</v>
+        <v>1574.0342337917941</v>
       </c>
       <c r="D280" s="4"/>
       <c r="E280" s="3"/>
@@ -5044,7 +5044,7 @@
         <v>143</v>
       </c>
       <c r="C281">
-        <v>1848.7636168740951</v>
+        <v>776.32710603692158</v>
       </c>
       <c r="D281" s="4"/>
       <c r="E281" s="3"/>
@@ -5057,7 +5057,7 @@
         <v>94</v>
       </c>
       <c r="C282">
-        <v>1140.6375811429527</v>
+        <v>376.9543903649967</v>
       </c>
       <c r="D282" s="4"/>
       <c r="E282" s="3"/>
@@ -5070,7 +5070,7 @@
         <v>144</v>
       </c>
       <c r="C283">
-        <v>1097.5050416008762</v>
+        <v>399.73310325214055</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="3"/>
@@ -5083,7 +5083,7 @@
         <v>145</v>
       </c>
       <c r="C284">
-        <v>360.34188189499787</v>
+        <v>1677.947072902512</v>
       </c>
       <c r="D284" s="4"/>
       <c r="E284" s="3"/>
@@ -5096,7 +5096,7 @@
         <v>95</v>
       </c>
       <c r="C285">
-        <v>2204.3765709815953</v>
+        <v>834.01881337525424</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285" s="3"/>
@@ -5109,7 +5109,7 @@
         <v>96</v>
       </c>
       <c r="C286">
-        <v>974.03380330806692</v>
+        <v>415.77697470382248</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="3"/>
@@ -5122,7 +5122,7 @@
         <v>97</v>
       </c>
       <c r="C287">
-        <v>2087.0038960690326</v>
+        <v>685.26231638796969</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="3"/>
@@ -5135,7 +5135,7 @@
         <v>146</v>
       </c>
       <c r="C288">
-        <v>516.03323896208394</v>
+        <v>871.10161586042568</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="3"/>
@@ -5148,7 +5148,7 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>82.429829895988277</v>
+        <v>1324.2567485389422</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="3"/>
@@ -5161,7 +5161,7 @@
         <v>147</v>
       </c>
       <c r="C290">
-        <v>491.36101063673578</v>
+        <v>1198.3298602693792</v>
       </c>
       <c r="D290" s="4"/>
       <c r="E290" s="3"/>
@@ -5174,7 +5174,7 @@
         <v>99</v>
       </c>
       <c r="C291">
-        <v>1634.9397733507008</v>
+        <v>242.52495102961083</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291" s="3"/>
@@ -5187,7 +5187,7 @@
         <v>62</v>
       </c>
       <c r="C292">
-        <v>1208.4300384419512</v>
+        <v>365.19585398903439</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292" s="3"/>
@@ -5200,7 +5200,7 @@
         <v>100</v>
       </c>
       <c r="C293">
-        <v>1018.2510372046396</v>
+        <v>1406.687080510354</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="3"/>
@@ -5213,7 +5213,7 @@
         <v>148</v>
       </c>
       <c r="C294">
-        <v>746.44530459952671</v>
+        <v>772.72315126103956</v>
       </c>
       <c r="D294" s="4"/>
       <c r="E294" s="3"/>
@@ -5226,7 +5226,7 @@
         <v>149</v>
       </c>
       <c r="C295">
-        <v>2152.1013116219801</v>
+        <v>748.48059560329034</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="3"/>
@@ -5239,7 +5239,7 @@
         <v>150</v>
       </c>
       <c r="C296">
-        <v>2236.4398450806539</v>
+        <v>832.87116799415753</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="3"/>
@@ -5252,7 +5252,7 @@
         <v>101</v>
       </c>
       <c r="C297">
-        <v>1080.5161962007844</v>
+        <v>382.93507456868343</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="3"/>
@@ -5265,7 +5265,7 @@
         <v>151</v>
       </c>
       <c r="C298">
-        <v>1549.5046470837046</v>
+        <v>199.64466219060279</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298" s="3"/>
@@ -5278,7 +5278,7 @@
         <v>102</v>
       </c>
       <c r="C299">
-        <v>1813.0424090191511</v>
+        <v>413.12281303323471</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299" s="3"/>
@@ -5291,7 +5291,7 @@
         <v>103</v>
       </c>
       <c r="C300">
-        <v>1423.6417233242692</v>
+        <v>1224.9663296864408</v>
       </c>
       <c r="D300" s="4"/>
       <c r="E300" s="3"/>
@@ -5304,7 +5304,7 @@
         <v>152</v>
       </c>
       <c r="C301">
-        <v>2265.8308750539072</v>
+        <v>451.52708158347463</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301" s="3"/>
@@ -5317,7 +5317,7 @@
         <v>104</v>
       </c>
       <c r="C302">
-        <v>1505.7920966841107</v>
+        <v>116.71211293407487</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302" s="3"/>
@@ -5330,7 +5330,7 @@
         <v>105</v>
       </c>
       <c r="C303">
-        <v>1540.6380021466432</v>
+        <v>316.27018594639503</v>
       </c>
       <c r="D303" s="4"/>
       <c r="E303" s="3"/>
@@ -5343,7 +5343,7 @@
         <v>106</v>
       </c>
       <c r="C304">
-        <v>1479.3943280093397</v>
+        <v>196.52322506338518</v>
       </c>
       <c r="D304" s="4"/>
       <c r="E304" s="3"/>
@@ -5356,7 +5356,7 @@
         <v>107</v>
       </c>
       <c r="C305">
-        <v>1403.2086324969341</v>
+        <v>67.993088302154078</v>
       </c>
       <c r="D305" s="4"/>
       <c r="E305" s="3"/>
@@ -5369,7 +5369,7 @@
         <v>108</v>
       </c>
       <c r="C306">
-        <v>2170.7027163533253</v>
+        <v>837.75066036110638</v>
       </c>
       <c r="D306" s="4"/>
       <c r="E306" s="3"/>
@@ -5382,7 +5382,7 @@
         <v>153</v>
       </c>
       <c r="C307">
-        <v>1495.3743060361969</v>
+        <v>130.70177459949841</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307" s="3"/>
@@ -5395,7 +5395,7 @@
         <v>109</v>
       </c>
       <c r="C308">
-        <v>1518.4698428037079</v>
+        <v>155.72576439556585</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="3"/>
@@ -5408,7 +5408,7 @@
         <v>154</v>
       </c>
       <c r="C309">
-        <v>1398.3388591934015</v>
+        <v>1197.826492136998</v>
       </c>
       <c r="D309" s="4"/>
       <c r="E309" s="3"/>
@@ -5421,7 +5421,7 @@
         <v>155</v>
       </c>
       <c r="C310">
-        <v>10417.108992494552</v>
+        <v>1220.4766227292241</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310" s="3"/>
@@ -5434,7 +5434,7 @@
         <v>110</v>
       </c>
       <c r="C311">
-        <v>869.63368231079403</v>
+        <v>2265.7685692209006</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311" s="3"/>
@@ -5447,7 +5447,7 @@
         <v>111</v>
       </c>
       <c r="C312">
-        <v>978.88778630330182</v>
+        <v>165.81923852817982</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="3"/>
@@ -5460,7 +5460,7 @@
         <v>112</v>
       </c>
       <c r="C313">
-        <v>1477.6584123256482</v>
+        <v>190.31482769725588</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="3"/>
@@ -5473,7 +5473,7 @@
         <v>156</v>
       </c>
       <c r="C314">
-        <v>1744.7766458105029</v>
+        <v>443.59870816730415</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314" s="3"/>
@@ -5486,7 +5486,7 @@
         <v>157</v>
       </c>
       <c r="C315">
-        <v>1651.9815841521895</v>
+        <v>291.05987084417785</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315" s="3"/>
@@ -5499,7 +5499,7 @@
         <v>61</v>
       </c>
       <c r="C316">
-        <v>1201.3923823494192</v>
+        <v>809.0752029098162</v>
       </c>
       <c r="D316" s="4"/>
       <c r="E316" s="3"/>
@@ -5512,7 +5512,7 @@
         <v>158</v>
       </c>
       <c r="C317">
-        <v>951.53261564112529</v>
+        <v>954.55530130721843</v>
       </c>
       <c r="D317" s="4"/>
       <c r="E317" s="3"/>
@@ -5525,7 +5525,7 @@
         <v>113</v>
       </c>
       <c r="C318">
-        <v>1043.8229634415998</v>
+        <v>651.53228648421475</v>
       </c>
       <c r="D318" s="4"/>
       <c r="E318" s="3"/>
@@ -5538,7 +5538,7 @@
         <v>114</v>
       </c>
       <c r="C319">
-        <v>2171.6457264514738</v>
+        <v>772.44440751099171</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319" s="3"/>
@@ -5551,7 +5551,7 @@
         <v>115</v>
       </c>
       <c r="C320">
-        <v>1404.5580362313212</v>
+        <v>160.77883332834745</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320" s="3"/>
@@ -5564,7 +5564,7 @@
         <v>159</v>
       </c>
       <c r="C321">
-        <v>1562.6974930498045</v>
+        <v>184.94379717537137</v>
       </c>
       <c r="D321" s="4"/>
       <c r="E321" s="3"/>
@@ -5577,7 +5577,7 @@
         <v>116</v>
       </c>
       <c r="C322">
-        <v>2231.1083665687252</v>
+        <v>950.4661403684953</v>
       </c>
       <c r="D322" s="4"/>
       <c r="E322" s="3"/>
@@ -5590,7 +5590,7 @@
         <v>117</v>
       </c>
       <c r="C323">
-        <v>258.12258706765147</v>
+        <v>1165.0064188263307</v>
       </c>
       <c r="D323" s="4"/>
       <c r="E323" s="3"/>
@@ -5603,7 +5603,7 @@
         <v>98</v>
       </c>
       <c r="C324">
-        <v>1010.6755430030678</v>
+        <v>588.45404926227422</v>
       </c>
       <c r="D324" s="4"/>
       <c r="E324" s="3"/>
@@ -5748,7 +5748,7 @@
         <v>23</v>
       </c>
       <c r="C336" s="4">
-        <v>174.7852485810206</v>
+        <v>172.69108762435241</v>
       </c>
       <c r="E336" s="3"/>
     </row>
@@ -5808,7 +5808,7 @@
         <v>27</v>
       </c>
       <c r="C341" s="4">
-        <v>8587.9275567280729</v>
+        <v>770.20872652214587</v>
       </c>
       <c r="E341" s="3"/>
     </row>
@@ -5856,7 +5856,7 @@
         <v>30</v>
       </c>
       <c r="C345" s="4">
-        <v>136.42508964692516</v>
+        <v>107.26751991582893</v>
       </c>
       <c r="E345" s="3"/>
     </row>
@@ -5940,7 +5940,7 @@
         <v>37</v>
       </c>
       <c r="C352" s="4">
-        <v>495.59640174196983</v>
+        <v>427.47573644794733</v>
       </c>
       <c r="E352" s="3"/>
     </row>
@@ -5952,7 +5952,7 @@
         <v>38</v>
       </c>
       <c r="C353" s="4">
-        <v>140.52644976445285</v>
+        <v>1542.6340822584768</v>
       </c>
       <c r="E353" s="3"/>
     </row>
@@ -5964,7 +5964,7 @@
         <v>39</v>
       </c>
       <c r="C354" s="4">
-        <v>585.63123054885693</v>
+        <v>515.15080926441919</v>
       </c>
       <c r="E354" s="3"/>
     </row>
@@ -6060,7 +6060,7 @@
         <v>45</v>
       </c>
       <c r="C362" s="4">
-        <v>839.59978034614096</v>
+        <v>763.26411880549449</v>
       </c>
       <c r="E362" s="3"/>
     </row>
@@ -6240,7 +6240,7 @@
         <v>56</v>
       </c>
       <c r="C377" s="4">
-        <v>731.94866440800172</v>
+        <v>108.7769127849463</v>
       </c>
       <c r="E377" s="3"/>
     </row>
@@ -6288,7 +6288,7 @@
         <v>15</v>
       </c>
       <c r="C381" s="4">
-        <v>258.95190997213615</v>
+        <v>315.81510437756668</v>
       </c>
       <c r="E381" s="3"/>
     </row>
@@ -6348,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="C386" s="4">
-        <v>21.041544059915417</v>
+        <v>1266.870682206918</v>
       </c>
       <c r="E386" s="3"/>
     </row>
@@ -6372,7 +6372,7 @@
         <v>63</v>
       </c>
       <c r="C388" s="4">
-        <v>604.10927036462181</v>
+        <v>740.14504115985392</v>
       </c>
       <c r="E388" s="3"/>
     </row>
@@ -6384,7 +6384,7 @@
         <v>64</v>
       </c>
       <c r="C389" s="4">
-        <v>213.51877452629154</v>
+        <v>1421.9063243641403</v>
       </c>
       <c r="E389" s="3"/>
     </row>
@@ -6456,7 +6456,7 @@
         <v>68</v>
       </c>
       <c r="C395" s="4">
-        <v>963.85183604453448</v>
+        <v>905.04809029955641</v>
       </c>
       <c r="E395" s="3"/>
     </row>
@@ -6480,7 +6480,7 @@
         <v>70</v>
       </c>
       <c r="C397" s="4">
-        <v>511.59204132869496</v>
+        <v>481.7769295899119</v>
       </c>
       <c r="E397" s="3"/>
     </row>
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="C399" s="4">
-        <v>1425.7851703428514</v>
+        <v>106.59930983884098</v>
       </c>
       <c r="E399" s="3"/>
     </row>
@@ -6540,7 +6540,7 @@
         <v>133</v>
       </c>
       <c r="C402" s="4">
-        <v>1033.1418502092408</v>
+        <v>1601.1909504354824</v>
       </c>
       <c r="E402" s="3"/>
     </row>
@@ -6552,7 +6552,7 @@
         <v>74</v>
       </c>
       <c r="C403" s="4">
-        <v>760.99502647237648</v>
+        <v>636.58640701526576</v>
       </c>
       <c r="E403" s="3"/>
     </row>
@@ -6576,7 +6576,7 @@
         <v>76</v>
       </c>
       <c r="C405" s="4">
-        <v>340.75503617464437</v>
+        <v>676.47873076282747</v>
       </c>
       <c r="E405" s="3"/>
     </row>
@@ -6600,7 +6600,7 @@
         <v>77</v>
       </c>
       <c r="C407" s="4">
-        <v>1773.3920187426581</v>
+        <v>1114.2306721975945</v>
       </c>
       <c r="E407" s="3"/>
     </row>
@@ -6612,7 +6612,7 @@
         <v>78</v>
       </c>
       <c r="C408" s="4">
-        <v>650.03443509106808</v>
+        <v>1172.3817373219688</v>
       </c>
       <c r="E408" s="3"/>
     </row>
@@ -6720,7 +6720,7 @@
         <v>84</v>
       </c>
       <c r="C417" s="4">
-        <v>185.08009864038962</v>
+        <v>507.05463881171568</v>
       </c>
       <c r="E417" s="3"/>
     </row>
@@ -6792,7 +6792,7 @@
         <v>138</v>
       </c>
       <c r="C423" s="4">
-        <v>958.00263755930462</v>
+        <v>235.45716917009227</v>
       </c>
       <c r="E423" s="3"/>
     </row>
@@ -6804,7 +6804,7 @@
         <v>90</v>
       </c>
       <c r="C424" s="4">
-        <v>272.95873147292968</v>
+        <v>261.72641542278933</v>
       </c>
       <c r="E424" s="3"/>
     </row>
@@ -6816,7 +6816,7 @@
         <v>25</v>
       </c>
       <c r="C425" s="4">
-        <v>731.7912804301975</v>
+        <v>774.32998727141535</v>
       </c>
       <c r="E425" s="3"/>
     </row>
@@ -6828,7 +6828,7 @@
         <v>139</v>
       </c>
       <c r="C426" s="4">
-        <v>183.08112809758433</v>
+        <v>1118.7431021295995</v>
       </c>
       <c r="E426" s="3"/>
     </row>
@@ -6876,7 +6876,7 @@
         <v>142</v>
       </c>
       <c r="C430" s="4">
-        <v>864.72398563659272</v>
+        <v>1417.9280651296338</v>
       </c>
       <c r="E430" s="3"/>
     </row>
@@ -6912,7 +6912,7 @@
         <v>93</v>
       </c>
       <c r="C433" s="4">
-        <v>1144.3735697204436</v>
+        <v>1614.4729913928259</v>
       </c>
       <c r="E433" s="3"/>
     </row>
@@ -6924,7 +6924,7 @@
         <v>143</v>
       </c>
       <c r="C434" s="4">
-        <v>423.07326645084993</v>
+        <v>808.82809987455107</v>
       </c>
       <c r="E434" s="3"/>
     </row>
@@ -6984,7 +6984,7 @@
         <v>96</v>
       </c>
       <c r="C439" s="4">
-        <v>451.75405232198779</v>
+        <v>427.35389817076401</v>
       </c>
       <c r="E439" s="3"/>
     </row>
@@ -7008,7 +7008,7 @@
         <v>146</v>
       </c>
       <c r="C441" s="4">
-        <v>915.82748272785125</v>
+        <v>898.51291812725231</v>
       </c>
       <c r="E441" s="3"/>
     </row>
@@ -7068,7 +7068,7 @@
         <v>100</v>
       </c>
       <c r="C446" s="4">
-        <v>605.88768684557078</v>
+        <v>1455.8746436371093</v>
       </c>
       <c r="E446" s="3"/>
     </row>
@@ -7140,7 +7140,7 @@
         <v>102</v>
       </c>
       <c r="C452" s="4">
-        <v>387.94751132400523</v>
+        <v>366.35855434186544</v>
       </c>
       <c r="E452" s="3"/>
     </row>
@@ -7152,7 +7152,7 @@
         <v>103</v>
       </c>
       <c r="C453" s="4">
-        <v>2.1992212293420286</v>
+        <v>1268.5490149726163</v>
       </c>
       <c r="E453" s="3"/>
     </row>
@@ -7164,7 +7164,7 @@
         <v>152</v>
       </c>
       <c r="C454" s="4">
-        <v>843.84044098904837</v>
+        <v>361.45397563439116</v>
       </c>
       <c r="E454" s="3"/>
     </row>
@@ -7176,7 +7176,7 @@
         <v>104</v>
       </c>
       <c r="C455" s="4">
-        <v>101.36928878781137</v>
+        <v>94.606317504974285</v>
       </c>
       <c r="E455" s="3"/>
     </row>
@@ -7260,7 +7260,7 @@
         <v>154</v>
       </c>
       <c r="C462" s="4">
-        <v>44.977318158840824</v>
+        <v>1181.8798577183375</v>
       </c>
       <c r="E462" s="3"/>
     </row>
@@ -7272,7 +7272,7 @@
         <v>155</v>
       </c>
       <c r="C463" s="4">
-        <v>10618.156685454505</v>
+        <v>1314.1332360146855</v>
       </c>
       <c r="E463" s="3"/>
     </row>
@@ -7296,7 +7296,7 @@
         <v>111</v>
       </c>
       <c r="C465" s="4">
-        <v>566.43231705191363</v>
+        <v>69.869123092669753</v>
       </c>
       <c r="E465" s="3"/>
     </row>
@@ -7344,7 +7344,7 @@
         <v>61</v>
       </c>
       <c r="C469" s="4">
-        <v>265.79655753312949</v>
+        <v>900.45029954325207</v>
       </c>
       <c r="E469" s="3"/>
     </row>
@@ -7356,7 +7356,7 @@
         <v>158</v>
       </c>
       <c r="C470" s="4">
-        <v>495.59640174196983</v>
+        <v>1040.7649316737686</v>
       </c>
       <c r="E470" s="3"/>
     </row>
@@ -7582,7 +7582,7 @@
         <v>23</v>
       </c>
       <c r="C488">
-        <v>1052.7215614195168</v>
+        <v>1054.0260755513384</v>
       </c>
       <c r="D488" s="4"/>
       <c r="E488" s="3"/>
@@ -7647,7 +7647,7 @@
         <v>27</v>
       </c>
       <c r="C493">
-        <v>8157.8990613904043</v>
+        <v>811.22315859188143</v>
       </c>
       <c r="D493" s="4"/>
       <c r="E493" s="3"/>
@@ -7660,7 +7660,7 @@
         <v>28</v>
       </c>
       <c r="C494">
-        <v>898.38835357641528</v>
+        <v>1225.4236262360214</v>
       </c>
       <c r="D494" s="4"/>
       <c r="E494" s="3"/>
@@ -7712,7 +7712,7 @@
         <v>30</v>
       </c>
       <c r="C498">
-        <v>1347.7850254743296</v>
+        <v>1316.6324719467041</v>
       </c>
       <c r="D498" s="4"/>
       <c r="E498" s="3"/>
@@ -7803,7 +7803,7 @@
         <v>37</v>
       </c>
       <c r="C505">
-        <v>730.95074839992196</v>
+        <v>823.86328352642863</v>
       </c>
       <c r="D505" s="4"/>
       <c r="E505" s="3"/>
@@ -7816,7 +7816,7 @@
         <v>38</v>
       </c>
       <c r="C506">
-        <v>1167.7144641308528</v>
+        <v>354.31413447464547</v>
       </c>
       <c r="D506" s="4"/>
       <c r="E506" s="3"/>
@@ -7829,7 +7829,7 @@
         <v>39</v>
       </c>
       <c r="C507">
-        <v>664.00783039796806</v>
+        <v>723.25373780844404</v>
       </c>
       <c r="D507" s="4"/>
       <c r="E507" s="3"/>
@@ -7933,7 +7933,7 @@
         <v>45</v>
       </c>
       <c r="C515">
-        <v>423.86631281699118</v>
+        <v>507.87521474060628</v>
       </c>
       <c r="D515" s="4"/>
       <c r="E515" s="3"/>
@@ -8128,7 +8128,7 @@
         <v>56</v>
       </c>
       <c r="C530">
-        <v>890.0025779281309</v>
+        <v>1213.4441207465723</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530" s="3"/>
@@ -8180,7 +8180,7 @@
         <v>15</v>
       </c>
       <c r="C534">
-        <v>1391.2610678290371</v>
+        <v>1441.0609051362042</v>
       </c>
       <c r="D534" s="4"/>
       <c r="E534" s="3"/>
@@ -8245,7 +8245,7 @@
         <v>7</v>
       </c>
       <c r="C539">
-        <v>1242.6452235020251</v>
+        <v>647.58868235954492</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539" s="3"/>
@@ -8271,7 +8271,7 @@
         <v>63</v>
       </c>
       <c r="C541">
-        <v>720.24183465908823</v>
+        <v>889.15357387076483</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541" s="3"/>
@@ -8284,7 +8284,7 @@
         <v>64</v>
       </c>
       <c r="C542">
-        <v>1398.1023625252085</v>
+        <v>402.80864286043339</v>
       </c>
       <c r="D542" s="4"/>
       <c r="E542" s="3"/>
@@ -8362,7 +8362,7 @@
         <v>68</v>
       </c>
       <c r="C548">
-        <v>1921.3615904331764</v>
+        <v>1840.3351865162897</v>
       </c>
       <c r="D548" s="4"/>
       <c r="E548" s="3"/>
@@ -8388,7 +8388,7 @@
         <v>70</v>
       </c>
       <c r="C550">
-        <v>1057.4993561208335</v>
+        <v>1054.7717099302304</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550" s="3"/>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="C552">
-        <v>431.02658011871006</v>
+        <v>1176.156190948044</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552" s="3"/>
@@ -8453,7 +8453,7 @@
         <v>133</v>
       </c>
       <c r="C555">
-        <v>209.14966437121373</v>
+        <v>629.21781804215902</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555" s="3"/>
@@ -8466,7 +8466,7 @@
         <v>74</v>
       </c>
       <c r="C556">
-        <v>517.75517888766501</v>
+        <v>1723.7029895564281</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="3"/>
@@ -8492,7 +8492,7 @@
         <v>76</v>
       </c>
       <c r="C558">
-        <v>1189.8070669654662</v>
+        <v>633.0442441595909</v>
       </c>
       <c r="D558" s="4"/>
       <c r="E558" s="3"/>
@@ -8518,7 +8518,7 @@
         <v>77</v>
       </c>
       <c r="C560">
-        <v>570.36838713086468</v>
+        <v>500.27213047533832</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560" s="3"/>
@@ -8531,7 +8531,7 @@
         <v>78</v>
       </c>
       <c r="C561">
-        <v>879.70365986987213</v>
+        <v>2189.54465655798</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561" s="3"/>
@@ -8648,7 +8648,7 @@
         <v>84</v>
       </c>
       <c r="C570">
-        <v>1410.4939100061504</v>
+        <v>728.43960166415798</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570" s="3"/>
@@ -8726,7 +8726,7 @@
         <v>138</v>
       </c>
       <c r="C576">
-        <v>1908.5118841157962</v>
+        <v>996.2383532678507</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576" s="3"/>
@@ -8739,7 +8739,7 @@
         <v>90</v>
       </c>
       <c r="C577">
-        <v>1395.059473463961</v>
+        <v>1155.1092554756835</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="3"/>
@@ -8752,7 +8752,7 @@
         <v>25</v>
       </c>
       <c r="C578">
-        <v>627.42263647791322</v>
+        <v>1811.4063025659887</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578" s="3"/>
@@ -8765,7 +8765,7 @@
         <v>139</v>
       </c>
       <c r="C579">
-        <v>1046.3810751854071</v>
+        <v>506.01932387915969</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579" s="3"/>
@@ -8817,7 +8817,7 @@
         <v>142</v>
       </c>
       <c r="C583">
-        <v>583.7584501553481</v>
+        <v>402.77849779279387</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583" s="3"/>
@@ -8856,7 +8856,7 @@
         <v>93</v>
       </c>
       <c r="C586">
-        <v>416.8936821331431</v>
+        <v>413.17808955231607</v>
       </c>
       <c r="D586" s="4"/>
       <c r="E586" s="3"/>
@@ -8869,7 +8869,7 @@
         <v>143</v>
       </c>
       <c r="C587">
-        <v>1637.2062175344813</v>
+        <v>440.99456000037463</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587" s="3"/>
@@ -8934,7 +8934,7 @@
         <v>96</v>
       </c>
       <c r="C592">
-        <v>803.78228602759282</v>
+        <v>824.03445360230307</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592" s="3"/>
@@ -8960,7 +8960,7 @@
         <v>146</v>
       </c>
       <c r="C594">
-        <v>388.0528411663866</v>
+        <v>388.60147425211687</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594" s="3"/>
@@ -9025,7 +9025,7 @@
         <v>100</v>
       </c>
       <c r="C599">
-        <v>696.29691754328178</v>
+        <v>230.64577938654449</v>
       </c>
       <c r="D599" s="4"/>
       <c r="E599" s="3"/>
@@ -9103,7 +9103,7 @@
         <v>102</v>
       </c>
       <c r="C605">
-        <v>1605.9208396741324</v>
+        <v>1586.5828207146167</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605" s="3"/>
@@ -9116,7 +9116,7 @@
         <v>103</v>
       </c>
       <c r="C606">
-        <v>1223.5126458584218</v>
+        <v>85.472488638712676</v>
       </c>
       <c r="D606" s="4"/>
       <c r="E606" s="3"/>
@@ -9129,7 +9129,7 @@
         <v>152</v>
       </c>
       <c r="C607">
-        <v>2026.8984230259302</v>
+        <v>1234.8523546774779</v>
       </c>
       <c r="D607" s="4"/>
       <c r="E607" s="3"/>
@@ -9142,7 +9142,7 @@
         <v>104</v>
       </c>
       <c r="C608">
-        <v>1285.0862946252807</v>
+        <v>1289.3158208416032</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608" s="3"/>
@@ -9233,7 +9233,7 @@
         <v>154</v>
       </c>
       <c r="C615">
-        <v>1209.5840837738831</v>
+        <v>737.47740036281709</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615" s="3"/>
@@ -9246,7 +9246,7 @@
         <v>155</v>
       </c>
       <c r="C616">
-        <v>10107.508979870378</v>
+        <v>718.85175642330796</v>
       </c>
       <c r="D616" s="4"/>
       <c r="E616" s="3"/>
@@ -9272,7 +9272,7 @@
         <v>111</v>
       </c>
       <c r="C618">
-        <v>935.1461137698883</v>
+        <v>1291.5629590506553</v>
       </c>
       <c r="D618" s="4"/>
       <c r="E618" s="3"/>
@@ -9324,7 +9324,7 @@
         <v>61</v>
       </c>
       <c r="C622">
-        <v>1058.7091659593962</v>
+        <v>647.43163200443587</v>
       </c>
       <c r="D622" s="4"/>
       <c r="E622" s="3"/>
@@ -9337,7 +9337,7 @@
         <v>158</v>
       </c>
       <c r="C623">
-        <v>730.95074839992196</v>
+        <v>537.98710985510172</v>
       </c>
       <c r="D623" s="4"/>
       <c r="E623" s="3"/>
@@ -9584,7 +9584,7 @@
         <v>23</v>
       </c>
       <c r="C642">
-        <v>185.12749878745353</v>
+        <v>150.32827892918834</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642" s="3"/>
@@ -9649,7 +9649,7 @@
         <v>27</v>
       </c>
       <c r="C647">
-        <v>8680.165570781337</v>
+        <v>814.12872420400049</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647" s="3"/>
@@ -9662,7 +9662,7 @@
         <v>28</v>
       </c>
       <c r="C648">
-        <v>359.80360393444136</v>
+        <v>140.52644976445285</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648" s="3"/>
@@ -9714,7 +9714,7 @@
         <v>30</v>
       </c>
       <c r="C652">
-        <v>264.02288980933633</v>
+        <v>239.657030001149</v>
       </c>
       <c r="D652" s="4"/>
       <c r="E652" s="3"/>
@@ -9805,7 +9805,7 @@
         <v>37</v>
       </c>
       <c r="C659">
-        <v>441.82148899833015</v>
+        <v>345.93611616524078</v>
       </c>
       <c r="D659" s="4"/>
       <c r="E659" s="3"/>
@@ -9818,7 +9818,7 @@
         <v>39</v>
       </c>
       <c r="C660">
-        <v>508.31766219148489</v>
+        <v>444.66710350556536</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660" s="3"/>
@@ -9922,7 +9922,7 @@
         <v>45</v>
       </c>
       <c r="C668">
-        <v>762.82169879244941</v>
+        <v>681.88913246816753</v>
       </c>
       <c r="D668" s="4"/>
       <c r="E668" s="3"/>
@@ -10117,7 +10117,7 @@
         <v>56</v>
       </c>
       <c r="C683">
-        <v>788.80300989006548</v>
+        <v>237.2569936901246</v>
       </c>
       <c r="D683" s="4"/>
       <c r="E683" s="3"/>
@@ -10169,7 +10169,7 @@
         <v>15</v>
       </c>
       <c r="C687">
-        <v>398.56057741960569</v>
+        <v>454.64406456424388</v>
       </c>
       <c r="D687" s="4"/>
       <c r="E687" s="3"/>
@@ -10234,7 +10234,7 @@
         <v>7</v>
       </c>
       <c r="C692">
-        <v>159.50026863230707</v>
+        <v>1150.8146993819444</v>
       </c>
       <c r="D692" s="4"/>
       <c r="E692" s="3"/>
@@ -10260,7 +10260,7 @@
         <v>63</v>
       </c>
       <c r="C694">
-        <v>613.6448453830377</v>
+        <v>796.92143114849398</v>
       </c>
       <c r="D694" s="4"/>
       <c r="E694" s="3"/>
@@ -10273,7 +10273,7 @@
         <v>64</v>
       </c>
       <c r="C695">
-        <v>346.68399647368938</v>
+        <v>1330.6296886356954</v>
       </c>
       <c r="D695" s="4"/>
       <c r="E695" s="3"/>
@@ -10351,7 +10351,7 @@
         <v>68</v>
       </c>
       <c r="C701">
-        <v>1103.8621649778293</v>
+        <v>1045.5202122708868</v>
       </c>
       <c r="D701" s="4"/>
       <c r="E701" s="3"/>
@@ -10377,7 +10377,7 @@
         <v>70</v>
       </c>
       <c r="C703">
-        <v>371.44601632976565</v>
+        <v>341.82965399376371</v>
       </c>
       <c r="D703" s="4"/>
       <c r="E703" s="3"/>
@@ -10403,7 +10403,7 @@
         <v>1</v>
       </c>
       <c r="C705">
-        <v>1332.0167949480169</v>
+        <v>217.8006715184394</v>
       </c>
       <c r="D705" s="4"/>
       <c r="E705" s="3"/>
@@ -10442,7 +10442,7 @@
         <v>133</v>
       </c>
       <c r="C708">
-        <v>967.19973303173344</v>
+        <v>1499.3598072432674</v>
       </c>
       <c r="D708" s="4"/>
       <c r="E708" s="3"/>
@@ -10455,7 +10455,7 @@
         <v>74</v>
       </c>
       <c r="C709">
-        <v>677.31455962310417</v>
+        <v>772.69201801327745</v>
       </c>
       <c r="D709" s="4"/>
       <c r="E709" s="3"/>
@@ -10481,7 +10481,7 @@
         <v>76</v>
       </c>
       <c r="C711">
-        <v>206.57082114352249</v>
+        <v>673.31396093885292</v>
       </c>
       <c r="D711" s="4"/>
       <c r="E711" s="3"/>
@@ -10507,7 +10507,7 @@
         <v>77</v>
       </c>
       <c r="C713">
-        <v>1699.869214021895</v>
+        <v>1115.6019597034694</v>
       </c>
       <c r="D713" s="4"/>
       <c r="E713" s="3"/>
@@ -10520,7 +10520,7 @@
         <v>78</v>
       </c>
       <c r="C714">
-        <v>519.02832089740878</v>
+        <v>1308.6852569057344</v>
       </c>
       <c r="D714" s="4"/>
       <c r="E714" s="3"/>
@@ -10637,7 +10637,7 @@
         <v>84</v>
       </c>
       <c r="C723">
-        <v>279.85550108156463</v>
+        <v>439.27568321900458</v>
       </c>
       <c r="D723" s="4"/>
       <c r="E723" s="3"/>
@@ -10715,7 +10715,7 @@
         <v>138</v>
       </c>
       <c r="C729">
-        <v>1098.1699568841009</v>
+        <v>182.67840441449655</v>
       </c>
       <c r="D729" s="4"/>
       <c r="E729" s="3"/>
@@ -10728,7 +10728,7 @@
         <v>90</v>
       </c>
       <c r="C730">
-        <v>412.90589863713581</v>
+        <v>369.78856583803247</v>
       </c>
       <c r="D730" s="4"/>
       <c r="E730" s="3"/>
@@ -10741,7 +10741,7 @@
         <v>25</v>
       </c>
       <c r="C731">
-        <v>736.48357527474025</v>
+        <v>912.51448293386591</v>
       </c>
       <c r="D731" s="4"/>
       <c r="E731" s="3"/>
@@ -10754,7 +10754,7 @@
         <v>139</v>
       </c>
       <c r="C732">
-        <v>145.99621056624466</v>
+        <v>1120.8056865604726</v>
       </c>
       <c r="D732" s="4"/>
       <c r="E732" s="3"/>
@@ -10806,7 +10806,7 @@
         <v>142</v>
       </c>
       <c r="C736">
-        <v>757.008229042528</v>
+        <v>1326.4389562640197</v>
       </c>
       <c r="D736" s="4"/>
       <c r="E736" s="3"/>
@@ -10845,7 +10845,7 @@
         <v>93</v>
       </c>
       <c r="C739">
-        <v>1045.5107420209986</v>
+        <v>1542.4366475931042</v>
       </c>
       <c r="D739" s="4"/>
       <c r="E739" s="3"/>
@@ -10858,7 +10858,7 @@
         <v>143</v>
       </c>
       <c r="C740">
-        <v>528.37731523700552</v>
+        <v>735.87999355638067</v>
       </c>
       <c r="D740" s="4"/>
       <c r="E740" s="3"/>
@@ -10923,7 +10923,7 @@
         <v>96</v>
       </c>
       <c r="C745">
-        <v>367.9867352822157</v>
+        <v>345.77698569331346</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745" s="3"/>
@@ -10949,7 +10949,7 @@
         <v>146</v>
       </c>
       <c r="C747">
-        <v>832.4799133875938</v>
+        <v>817.80452677630149</v>
       </c>
       <c r="D747" s="4"/>
       <c r="E747" s="3"/>
@@ -11014,7 +11014,7 @@
         <v>100</v>
       </c>
       <c r="C752">
-        <v>607.62544367279179</v>
+        <v>1396.1170255143236</v>
       </c>
       <c r="D752" s="4"/>
       <c r="E752" s="3"/>
@@ -11092,7 +11092,7 @@
         <v>102</v>
       </c>
       <c r="C758">
-        <v>490.39762697769146</v>
+        <v>466.55577426451521</v>
       </c>
       <c r="D758" s="4"/>
       <c r="E758" s="3"/>
@@ -11105,7 +11105,7 @@
         <v>103</v>
       </c>
       <c r="C759">
-        <v>138.68967757514599</v>
+        <v>1202.9039724076983</v>
       </c>
       <c r="D759" s="4"/>
       <c r="E759" s="3"/>
@@ -11118,7 +11118,7 @@
         <v>152</v>
       </c>
       <c r="C760">
-        <v>956.82621739040087</v>
+        <v>234.87359437990057</v>
       </c>
       <c r="D760" s="4"/>
       <c r="E760" s="3"/>
@@ -11131,7 +11131,7 @@
         <v>104</v>
       </c>
       <c r="C761">
-        <v>241.4634879933906</v>
+        <v>233.53066587136098</v>
       </c>
       <c r="D761" s="4"/>
       <c r="E761" s="3"/>
@@ -11222,7 +11222,7 @@
         <v>154</v>
       </c>
       <c r="C768">
-        <v>95.869737518112203</v>
+        <v>1058.4935323930727</v>
       </c>
       <c r="D768" s="4"/>
       <c r="E768" s="3"/>
@@ -11235,7 +11235,7 @@
         <v>155</v>
       </c>
       <c r="C769">
-        <v>10705.497228587199</v>
+        <v>1335.1110272354051</v>
       </c>
       <c r="D769" s="4"/>
       <c r="E769" s="3"/>
@@ -11261,7 +11261,7 @@
         <v>111</v>
       </c>
       <c r="C771">
-        <v>432.82366100918085</v>
+        <v>165.33609217287963</v>
       </c>
       <c r="D771" s="4"/>
       <c r="E771" s="3"/>
@@ -11313,7 +11313,7 @@
         <v>61</v>
       </c>
       <c r="C775">
-        <v>137.09106691009436</v>
+        <v>920.45115218321007</v>
       </c>
       <c r="D775" s="4"/>
       <c r="E775" s="3"/>
@@ -11326,7 +11326,7 @@
         <v>158</v>
       </c>
       <c r="C776">
-        <v>441.82148899833015</v>
+        <v>1047.0657482470301</v>
       </c>
       <c r="D776" s="4"/>
       <c r="E776" s="3"/>
@@ -11573,7 +11573,7 @@
         <v>23</v>
       </c>
       <c r="C795">
-        <v>1349.1455420517705</v>
+        <v>1387.2789987599417</v>
       </c>
       <c r="D795" s="4"/>
       <c r="E795" s="3"/>
@@ -11625,7 +11625,7 @@
         <v>27</v>
       </c>
       <c r="C799">
-        <v>7683.4733556941583</v>
+        <v>1284.6248278506878</v>
       </c>
       <c r="D799" s="4"/>
       <c r="E799" s="3"/>
@@ -11638,7 +11638,7 @@
         <v>28</v>
       </c>
       <c r="C800">
-        <v>1364.9234305607226</v>
+        <v>1294.8975884469862</v>
       </c>
       <c r="D800" s="4"/>
       <c r="E800" s="3"/>
@@ -11690,7 +11690,7 @@
         <v>30</v>
       </c>
       <c r="C804">
-        <v>1193.0663859794711</v>
+        <v>1207.7344414684931</v>
       </c>
       <c r="D804" s="4"/>
       <c r="E804" s="3"/>
@@ -11781,7 +11781,7 @@
         <v>37</v>
       </c>
       <c r="C811">
-        <v>1573.5221997407759</v>
+        <v>1598.430970314708</v>
       </c>
       <c r="D811" s="4"/>
       <c r="E811" s="3"/>
@@ -11794,7 +11794,7 @@
         <v>38</v>
       </c>
       <c r="C812">
-        <v>1435.0253282163728</v>
+        <v>2265.3322246942612</v>
       </c>
       <c r="D812" s="4"/>
       <c r="E812" s="3"/>
@@ -11807,7 +11807,7 @@
         <v>39</v>
       </c>
       <c r="C813">
-        <v>1697.5262874224529</v>
+        <v>1630.2950467989085</v>
       </c>
       <c r="D813" s="4"/>
       <c r="E813" s="3"/>
@@ -11911,7 +11911,7 @@
         <v>45</v>
       </c>
       <c r="C821">
-        <v>1883.7417248338115</v>
+        <v>1842.4945793587692</v>
       </c>
       <c r="D821" s="4"/>
       <c r="E821" s="3"/>
@@ -12106,7 +12106,7 @@
         <v>56</v>
       </c>
       <c r="C836">
-        <v>1204.4918021831302</v>
+        <v>1203.5041701258326</v>
       </c>
       <c r="D836" s="4"/>
       <c r="E836" s="3"/>
@@ -12158,7 +12158,7 @@
         <v>15</v>
       </c>
       <c r="C840">
-        <v>1043.7836826487244</v>
+        <v>993.63453631135746</v>
       </c>
       <c r="D840" s="4"/>
       <c r="E840" s="3"/>
@@ -12223,7 +12223,7 @@
         <v>7</v>
       </c>
       <c r="C845">
-        <v>1277.0916414976009</v>
+        <v>2427.3519572618266</v>
       </c>
       <c r="D845" s="4"/>
       <c r="E845" s="3"/>
@@ -12249,7 +12249,7 @@
         <v>63</v>
       </c>
       <c r="C847">
-        <v>1409.6507000475704</v>
+        <v>1205.7023717376119</v>
       </c>
       <c r="D847" s="4"/>
       <c r="E847" s="3"/>
@@ -12262,7 +12262,7 @@
         <v>64</v>
       </c>
       <c r="C848">
-        <v>1111.8016333608671</v>
+        <v>2440.1379042702524</v>
       </c>
       <c r="D848" s="4"/>
       <c r="E848" s="3"/>
@@ -12340,7 +12340,7 @@
         <v>68</v>
       </c>
       <c r="C854">
-        <v>381.60206537978934</v>
+        <v>407.17946850173314</v>
       </c>
       <c r="D854" s="4"/>
       <c r="E854" s="3"/>
@@ -12366,7 +12366,7 @@
         <v>70</v>
       </c>
       <c r="C856">
-        <v>1802.775826740814</v>
+        <v>1772.3972205218081</v>
       </c>
       <c r="D856" s="4"/>
       <c r="E856" s="3"/>
@@ -12392,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="C858">
-        <v>2457.114843372442</v>
+        <v>1232.7683727604935</v>
       </c>
       <c r="D858" s="4"/>
       <c r="E858" s="3"/>
@@ -12431,7 +12431,7 @@
         <v>133</v>
       </c>
       <c r="C861">
-        <v>1985.8286806085632</v>
+        <v>2661.3276167821441</v>
       </c>
       <c r="D861" s="4"/>
       <c r="E861" s="3"/>
@@ -12444,7 +12444,7 @@
         <v>74</v>
       </c>
       <c r="C862">
-        <v>1849.1060700825276</v>
+        <v>732.481044338483</v>
       </c>
       <c r="D862" s="4"/>
       <c r="E862" s="3"/>
@@ -12470,7 +12470,7 @@
         <v>76</v>
       </c>
       <c r="C864">
-        <v>1632.4693832088913</v>
+        <v>1486.7460334985255</v>
       </c>
       <c r="D864" s="4"/>
       <c r="E864" s="3"/>
@@ -12496,7 +12496,7 @@
         <v>77</v>
       </c>
       <c r="C866">
-        <v>2647.3328640821956</v>
+        <v>1680.5918110943157</v>
       </c>
       <c r="D866" s="4"/>
       <c r="E866" s="3"/>
@@ -12509,7 +12509,7 @@
         <v>78</v>
       </c>
       <c r="C867">
-        <v>1908.7865833997053</v>
+        <v>431.01522298692089</v>
       </c>
       <c r="D867" s="4"/>
       <c r="E867" s="3"/>
@@ -12626,7 +12626,7 @@
         <v>84</v>
       </c>
       <c r="C876">
-        <v>1233.1910980543546</v>
+        <v>1617.8787043334792</v>
       </c>
       <c r="D876" s="4"/>
       <c r="E876" s="3"/>
@@ -12704,7 +12704,7 @@
         <v>138</v>
       </c>
       <c r="C882">
-        <v>378.47584011151491</v>
+        <v>1441.6366473662281</v>
       </c>
       <c r="D882" s="4"/>
       <c r="E882" s="3"/>
@@ -12717,7 +12717,7 @@
         <v>90</v>
       </c>
       <c r="C883">
-        <v>1028.1927269897467</v>
+        <v>1122.0201981914602</v>
       </c>
       <c r="D883" s="4"/>
       <c r="E883" s="3"/>
@@ -12730,7 +12730,7 @@
         <v>25</v>
       </c>
       <c r="C884">
-        <v>1473.9115503183234</v>
+        <v>589.29362839722535</v>
       </c>
       <c r="D884" s="4"/>
       <c r="E884" s="3"/>
@@ -12743,7 +12743,7 @@
         <v>139</v>
       </c>
       <c r="C885">
-        <v>1404.9886743396171</v>
+        <v>1678.9842804421651</v>
       </c>
       <c r="D885" s="4"/>
       <c r="E885" s="3"/>
@@ -12795,7 +12795,7 @@
         <v>142</v>
       </c>
       <c r="C889">
-        <v>2024.6304945165687</v>
+        <v>2437.7557848554143</v>
       </c>
       <c r="D889" s="4"/>
       <c r="E889" s="3"/>
@@ -12834,7 +12834,7 @@
         <v>93</v>
       </c>
       <c r="C892">
-        <v>2233.0139956846292</v>
+        <v>2498.9859708140921</v>
       </c>
       <c r="D892" s="4"/>
       <c r="E892" s="3"/>
@@ -12847,7 +12847,7 @@
         <v>143</v>
       </c>
       <c r="C893">
-        <v>1085.828954006457</v>
+        <v>1845.340010351292</v>
       </c>
       <c r="D893" s="4"/>
       <c r="E893" s="3"/>
@@ -12912,7 +12912,7 @@
         <v>96</v>
       </c>
       <c r="C898">
-        <v>1620.0802469759938</v>
+        <v>1598.4280727954736</v>
       </c>
       <c r="D898" s="4"/>
       <c r="E898" s="3"/>
@@ -12938,7 +12938,7 @@
         <v>146</v>
       </c>
       <c r="C900">
-        <v>1970.5401888051606</v>
+        <v>1945.732080095368</v>
       </c>
       <c r="D900" s="4"/>
       <c r="E900" s="3"/>
@@ -13003,7 +13003,7 @@
         <v>100</v>
       </c>
       <c r="C905">
-        <v>1441.0716082631197</v>
+        <v>2291.5758803365575</v>
       </c>
       <c r="D905" s="4"/>
       <c r="E905" s="3"/>
@@ -13081,7 +13081,7 @@
         <v>102</v>
       </c>
       <c r="C911">
-        <v>1114.1851731788408</v>
+        <v>1132.8666243924408</v>
       </c>
       <c r="D911" s="4"/>
       <c r="E911" s="3"/>
@@ -13094,7 +13094,7 @@
         <v>103</v>
       </c>
       <c r="C912">
-        <v>1296.6393239567694</v>
+        <v>2171.1826990008281</v>
       </c>
       <c r="D912" s="4"/>
       <c r="E912" s="3"/>
@@ -13107,7 +13107,7 @@
         <v>152</v>
       </c>
       <c r="C913">
-        <v>897.60589343001027</v>
+        <v>1645.5474381947433</v>
       </c>
       <c r="D913" s="4"/>
       <c r="E913" s="3"/>
@@ -13120,7 +13120,7 @@
         <v>104</v>
       </c>
       <c r="C914">
-        <v>1195.7258441031086</v>
+        <v>1205.3756605214096</v>
       </c>
       <c r="D914" s="4"/>
       <c r="E914" s="3"/>
@@ -13211,7 +13211,7 @@
         <v>154</v>
       </c>
       <c r="C921">
-        <v>1339.8667967711224</v>
+        <v>2382.9955032137536</v>
       </c>
       <c r="D921" s="4"/>
       <c r="E921" s="3"/>
@@ -13224,7 +13224,7 @@
         <v>155</v>
       </c>
       <c r="C922">
-        <v>9731.2493525685422</v>
+        <v>1667.5503039349392</v>
       </c>
       <c r="D922" s="4"/>
       <c r="E922" s="3"/>
@@ -13250,7 +13250,7 @@
         <v>111</v>
       </c>
       <c r="C924">
-        <v>1836.6712056421125</v>
+        <v>1292.6314668981645</v>
       </c>
       <c r="D924" s="4"/>
       <c r="E924" s="3"/>
@@ -13302,7 +13302,7 @@
         <v>61</v>
       </c>
       <c r="C928">
-        <v>1545.7801847584331</v>
+        <v>1462.1942598856087</v>
       </c>
       <c r="D928" s="4"/>
       <c r="E928" s="3"/>
@@ -13315,7 +13315,7 @@
         <v>158</v>
       </c>
       <c r="C929">
-        <v>1573.5221997407759</v>
+        <v>1609.5300770191764</v>
       </c>
       <c r="D929" s="4"/>
       <c r="E929" s="3"/>
@@ -13549,7 +13549,7 @@
         <v>23</v>
       </c>
       <c r="C947">
-        <v>363.51141652841835</v>
+        <v>326.96588572716621</v>
       </c>
       <c r="D947" s="4"/>
       <c r="E947" s="3"/>
@@ -13614,7 +13614,7 @@
         <v>27</v>
       </c>
       <c r="C952">
-        <v>8723.4337273670571</v>
+        <v>818.5798015831582</v>
       </c>
       <c r="D952" s="4"/>
       <c r="E952" s="3"/>
@@ -13627,7 +13627,7 @@
         <v>28</v>
       </c>
       <c r="C953">
-        <v>400.55301825675662</v>
+        <v>460.34294920257878</v>
       </c>
       <c r="D953" s="4"/>
       <c r="E953" s="3"/>
@@ -13679,7 +13679,7 @@
         <v>30</v>
       </c>
       <c r="C957">
-        <v>594.85844607744036</v>
+        <v>567.21144582047248</v>
       </c>
       <c r="D957" s="4"/>
       <c r="E957" s="3"/>
@@ -13770,7 +13770,7 @@
         <v>37</v>
       </c>
       <c r="C964">
-        <v>293.40643139189962</v>
+        <v>173.84491194068406</v>
       </c>
       <c r="D964" s="4"/>
       <c r="E964" s="3"/>
@@ -13783,7 +13783,7 @@
         <v>38</v>
       </c>
       <c r="C965">
-        <v>337.16085219023819</v>
+        <v>1260.1598710675514</v>
       </c>
       <c r="D965" s="4"/>
       <c r="E965" s="3"/>
@@ -13796,7 +13796,7 @@
         <v>39</v>
       </c>
       <c r="C966">
-        <v>268.34995211019248</v>
+        <v>246.90634632296297</v>
       </c>
       <c r="D966" s="4"/>
       <c r="E966" s="3"/>
@@ -13900,7 +13900,7 @@
         <v>45</v>
       </c>
       <c r="C974">
-        <v>487.43016219172597</v>
+        <v>403.17875753792009</v>
       </c>
       <c r="D974" s="4"/>
       <c r="E974" s="3"/>
@@ -14095,7 +14095,7 @@
         <v>56</v>
       </c>
       <c r="C989">
-        <v>827.43121366360231</v>
+        <v>522.82704131176115</v>
       </c>
       <c r="D989" s="4"/>
       <c r="E989" s="3"/>
@@ -14147,7 +14147,7 @@
         <v>15</v>
       </c>
       <c r="C993">
-        <v>712.75985727699265</v>
+        <v>770.94037906557924</v>
       </c>
       <c r="D993" s="4"/>
       <c r="E993" s="3"/>
@@ -14212,7 +14212,7 @@
         <v>7</v>
       </c>
       <c r="C998">
-        <v>481.3535852477039</v>
+        <v>813.99095694016466</v>
       </c>
       <c r="D998" s="4"/>
       <c r="E998" s="3"/>
@@ -14238,7 +14238,7 @@
         <v>63</v>
       </c>
       <c r="C1000">
-        <v>569.38633907268343</v>
+        <v>834.38855277391883</v>
       </c>
       <c r="D1000" s="4"/>
       <c r="E1000" s="3"/>
@@ -14251,7 +14251,7 @@
         <v>64</v>
       </c>
       <c r="C1001">
-        <v>673.85963770963315</v>
+        <v>1014.4366158321908</v>
       </c>
       <c r="D1001" s="4"/>
       <c r="E1001" s="3"/>
@@ -14329,7 +14329,7 @@
         <v>68</v>
       </c>
       <c r="C1007">
-        <v>1407.0965506436605</v>
+        <v>1341.8398459388245</v>
       </c>
       <c r="D1007" s="4"/>
       <c r="E1007" s="3"/>
@@ -14355,7 +14355,7 @@
         <v>70</v>
       </c>
       <c r="C1009">
-        <v>181.11535820687644</v>
+        <v>163.61514227909109</v>
       </c>
       <c r="D1009" s="4"/>
       <c r="E1009" s="3"/>
@@ -14381,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="C1011">
-        <v>1012.6757656886131</v>
+        <v>488.11544020859742</v>
       </c>
       <c r="D1011" s="4"/>
       <c r="E1011" s="3"/>
@@ -14420,7 +14420,7 @@
         <v>133</v>
       </c>
       <c r="C1014">
-        <v>702.1549457311811</v>
+        <v>1170.5330900488837</v>
       </c>
       <c r="D1014" s="4"/>
       <c r="E1014" s="3"/>
@@ -14433,7 +14433,7 @@
         <v>74</v>
       </c>
       <c r="C1015">
-        <v>393.88012319323633</v>
+        <v>1094.0995418157718</v>
       </c>
       <c r="D1015" s="4"/>
       <c r="E1015" s="3"/>
@@ -14459,7 +14459,7 @@
         <v>76</v>
       </c>
       <c r="C1017">
-        <v>281.55747590524567</v>
+        <v>586.36570906037343</v>
       </c>
       <c r="D1017" s="4"/>
       <c r="E1017" s="3"/>
@@ -14485,7 +14485,7 @@
         <v>77</v>
       </c>
       <c r="C1019">
-        <v>1405.4849180758754</v>
+        <v>990.95039981010495</v>
       </c>
       <c r="D1019" s="4"/>
       <c r="E1019" s="3"/>
@@ -14498,7 +14498,7 @@
         <v>78</v>
       </c>
       <c r="C1020">
-        <v>196.50718514459311</v>
+        <v>1628.3088699645109</v>
       </c>
       <c r="D1020" s="4"/>
       <c r="E1020" s="3"/>
@@ -14615,7 +14615,7 @@
         <v>84</v>
       </c>
       <c r="C1029">
-        <v>616.94788658135042</v>
+        <v>251.94331694137543</v>
       </c>
       <c r="D1029" s="4"/>
       <c r="E1029" s="3"/>
@@ -14693,7 +14693,7 @@
         <v>138</v>
       </c>
       <c r="C1035">
-        <v>1399.6863985680918</v>
+        <v>271.05436454561215</v>
       </c>
       <c r="D1035" s="4"/>
       <c r="E1035" s="3"/>
@@ -14706,7 +14706,7 @@
         <v>90</v>
       </c>
       <c r="C1036">
-        <v>725.01626891656372</v>
+        <v>592.30914650775571</v>
       </c>
       <c r="D1036" s="4"/>
       <c r="E1036" s="3"/>
@@ -14719,7 +14719,7 @@
         <v>25</v>
       </c>
       <c r="C1037">
-        <v>657.68277072988269</v>
+        <v>1227.392477134631</v>
       </c>
       <c r="D1037" s="4"/>
       <c r="E1037" s="3"/>
@@ -14732,7 +14732,7 @@
         <v>139</v>
       </c>
       <c r="C1038">
-        <v>309.43885928061297</v>
+        <v>997.44311611268733</v>
       </c>
       <c r="D1038" s="4"/>
       <c r="E1038" s="3"/>
@@ -14784,7 +14784,7 @@
         <v>142</v>
       </c>
       <c r="C1042">
-        <v>427.54004732054858</v>
+        <v>1010.0095585049002</v>
       </c>
       <c r="D1042" s="4"/>
       <c r="E1042" s="3"/>
@@ -14823,7 +14823,7 @@
         <v>93</v>
       </c>
       <c r="C1045">
-        <v>722.67711870318658</v>
+        <v>1252.1081633186714</v>
       </c>
       <c r="D1045" s="4"/>
       <c r="E1045" s="3"/>
@@ -14836,7 +14836,7 @@
         <v>143</v>
       </c>
       <c r="C1046">
-        <v>865.40314958914405</v>
+        <v>471.11288519531371</v>
       </c>
       <c r="D1046" s="4"/>
       <c r="E1046" s="3"/>
@@ -14901,7 +14901,7 @@
         <v>96</v>
       </c>
       <c r="C1051">
-        <v>171.30162630366672</v>
+        <v>173.69918409899313</v>
       </c>
       <c r="D1051" s="4"/>
       <c r="E1051" s="3"/>
@@ -14927,7 +14927,7 @@
         <v>146</v>
       </c>
       <c r="C1053">
-        <v>539.58417352880201</v>
+        <v>530.79261345119971</v>
       </c>
       <c r="D1053" s="4"/>
       <c r="E1053" s="3"/>
@@ -14992,7 +14992,7 @@
         <v>100</v>
       </c>
       <c r="C1058">
-        <v>546.15411702149356</v>
+        <v>1129.3678825755824</v>
       </c>
       <c r="D1058" s="4"/>
       <c r="E1058" s="3"/>
@@ -15070,7 +15070,7 @@
         <v>102</v>
       </c>
       <c r="C1064">
-        <v>827.25122713779751</v>
+        <v>803.23181047005517</v>
       </c>
       <c r="D1064" s="4"/>
       <c r="E1064" s="3"/>
@@ -15083,7 +15083,7 @@
         <v>103</v>
       </c>
       <c r="C1065">
-        <v>458.17023583741235</v>
+        <v>929.93406387915797</v>
       </c>
       <c r="D1065" s="4"/>
       <c r="E1065" s="3"/>
@@ -15096,7 +15096,7 @@
         <v>152</v>
       </c>
       <c r="C1066">
-        <v>1293.9862411779357</v>
+        <v>324.89255140623675</v>
       </c>
       <c r="D1066" s="4"/>
       <c r="E1066" s="3"/>
@@ -15109,7 +15109,7 @@
         <v>104</v>
       </c>
       <c r="C1067">
-        <v>557.9440806493252</v>
+        <v>553.61167893488823</v>
       </c>
       <c r="D1067" s="4"/>
       <c r="E1067" s="3"/>
@@ -15200,7 +15200,7 @@
         <v>154</v>
       </c>
       <c r="C1074">
-        <v>421.93935189862589</v>
+        <v>722.37202562905065</v>
       </c>
       <c r="D1074" s="4"/>
       <c r="E1074" s="3"/>
@@ -15213,7 +15213,7 @@
         <v>155</v>
       </c>
       <c r="C1075">
-        <v>10729.829967346086</v>
+        <v>1244.9039834483031</v>
       </c>
       <c r="D1075" s="4"/>
       <c r="E1075" s="3"/>
@@ -15239,7 +15239,7 @@
         <v>111</v>
       </c>
       <c r="C1077">
-        <v>130.40989617891145</v>
+        <v>501.02883752715951</v>
       </c>
       <c r="D1077" s="4"/>
       <c r="E1077" s="3"/>
@@ -15291,7 +15291,7 @@
         <v>61</v>
       </c>
       <c r="C1081">
-        <v>200.078867301976</v>
+        <v>855.66031467988762</v>
       </c>
       <c r="D1081" s="4"/>
       <c r="E1081" s="3"/>
@@ -15304,7 +15304,7 @@
         <v>158</v>
       </c>
       <c r="C1082">
-        <v>293.40643139189962</v>
+        <v>938.72049653626686</v>
       </c>
       <c r="D1082" s="4"/>
       <c r="E1082" s="3"/>
@@ -15551,7 +15551,7 @@
         <v>23</v>
       </c>
       <c r="C1101">
-        <v>5405.4090619191265</v>
+        <v>5410.8192599520453</v>
       </c>
       <c r="D1101" s="4"/>
       <c r="E1101" s="3"/>
@@ -15616,7 +15616,7 @@
         <v>27</v>
       </c>
       <c r="C1106">
-        <v>10058.075549291792</v>
+        <v>5760.0616033343631</v>
       </c>
       <c r="D1106" s="4"/>
       <c r="E1106" s="3"/>
@@ -15629,7 +15629,7 @@
         <v>28</v>
       </c>
       <c r="C1107">
-        <v>5552.3243474337924</v>
+        <v>5238.2917171884246</v>
       </c>
       <c r="D1107" s="4"/>
       <c r="E1107" s="3"/>
@@ -15681,7 +15681,7 @@
         <v>30</v>
       </c>
       <c r="C1111">
-        <v>5109.1091170205045</v>
+        <v>5140.439569142598</v>
       </c>
       <c r="D1111" s="4"/>
       <c r="E1111" s="3"/>
@@ -15772,7 +15772,7 @@
         <v>37</v>
       </c>
       <c r="C1118">
-        <v>5731.3090384523075</v>
+        <v>5662.5156277987171</v>
       </c>
       <c r="D1118" s="4"/>
       <c r="E1118" s="3"/>
@@ -15785,7 +15785,7 @@
         <v>38</v>
       </c>
       <c r="C1119">
-        <v>5322.3640875423425</v>
+        <v>6733.2672824880292</v>
       </c>
       <c r="D1119" s="4"/>
       <c r="E1119" s="3"/>
@@ -15798,7 +15798,7 @@
         <v>39</v>
       </c>
       <c r="C1120">
-        <v>5823.1619609245527</v>
+        <v>5753.3910512356688</v>
       </c>
       <c r="D1120" s="4"/>
       <c r="E1120" s="3"/>
@@ -15902,7 +15902,7 @@
         <v>45</v>
       </c>
       <c r="C1128">
-        <v>6077.7919629558392</v>
+        <v>6000.2598238388618</v>
       </c>
       <c r="D1128" s="4"/>
       <c r="E1128" s="3"/>
@@ -16097,7 +16097,7 @@
         <v>56</v>
       </c>
       <c r="C1143">
-        <v>5679.9941458915018</v>
+        <v>5238.756659540195</v>
       </c>
       <c r="D1143" s="4"/>
       <c r="E1143" s="3"/>
@@ -16149,7 +16149,7 @@
         <v>15</v>
       </c>
       <c r="C1147">
-        <v>5059.6576378696736</v>
+        <v>5010.9118826918857</v>
       </c>
       <c r="D1147" s="4"/>
       <c r="E1147" s="3"/>
@@ -16227,7 +16227,7 @@
         <v>63</v>
       </c>
       <c r="C1153">
-        <v>5749.1098370098944</v>
+        <v>5685.0131002658045</v>
       </c>
       <c r="D1153" s="4"/>
       <c r="E1153" s="3"/>
@@ -16240,7 +16240,7 @@
         <v>64</v>
       </c>
       <c r="C1154">
-        <v>5053.8488092615607</v>
+        <v>6652.7959381912879</v>
       </c>
       <c r="D1154" s="4"/>
       <c r="E1154" s="3"/>
@@ -16318,7 +16318,7 @@
         <v>68</v>
       </c>
       <c r="C1160">
-        <v>4642.5058893819487</v>
+        <v>4722.7653154454138</v>
       </c>
       <c r="D1160" s="4"/>
       <c r="E1160" s="3"/>
@@ -16344,7 +16344,7 @@
         <v>70</v>
       </c>
       <c r="C1162">
-        <v>5576.7884518066594</v>
+        <v>5561.3567073351105</v>
       </c>
       <c r="D1162" s="4"/>
       <c r="E1162" s="3"/>
@@ -16370,7 +16370,7 @@
         <v>1</v>
       </c>
       <c r="C1164">
-        <v>6653.3276996592504</v>
+        <v>5276.6882008811845</v>
       </c>
       <c r="D1164" s="4"/>
       <c r="E1164" s="3"/>
@@ -16409,7 +16409,7 @@
         <v>133</v>
       </c>
       <c r="C1167">
-        <v>6268.229714657652</v>
+        <v>6811.1317169823405</v>
       </c>
       <c r="D1167" s="4"/>
       <c r="E1167" s="3"/>
@@ -16422,7 +16422,7 @@
         <v>74</v>
       </c>
       <c r="C1168">
-        <v>5997.0447439345826</v>
+        <v>4747.7575527941954</v>
       </c>
       <c r="D1168" s="4"/>
       <c r="E1168" s="3"/>
@@ -16448,7 +16448,7 @@
         <v>76</v>
       </c>
       <c r="C1170">
-        <v>5378.1311229261946</v>
+        <v>5836.7156222826188</v>
       </c>
       <c r="D1170" s="4"/>
       <c r="E1170" s="3"/>
@@ -16474,7 +16474,7 @@
         <v>77</v>
       </c>
       <c r="C1172">
-        <v>7009.9339586533797</v>
+        <v>6192.7985690937858</v>
       </c>
       <c r="D1172" s="4"/>
       <c r="E1172" s="3"/>
@@ -16487,7 +16487,7 @@
         <v>78</v>
       </c>
       <c r="C1173">
-        <v>5780.6872303227028</v>
+        <v>4372.9850801374296</v>
       </c>
       <c r="D1173" s="4"/>
       <c r="E1173" s="3"/>
@@ -16604,7 +16604,7 @@
         <v>84</v>
       </c>
       <c r="C1182">
-        <v>5055.254008282599</v>
+        <v>5745.342511550326</v>
       </c>
       <c r="D1182" s="4"/>
       <c r="E1182" s="3"/>
@@ -16682,7 +16682,7 @@
         <v>138</v>
       </c>
       <c r="C1188">
-        <v>4657.8215283090694</v>
+        <v>5473.4562144032479</v>
       </c>
       <c r="D1188" s="4"/>
       <c r="E1188" s="3"/>
@@ -16695,7 +16695,7 @@
         <v>90</v>
       </c>
       <c r="C1189">
-        <v>5056.2924025484963</v>
+        <v>5299.5117156649139</v>
       </c>
       <c r="D1189" s="4"/>
       <c r="E1189" s="3"/>
@@ -16708,7 +16708,7 @@
         <v>25</v>
       </c>
       <c r="C1190">
-        <v>5864.0941289044058</v>
+        <v>4688.3246735339899</v>
       </c>
       <c r="D1190" s="4"/>
       <c r="E1190" s="3"/>
@@ -16721,7 +16721,7 @@
         <v>139</v>
       </c>
       <c r="C1191">
-        <v>5421.2528306832555</v>
+        <v>6193.9206756179992</v>
       </c>
       <c r="D1191" s="4"/>
       <c r="E1191" s="3"/>
@@ -16773,7 +16773,7 @@
         <v>142</v>
       </c>
       <c r="C1195">
-        <v>6069.8577406805271</v>
+        <v>6648.5628031220158</v>
       </c>
       <c r="D1195" s="4"/>
       <c r="E1195" s="3"/>
@@ -16812,7 +16812,7 @@
         <v>93</v>
       </c>
       <c r="C1198">
-        <v>6364.5857415154251</v>
+        <v>6850.5326175293003</v>
       </c>
       <c r="D1198" s="4"/>
       <c r="E1198" s="3"/>
@@ -16825,7 +16825,7 @@
         <v>143</v>
       </c>
       <c r="C1199">
-        <v>4817.9489458823446</v>
+        <v>6047.0701695838834</v>
       </c>
       <c r="D1199" s="4"/>
       <c r="E1199" s="3"/>
@@ -16890,7 +16890,7 @@
         <v>96</v>
       </c>
       <c r="C1204">
-        <v>5686.0706379070389</v>
+        <v>5662.3772985524438</v>
       </c>
       <c r="D1204" s="4"/>
       <c r="E1204" s="3"/>
@@ -16916,7 +16916,7 @@
         <v>146</v>
       </c>
       <c r="C1206">
-        <v>6152.4231677322578</v>
+        <v>6136.0396142478794</v>
       </c>
       <c r="D1206" s="4"/>
       <c r="E1206" s="3"/>
@@ -16981,7 +16981,7 @@
         <v>100</v>
       </c>
       <c r="C1211">
-        <v>5767.2991852044397</v>
+        <v>6680.3740130159676</v>
       </c>
       <c r="D1211" s="4"/>
       <c r="E1211" s="3"/>
@@ -17059,7 +17059,7 @@
         <v>102</v>
       </c>
       <c r="C1217">
-        <v>4851.2665573882941</v>
+        <v>4872.1583914264147</v>
       </c>
       <c r="D1217" s="4"/>
       <c r="E1217" s="3"/>
@@ -17072,7 +17072,7 @@
         <v>103</v>
       </c>
       <c r="C1218">
-        <v>5240.3503085350867</v>
+        <v>6501.6312541117823</v>
       </c>
       <c r="D1218" s="4"/>
       <c r="E1218" s="3"/>
@@ -17085,7 +17085,7 @@
         <v>152</v>
       </c>
       <c r="C1219">
-        <v>4425.239347798718</v>
+        <v>5345.9382092925853</v>
       </c>
       <c r="D1219" s="4"/>
       <c r="E1219" s="3"/>
@@ -17098,7 +17098,7 @@
         <v>104</v>
       </c>
       <c r="C1220">
-        <v>5169.2748157115566</v>
+        <v>5166.1710757430337</v>
       </c>
       <c r="D1220" s="4"/>
       <c r="E1220" s="3"/>
@@ -17189,7 +17189,7 @@
         <v>154</v>
       </c>
       <c r="C1227">
-        <v>5261.3166286261285</v>
+        <v>6310.3344011857707</v>
       </c>
       <c r="D1227" s="4"/>
       <c r="E1227" s="3"/>
@@ -17202,7 +17202,7 @@
         <v>155</v>
       </c>
       <c r="C1228">
-        <v>11662.658115215274</v>
+        <v>6263.1247635078425</v>
       </c>
       <c r="D1228" s="4"/>
       <c r="E1228" s="3"/>
@@ -17228,7 +17228,7 @@
         <v>111</v>
       </c>
       <c r="C1230">
-        <v>5692.6863865552141</v>
+        <v>5176.8862479082181</v>
       </c>
       <c r="D1230" s="4"/>
       <c r="E1230" s="3"/>
@@ -17280,7 +17280,7 @@
         <v>61</v>
       </c>
       <c r="C1234">
-        <v>5451.9454741281379</v>
+        <v>5948.6489182792611</v>
       </c>
       <c r="D1234" s="4"/>
       <c r="E1234" s="3"/>
@@ -17293,7 +17293,7 @@
         <v>158</v>
       </c>
       <c r="C1235">
-        <v>5731.3090384523075</v>
+        <v>6112.7017734703495</v>
       </c>
       <c r="D1235" s="4"/>
       <c r="E1235" s="3"/>
@@ -17527,7 +17527,7 @@
         <v>23</v>
       </c>
       <c r="C1253">
-        <v>8859.6141915319695</v>
+        <v>8904.1296789347234</v>
       </c>
       <c r="D1253" s="4"/>
       <c r="E1253" s="3"/>
@@ -17592,7 +17592,7 @@
         <v>27</v>
       </c>
       <c r="C1258">
-        <v>1908.6180788902002</v>
+        <v>8356.7402319434914</v>
       </c>
       <c r="D1258" s="4"/>
       <c r="E1258" s="3"/>
@@ -17605,7 +17605,7 @@
         <v>28</v>
       </c>
       <c r="C1259">
-        <v>8759.9786927759233</v>
+        <v>8897.8326177800463</v>
       </c>
       <c r="D1259" s="4"/>
       <c r="E1259" s="3"/>
@@ -17657,7 +17657,7 @@
         <v>30</v>
       </c>
       <c r="C1263">
-        <v>8844.6481019471976</v>
+        <v>8846.8098131276165</v>
       </c>
       <c r="D1263" s="4"/>
       <c r="E1263" s="3"/>
@@ -17748,7 +17748,7 @@
         <v>37</v>
       </c>
       <c r="C1270">
-        <v>8887.6448602925848</v>
+        <v>8987.3156730773808</v>
       </c>
       <c r="D1270" s="4"/>
       <c r="E1270" s="3"/>
@@ -17761,7 +17761,7 @@
         <v>38</v>
       </c>
       <c r="C1271">
-        <v>9017.3364211089956</v>
+        <v>8633.0284625630393</v>
       </c>
       <c r="D1271" s="4"/>
       <c r="E1271" s="3"/>
@@ -17774,7 +17774,7 @@
         <v>39</v>
       </c>
       <c r="C1272">
-        <v>8978.9859244915442</v>
+        <v>8949.1452456089901</v>
       </c>
       <c r="D1272" s="4"/>
       <c r="E1272" s="3"/>
@@ -17878,7 +17878,7 @@
         <v>45</v>
       </c>
       <c r="C1280">
-        <v>8986.3834234939259</v>
+        <v>9011.5453119229896</v>
       </c>
       <c r="D1280" s="4"/>
       <c r="E1280" s="3"/>
@@ -18073,7 +18073,7 @@
         <v>56</v>
       </c>
       <c r="C1295">
-        <v>8334.5645080545801</v>
+        <v>8789.3583812069992</v>
       </c>
       <c r="D1295" s="4"/>
       <c r="E1295" s="3"/>
@@ -18125,7 +18125,7 @@
         <v>15</v>
       </c>
       <c r="C1299">
-        <v>8699.6826031200817</v>
+        <v>8665.7031138210205</v>
       </c>
       <c r="D1299" s="4"/>
       <c r="E1299" s="3"/>
@@ -18190,7 +18190,7 @@
         <v>7</v>
       </c>
       <c r="C1304">
-        <v>8887.0661713184836</v>
+        <v>9461.8075694282106</v>
       </c>
       <c r="D1304" s="4"/>
       <c r="E1304" s="3"/>
@@ -18216,7 +18216,7 @@
         <v>63</v>
       </c>
       <c r="C1306">
-        <v>8608.4877965275482</v>
+        <v>8328.1544863988529</v>
       </c>
       <c r="D1306" s="4"/>
       <c r="E1306" s="3"/>
@@ -18229,7 +18229,7 @@
         <v>64</v>
       </c>
       <c r="C1307">
-        <v>8778.0419717686327</v>
+        <v>9190.2337028011589</v>
       </c>
       <c r="D1307" s="4"/>
       <c r="E1307" s="3"/>
@@ -18307,7 +18307,7 @@
         <v>68</v>
       </c>
       <c r="C1313">
-        <v>8134.5055204979426</v>
+        <v>8147.5670021983851</v>
       </c>
       <c r="D1313" s="4"/>
       <c r="E1313" s="3"/>
@@ -18333,7 +18333,7 @@
         <v>70</v>
       </c>
       <c r="C1315">
-        <v>9315.9269619588085</v>
+        <v>9287.6691959450163</v>
       </c>
       <c r="D1315" s="4"/>
       <c r="E1315" s="3"/>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="C1317">
-        <v>9222.3184369600658</v>
+        <v>8801.3891911196388</v>
       </c>
       <c r="D1317" s="4"/>
       <c r="E1317" s="3"/>
@@ -18398,7 +18398,7 @@
         <v>133</v>
       </c>
       <c r="C1320">
-        <v>8906.3522082942491</v>
+        <v>9376.7156627274489</v>
       </c>
       <c r="D1320" s="4"/>
       <c r="E1320" s="3"/>
@@ -18411,7 +18411,7 @@
         <v>74</v>
       </c>
       <c r="C1321">
-        <v>9025.7372411112556</v>
+        <v>8472.9218388714307</v>
       </c>
       <c r="D1321" s="4"/>
       <c r="E1321" s="3"/>
@@ -18437,7 +18437,7 @@
         <v>76</v>
       </c>
       <c r="C1323">
-        <v>9221.1814187508953</v>
+        <v>8622.3059845301686</v>
       </c>
       <c r="D1323" s="4"/>
       <c r="E1323" s="3"/>
@@ -18463,7 +18463,7 @@
         <v>77</v>
       </c>
       <c r="C1325">
-        <v>8991.3361688694004</v>
+        <v>8376.8448982253612</v>
       </c>
       <c r="D1325" s="4"/>
       <c r="E1325" s="3"/>
@@ -18476,7 +18476,7 @@
         <v>78</v>
       </c>
       <c r="C1326">
-        <v>9313.0037060118284</v>
+        <v>8106.3606696152947</v>
       </c>
       <c r="D1326" s="4"/>
       <c r="E1326" s="3"/>
@@ -18593,7 +18593,7 @@
         <v>84</v>
       </c>
       <c r="C1335">
-        <v>8910.9708937369105</v>
+        <v>8938.8700307002327</v>
       </c>
       <c r="D1335" s="4"/>
       <c r="E1335" s="3"/>
@@ -18671,7 +18671,7 @@
         <v>138</v>
       </c>
       <c r="C1341">
-        <v>8130.1991146247192</v>
+        <v>8928.8350447071061</v>
       </c>
       <c r="D1341" s="4"/>
       <c r="E1341" s="3"/>
@@ -18684,7 +18684,7 @@
         <v>90</v>
       </c>
       <c r="C1342">
-        <v>8683.7597860014412</v>
+        <v>8647.5603629315683</v>
       </c>
       <c r="D1342" s="4"/>
       <c r="E1342" s="3"/>
@@ -18697,7 +18697,7 @@
         <v>25</v>
       </c>
       <c r="C1343">
-        <v>8557.955565829001</v>
+        <v>8337.7712320542596</v>
       </c>
       <c r="D1343" s="4"/>
       <c r="E1343" s="3"/>
@@ -18710,7 +18710,7 @@
         <v>139</v>
       </c>
       <c r="C1344">
-        <v>8919.2656240545748</v>
+        <v>8369.6593577946023</v>
       </c>
       <c r="D1344" s="4"/>
       <c r="E1344" s="3"/>
@@ -18762,7 +18762,7 @@
         <v>142</v>
       </c>
       <c r="C1348">
-        <v>9220.2001347341447</v>
+        <v>9192.1491557626632</v>
       </c>
       <c r="D1348" s="4"/>
       <c r="E1348" s="3"/>
@@ -18801,7 +18801,7 @@
         <v>93</v>
       </c>
       <c r="C1351">
-        <v>9217.6313133383464</v>
+        <v>8965.8607095451807</v>
       </c>
       <c r="D1351" s="4"/>
       <c r="E1351" s="3"/>
@@ -18814,7 +18814,7 @@
         <v>143</v>
       </c>
       <c r="C1352">
-        <v>8821.1288493262709</v>
+        <v>8960.381098217993</v>
       </c>
       <c r="D1352" s="4"/>
       <c r="E1352" s="3"/>
@@ -18879,7 +18879,7 @@
         <v>96</v>
       </c>
       <c r="C1357">
-        <v>8996.8616247833179</v>
+        <v>8987.4310908914304</v>
       </c>
       <c r="D1357" s="4"/>
       <c r="E1357" s="3"/>
@@ -18905,7 +18905,7 @@
         <v>146</v>
       </c>
       <c r="C1359">
-        <v>9038.9864145820356</v>
+        <v>9017.6823221299346</v>
       </c>
       <c r="D1359" s="4"/>
       <c r="E1359" s="3"/>
@@ -18970,7 +18970,7 @@
         <v>100</v>
       </c>
       <c r="C1364">
-        <v>8637.8721806207759</v>
+        <v>8822.4988209178555</v>
       </c>
       <c r="D1364" s="4"/>
       <c r="E1364" s="3"/>
@@ -19048,7 +19048,7 @@
         <v>102</v>
       </c>
       <c r="C1370">
-        <v>8843.8078330225471</v>
+        <v>8858.6476307818903</v>
       </c>
       <c r="D1370" s="4"/>
       <c r="E1370" s="3"/>
@@ -19061,7 +19061,7 @@
         <v>103</v>
       </c>
       <c r="C1371">
-        <v>8898.7649584650335</v>
+        <v>8894.8177154942568</v>
       </c>
       <c r="D1371" s="4"/>
       <c r="E1371" s="3"/>
@@ -19074,7 +19074,7 @@
         <v>152</v>
       </c>
       <c r="C1372">
-        <v>8632.9113980076145</v>
+        <v>9252.1923120487445</v>
       </c>
       <c r="D1372" s="4"/>
       <c r="E1372" s="3"/>
@@ -19087,7 +19087,7 @@
         <v>104</v>
       </c>
       <c r="C1373">
-        <v>8818.8265134066842</v>
+        <v>8831.526144310923</v>
       </c>
       <c r="D1373" s="4"/>
       <c r="E1373" s="3"/>
@@ -19178,7 +19178,7 @@
         <v>154</v>
       </c>
       <c r="C1380">
-        <v>8938.2105719991105</v>
+        <v>9522.5132855582542</v>
       </c>
       <c r="D1380" s="4"/>
       <c r="E1380" s="3"/>
@@ -19191,7 +19191,7 @@
         <v>155</v>
       </c>
       <c r="C1381">
-        <v>2780.580251558551</v>
+        <v>8118.5529128760618</v>
       </c>
       <c r="D1381" s="4"/>
       <c r="E1381" s="3"/>
@@ -19217,7 +19217,7 @@
         <v>111</v>
       </c>
       <c r="C1383">
-        <v>9282.5671320565289</v>
+        <v>8926.1688685575737</v>
       </c>
       <c r="D1383" s="4"/>
       <c r="E1383" s="3"/>
@@ -19269,7 +19269,7 @@
         <v>61</v>
       </c>
       <c r="C1387">
-        <v>9074.9159274689173</v>
+        <v>8382.2472498646785</v>
       </c>
       <c r="D1387" s="4"/>
       <c r="E1387" s="3"/>
@@ -19282,7 +19282,7 @@
         <v>158</v>
       </c>
       <c r="C1388">
-        <v>8887.6448602925848</v>
+        <v>8381.9524198022445</v>
       </c>
       <c r="D1388" s="4"/>
       <c r="E1388" s="3"/>
@@ -19529,7 +19529,7 @@
         <v>23</v>
       </c>
       <c r="C1407">
-        <v>2023.6534319665698</v>
+        <v>2015.5510273299856</v>
       </c>
       <c r="D1407" s="4"/>
       <c r="E1407" s="3"/>
@@ -19594,7 +19594,7 @@
         <v>27</v>
       </c>
       <c r="C1412">
-        <v>8278.3362764547455</v>
+        <v>1812.2709169480922</v>
       </c>
       <c r="D1412" s="4"/>
       <c r="E1412" s="3"/>
@@ -19607,7 +19607,7 @@
         <v>28</v>
       </c>
       <c r="C1413">
-        <v>1890.0890033597971</v>
+        <v>2187.5879259966969</v>
       </c>
       <c r="D1413" s="4"/>
       <c r="E1413" s="3"/>
@@ -19659,7 +19659,7 @@
         <v>30</v>
       </c>
       <c r="C1417">
-        <v>2318.8350376347335</v>
+        <v>2287.5645330212851</v>
       </c>
       <c r="D1417" s="4"/>
       <c r="E1417" s="3"/>
@@ -19750,7 +19750,7 @@
         <v>37</v>
       </c>
       <c r="C1424">
-        <v>1698.6628569728259</v>
+        <v>1762.1270544911877</v>
       </c>
       <c r="D1424" s="4"/>
       <c r="E1424" s="3"/>
@@ -19763,7 +19763,7 @@
         <v>38</v>
       </c>
       <c r="C1425">
-        <v>2102.7722772997768</v>
+        <v>857.50010498051824</v>
       </c>
       <c r="D1425" s="4"/>
       <c r="E1425" s="3"/>
@@ -19776,7 +19776,7 @@
         <v>39</v>
       </c>
       <c r="C1426">
-        <v>1602.0278708576188</v>
+        <v>1672.6455664775569</v>
       </c>
       <c r="D1426" s="4"/>
       <c r="E1426" s="3"/>
@@ -19867,7 +19867,7 @@
         <v>45</v>
       </c>
       <c r="C1433">
-        <v>1348.3543480441892</v>
+        <v>1424.5953176312723</v>
       </c>
       <c r="D1433" s="4"/>
       <c r="E1433" s="3"/>
@@ -20062,7 +20062,7 @@
         <v>56</v>
       </c>
       <c r="C1448">
-        <v>1893.524038064234</v>
+        <v>2194.8807963348222</v>
       </c>
       <c r="D1448" s="4"/>
       <c r="E1448" s="3"/>
@@ -20114,7 +20114,7 @@
         <v>15</v>
       </c>
       <c r="C1452">
-        <v>2382.3659508484079</v>
+        <v>2435.2603530220458</v>
       </c>
       <c r="D1452" s="4"/>
       <c r="E1452" s="3"/>
@@ -20179,7 +20179,7 @@
         <v>7</v>
       </c>
       <c r="C1457">
-        <v>2206.8202064715201</v>
+        <v>1068.2598787941465</v>
       </c>
       <c r="D1457" s="4"/>
       <c r="E1457" s="3"/>
@@ -20205,7 +20205,7 @@
         <v>63</v>
       </c>
       <c r="C1459">
-        <v>1732.770336125398</v>
+        <v>1891.7557578801518</v>
       </c>
       <c r="D1459" s="4"/>
       <c r="E1459" s="3"/>
@@ -20218,7 +20218,7 @@
         <v>64</v>
       </c>
       <c r="C1460">
-        <v>2378.9072915657785</v>
+        <v>775.80144518947691</v>
       </c>
       <c r="D1460" s="4"/>
       <c r="E1460" s="3"/>
@@ -20296,7 +20296,7 @@
         <v>68</v>
       </c>
       <c r="C1466">
-        <v>2934.9959975554643</v>
+        <v>2853.8867602437772</v>
       </c>
       <c r="D1466" s="4"/>
       <c r="E1466" s="3"/>
@@ -20322,7 +20322,7 @@
         <v>70</v>
       </c>
       <c r="C1468">
-        <v>1881.4155124083343</v>
+        <v>1891.2989663816152</v>
       </c>
       <c r="D1468" s="4"/>
       <c r="E1468" s="3"/>
@@ -20348,7 +20348,7 @@
         <v>1</v>
       </c>
       <c r="C1470">
-        <v>779.38615891170014</v>
+        <v>2156.1708049362023</v>
       </c>
       <c r="D1470" s="4"/>
       <c r="E1470" s="3"/>
@@ -20387,7 +20387,7 @@
         <v>133</v>
       </c>
       <c r="C1473">
-        <v>1169.0628764282328</v>
+        <v>662.93877392705213</v>
       </c>
       <c r="D1473" s="4"/>
       <c r="E1473" s="3"/>
@@ -20400,7 +20400,7 @@
         <v>74</v>
       </c>
       <c r="C1474">
-        <v>1427.5653890463664</v>
+        <v>2729.7263716536822</v>
       </c>
       <c r="D1474" s="4"/>
       <c r="E1474" s="3"/>
@@ -20426,7 +20426,7 @@
         <v>76</v>
       </c>
       <c r="C1476">
-        <v>2064.6297858058092</v>
+        <v>1646.1284853150582</v>
       </c>
       <c r="D1476" s="4"/>
       <c r="E1476" s="3"/>
@@ -20452,7 +20452,7 @@
         <v>77</v>
       </c>
       <c r="C1478">
-        <v>448.63573824353313</v>
+        <v>1429.4828852377664</v>
       </c>
       <c r="D1478" s="4"/>
       <c r="E1478" s="3"/>
@@ -20465,7 +20465,7 @@
         <v>78</v>
       </c>
       <c r="C1479">
-        <v>1675.4974293529183</v>
+        <v>3203.1506782660026</v>
       </c>
       <c r="D1479" s="4"/>
       <c r="E1479" s="3"/>
@@ -20582,7 +20582,7 @@
         <v>84</v>
       </c>
       <c r="C1488">
-        <v>2369.7036208143213</v>
+        <v>1681.1565929523065</v>
       </c>
       <c r="D1488" s="4"/>
       <c r="E1488" s="3"/>
@@ -20660,7 +20660,7 @@
         <v>138</v>
       </c>
       <c r="C1494">
-        <v>2922.0987884693131</v>
+        <v>1952.1468485881389</v>
       </c>
       <c r="D1494" s="4"/>
       <c r="E1494" s="3"/>
@@ -20673,7 +20673,7 @@
         <v>90</v>
       </c>
       <c r="C1495">
-        <v>2387.9554405403401</v>
+        <v>2156.0727299625414</v>
       </c>
       <c r="D1495" s="4"/>
       <c r="E1495" s="3"/>
@@ -20686,7 +20686,7 @@
         <v>25</v>
       </c>
       <c r="C1496">
-        <v>1640.4640170509076</v>
+        <v>2822.6971684972877</v>
       </c>
       <c r="D1496" s="4"/>
       <c r="E1496" s="3"/>
@@ -20699,7 +20699,7 @@
         <v>139</v>
       </c>
       <c r="C1497">
-        <v>2004.507663698882</v>
+        <v>1432.4368140847005</v>
       </c>
       <c r="D1497" s="4"/>
       <c r="E1497" s="3"/>
@@ -20751,7 +20751,7 @@
         <v>142</v>
       </c>
       <c r="C1501">
-        <v>1367.374368176605</v>
+        <v>780.27529426516719</v>
       </c>
       <c r="D1501" s="4"/>
       <c r="E1501" s="3"/>
@@ -20790,7 +20790,7 @@
         <v>93</v>
       </c>
       <c r="C1504">
-        <v>1069.8719477387024</v>
+        <v>600.91498751700885</v>
       </c>
       <c r="D1504" s="4"/>
       <c r="E1504" s="3"/>
@@ -20803,7 +20803,7 @@
         <v>143</v>
       </c>
       <c r="C1505">
-        <v>2609.7761279643009</v>
+        <v>1380.4240220428931</v>
       </c>
       <c r="D1505" s="4"/>
       <c r="E1505" s="3"/>
@@ -20868,7 +20868,7 @@
         <v>96</v>
       </c>
       <c r="C1510">
-        <v>1738.5032225952552</v>
+        <v>1762.2638266025556</v>
       </c>
       <c r="D1510" s="4"/>
       <c r="E1510" s="3"/>
@@ -20894,7 +20894,7 @@
         <v>146</v>
       </c>
       <c r="C1512">
-        <v>1272.2434581651169</v>
+        <v>1289.0877716109355</v>
       </c>
       <c r="D1512" s="4"/>
       <c r="E1512" s="3"/>
@@ -20959,7 +20959,7 @@
         <v>100</v>
       </c>
       <c r="C1517">
-        <v>1707.5782971967005</v>
+        <v>804.55667078725151</v>
       </c>
       <c r="D1517" s="4"/>
       <c r="E1517" s="3"/>
@@ -21037,7 +21037,7 @@
         <v>102</v>
       </c>
       <c r="C1523">
-        <v>2575.4116494415921</v>
+        <v>2553.9416383891294</v>
       </c>
       <c r="D1523" s="4"/>
       <c r="E1523" s="3"/>
@@ -21050,7 +21050,7 @@
         <v>103</v>
       </c>
       <c r="C1524">
-        <v>2185.5004342189968</v>
+        <v>946.58940654859725</v>
       </c>
       <c r="D1524" s="4"/>
       <c r="E1524" s="3"/>
@@ -21063,7 +21063,7 @@
         <v>152</v>
       </c>
       <c r="C1525">
-        <v>3017.3539545915928</v>
+        <v>2101.9951190499405</v>
       </c>
       <c r="D1525" s="4"/>
       <c r="E1525" s="3"/>
@@ -21076,7 +21076,7 @@
         <v>104</v>
       </c>
       <c r="C1526">
-        <v>2260.9533664679661</v>
+        <v>2263.0529870858809</v>
       </c>
       <c r="D1526" s="4"/>
       <c r="E1526" s="3"/>
@@ -21167,7 +21167,7 @@
         <v>154</v>
       </c>
       <c r="C1533">
-        <v>2163.4727441558734</v>
+        <v>1211.6628295095113</v>
       </c>
       <c r="D1533" s="4"/>
       <c r="E1533" s="3"/>
@@ -21180,7 +21180,7 @@
         <v>155</v>
       </c>
       <c r="C1534">
-        <v>10102.359343460303</v>
+        <v>1534.5776807272694</v>
       </c>
       <c r="D1534" s="4"/>
       <c r="E1534" s="3"/>
@@ -21206,7 +21206,7 @@
         <v>111</v>
       </c>
       <c r="C1536">
-        <v>1758.0195454820723</v>
+        <v>2247.9821880671057</v>
       </c>
       <c r="D1536" s="4"/>
       <c r="E1536" s="3"/>
@@ -21258,7 +21258,7 @@
         <v>61</v>
       </c>
       <c r="C1540">
-        <v>1975.1664513927817</v>
+        <v>1634.2158542512482</v>
       </c>
       <c r="D1540" s="4"/>
       <c r="E1540" s="3"/>
@@ -21271,7 +21271,7 @@
         <v>158</v>
       </c>
       <c r="C1541">
-        <v>1698.6628569728259</v>
+        <v>1493.5173946536941</v>
       </c>
       <c r="D1541" s="4"/>
       <c r="E1541" s="3"/>
@@ -21518,7 +21518,7 @@
         <v>23</v>
       </c>
       <c r="C1560">
-        <v>1188.3339310646284</v>
+        <v>1175.7187308276059</v>
       </c>
       <c r="D1560" s="4"/>
       <c r="E1560" s="3"/>
@@ -21583,7 +21583,7 @@
         <v>27</v>
       </c>
       <c r="C1565">
-        <v>8481.4464828259588</v>
+        <v>1119.4309192253957</v>
       </c>
       <c r="D1565" s="4"/>
       <c r="E1565" s="3"/>
@@ -21596,7 +21596,7 @@
         <v>28</v>
       </c>
       <c r="C1566">
-        <v>1073.9958723899081</v>
+        <v>1345.7678799316629</v>
       </c>
       <c r="D1566" s="4"/>
       <c r="E1566" s="3"/>
@@ -21648,7 +21648,7 @@
         <v>30</v>
       </c>
       <c r="C1570">
-        <v>1479.6085565269427</v>
+        <v>1448.6097018933633</v>
       </c>
       <c r="D1570" s="4"/>
       <c r="E1570" s="3"/>
@@ -21739,7 +21739,7 @@
         <v>37</v>
       </c>
       <c r="C1577">
-        <v>869.66078943293155</v>
+        <v>918.30937596980039</v>
       </c>
       <c r="D1577" s="4"/>
       <c r="E1577" s="3"/>
@@ -21752,7 +21752,7 @@
         <v>38</v>
       </c>
       <c r="C1578">
-        <v>1253.8227000210118</v>
+        <v>591.91081981956484</v>
       </c>
       <c r="D1578" s="4"/>
       <c r="E1578" s="3"/>
@@ -21765,7 +21765,7 @@
         <v>39</v>
       </c>
       <c r="C1579">
-        <v>762.41917307478786</v>
+        <v>835.17837595834726</v>
       </c>
       <c r="D1579" s="4"/>
       <c r="E1579" s="3"/>
@@ -21869,7 +21869,7 @@
         <v>45</v>
       </c>
       <c r="C1587">
-        <v>517.84777025611254</v>
+        <v>585.47427655098738</v>
       </c>
       <c r="D1587" s="4"/>
       <c r="E1587" s="3"/>
@@ -22064,7 +22064,7 @@
         <v>56</v>
       </c>
       <c r="C1602">
-        <v>1190.8918736399983</v>
+        <v>1363.366402835371</v>
       </c>
       <c r="D1602" s="4"/>
       <c r="E1602" s="3"/>
@@ -22116,7 +22116,7 @@
         <v>15</v>
       </c>
       <c r="C1606">
-        <v>1556.108473997992</v>
+        <v>1611.4106903925262</v>
       </c>
       <c r="D1606" s="4"/>
       <c r="E1606" s="3"/>
@@ -22181,7 +22181,7 @@
         <v>7</v>
       </c>
       <c r="C1611">
-        <v>1365.6257758052768</v>
+        <v>333.45597040506556</v>
       </c>
       <c r="D1611" s="4"/>
       <c r="E1611" s="3"/>
@@ -22207,7 +22207,7 @@
         <v>63</v>
       </c>
       <c r="C1613">
-        <v>967.31122100495054</v>
+        <v>1191.7922754447766</v>
       </c>
       <c r="D1613" s="4"/>
       <c r="E1613" s="3"/>
@@ -22220,7 +22220,7 @@
         <v>64</v>
       </c>
       <c r="C1614">
-        <v>1544.6141852847472</v>
+        <v>76.985878892306133</v>
       </c>
       <c r="D1614" s="4"/>
       <c r="E1614" s="3"/>
@@ -22298,7 +22298,7 @@
         <v>68</v>
       </c>
       <c r="C1620">
-        <v>2161.8601725597596</v>
+        <v>2083.7293218010827</v>
       </c>
       <c r="D1620" s="4"/>
       <c r="E1620" s="3"/>
@@ -22324,7 +22324,7 @@
         <v>70</v>
       </c>
       <c r="C1622">
-        <v>1033.6270156124801</v>
+        <v>1041.7780476726264</v>
       </c>
       <c r="D1622" s="4"/>
       <c r="E1622" s="3"/>
@@ -22350,7 +22350,7 @@
         <v>1</v>
       </c>
       <c r="C1624">
-        <v>82.429829895988277</v>
+        <v>1324.2567485389422</v>
       </c>
       <c r="D1624" s="4"/>
       <c r="E1624" s="3"/>
@@ -22389,7 +22389,7 @@
         <v>133</v>
       </c>
       <c r="C1627">
-        <v>393.274462992211</v>
+        <v>285.54806200816762</v>
       </c>
       <c r="D1627" s="4"/>
       <c r="E1627" s="3"/>
@@ -22402,7 +22402,7 @@
         <v>74</v>
       </c>
       <c r="C1628">
-        <v>586.08704333050969</v>
+        <v>1919.3685099755189</v>
       </c>
       <c r="D1628" s="4"/>
       <c r="E1628" s="3"/>
@@ -22428,7 +22428,7 @@
         <v>76</v>
       </c>
       <c r="C1630">
-        <v>1212.4531885621016</v>
+        <v>889.6586195816077</v>
       </c>
       <c r="D1630" s="4"/>
       <c r="E1630" s="3"/>
@@ -22454,7 +22454,7 @@
         <v>77</v>
       </c>
       <c r="C1632">
-        <v>499.55092234423051</v>
+        <v>866.93146875293337</v>
       </c>
       <c r="D1632" s="4"/>
       <c r="E1632" s="3"/>
@@ -22467,7 +22467,7 @@
         <v>78</v>
       </c>
       <c r="C1633">
-        <v>829.24025144666302</v>
+        <v>2419.9957300223932</v>
       </c>
       <c r="D1633" s="4"/>
       <c r="E1633" s="3"/>
@@ -22584,7 +22584,7 @@
         <v>84</v>
       </c>
       <c r="C1642">
-        <v>1525.0885855843512</v>
+        <v>844.87380923477929</v>
       </c>
       <c r="D1642" s="4"/>
       <c r="E1642" s="3"/>
@@ -22662,7 +22662,7 @@
         <v>138</v>
       </c>
       <c r="C1648">
-        <v>2150.4122070961917</v>
+        <v>1110.9873859674058</v>
       </c>
       <c r="D1648" s="4"/>
       <c r="E1648" s="3"/>
@@ -22675,7 +22675,7 @@
         <v>90</v>
       </c>
       <c r="C1649">
-        <v>1563.3650241145365</v>
+        <v>1345.2429266406998</v>
       </c>
       <c r="D1649" s="4"/>
       <c r="E1649" s="3"/>
@@ -22688,7 +22688,7 @@
         <v>25</v>
       </c>
       <c r="C1650">
-        <v>908.41707235577303</v>
+        <v>2025.9909556013358</v>
       </c>
       <c r="D1650" s="4"/>
       <c r="E1650" s="3"/>
@@ -22701,7 +22701,7 @@
         <v>139</v>
       </c>
       <c r="C1651">
-        <v>1163.4144398448648</v>
+        <v>873.09996124983684</v>
       </c>
       <c r="D1651" s="4"/>
       <c r="E1651" s="3"/>
@@ -22753,7 +22753,7 @@
         <v>142</v>
       </c>
       <c r="C1655">
-        <v>516.02800642059822</v>
+        <v>72.668703940282839</v>
       </c>
       <c r="D1655" s="4"/>
       <c r="E1655" s="3"/>
@@ -22792,7 +22792,7 @@
         <v>93</v>
       </c>
       <c r="C1658">
-        <v>219.91716773040523</v>
+        <v>373.31911978296091</v>
       </c>
       <c r="D1658" s="4"/>
       <c r="E1658" s="3"/>
@@ -22805,7 +22805,7 @@
         <v>143</v>
       </c>
       <c r="C1659">
-        <v>1768.8261057180557</v>
+        <v>553.98111571915638</v>
       </c>
       <c r="D1659" s="4"/>
       <c r="E1659" s="3"/>
@@ -22870,7 +22870,7 @@
         <v>96</v>
       </c>
       <c r="C1664">
-        <v>894.1146345176428</v>
+        <v>918.43281585938155</v>
       </c>
       <c r="D1664" s="4"/>
       <c r="E1664" s="3"/>
@@ -22896,7 +22896,7 @@
         <v>146</v>
       </c>
       <c r="C1666">
-        <v>434.22153319882079</v>
+        <v>454.90040398579208</v>
       </c>
       <c r="D1666" s="4"/>
       <c r="E1666" s="3"/>
@@ -22948,7 +22948,7 @@
         <v>100</v>
       </c>
       <c r="C1670">
-        <v>936.70857275783897</v>
+        <v>390.00143447267874</v>
       </c>
       <c r="D1670" s="4"/>
       <c r="E1670" s="3"/>
@@ -23026,7 +23026,7 @@
         <v>102</v>
       </c>
       <c r="C1676">
-        <v>1733.2949826261624</v>
+        <v>1711.067905982012</v>
       </c>
       <c r="D1676" s="4"/>
       <c r="E1676" s="3"/>
@@ -23039,7 +23039,7 @@
         <v>103</v>
       </c>
       <c r="C1677">
-        <v>1343.6317557747493</v>
+        <v>292.43650408829882</v>
       </c>
       <c r="D1677" s="4"/>
       <c r="E1677" s="3"/>
@@ -23052,7 +23052,7 @@
         <v>152</v>
       </c>
       <c r="C1678">
-        <v>2184.9461229090248</v>
+        <v>1250.5090141744781</v>
       </c>
       <c r="D1678" s="4"/>
       <c r="E1678" s="3"/>
@@ -23065,7 +23065,7 @@
         <v>104</v>
       </c>
       <c r="C1679">
-        <v>1424.9745193431211</v>
+        <v>1425.844751369915</v>
       </c>
       <c r="D1679" s="4"/>
       <c r="E1679" s="3"/>
@@ -23156,7 +23156,7 @@
         <v>154</v>
       </c>
       <c r="C1686">
-        <v>1318.8706196882076</v>
+        <v>463.58887912488035</v>
       </c>
       <c r="D1686" s="4"/>
       <c r="E1686" s="3"/>
@@ -23169,7 +23169,7 @@
         <v>155</v>
       </c>
       <c r="C1687">
-        <v>10410.01230148381</v>
+        <v>1091.4423036349219</v>
       </c>
       <c r="D1687" s="4"/>
       <c r="E1687" s="3"/>
@@ -23195,7 +23195,7 @@
         <v>111</v>
       </c>
       <c r="C1689">
-        <v>908.84812458438807</v>
+        <v>1403.4227528908141</v>
       </c>
       <c r="D1689" s="4"/>
       <c r="E1689" s="3"/>
@@ -23247,7 +23247,7 @@
         <v>61</v>
       </c>
       <c r="C1693">
-        <v>1124.1696006031373</v>
+        <v>980.21888545012371</v>
       </c>
       <c r="D1693" s="4"/>
       <c r="E1693" s="3"/>
@@ -23260,7 +23260,7 @@
         <v>158</v>
       </c>
       <c r="C1694">
-        <v>869.66078943293155</v>
+        <v>895.22898697004848</v>
       </c>
       <c r="D1694" s="4"/>
       <c r="E1694" s="3"/>
@@ -23559,7 +23559,7 @@
         <v>27</v>
       </c>
       <c r="C1717">
-        <v>8500.8263107908751</v>
+        <v>629.54167117659756</v>
       </c>
       <c r="D1717" s="4"/>
       <c r="E1717" s="3"/>
@@ -23572,7 +23572,7 @@
         <v>28</v>
       </c>
       <c r="C1718">
-        <v>183.68053117815941</v>
+        <v>174.7852485810206</v>
       </c>
       <c r="D1718" s="4"/>
       <c r="E1718" s="3"/>
@@ -23624,7 +23624,7 @@
         <v>30</v>
       </c>
       <c r="C1722">
-        <v>296.36753316225173</v>
+        <v>265.04582533392943</v>
       </c>
       <c r="D1722" s="4"/>
       <c r="E1722" s="3"/>
@@ -23715,7 +23715,7 @@
         <v>37</v>
       </c>
       <c r="C1729">
-        <v>325.90528577324642</v>
+        <v>278.08204966906362</v>
       </c>
       <c r="D1729" s="4"/>
       <c r="E1729" s="3"/>
@@ -23728,7 +23728,7 @@
         <v>38</v>
       </c>
       <c r="C1730">
-        <v>185.12749878745353</v>
+        <v>1367.9232698513053</v>
       </c>
       <c r="D1730" s="4"/>
       <c r="E1730" s="3"/>
@@ -23741,7 +23741,7 @@
         <v>39</v>
       </c>
       <c r="C1731">
-        <v>426.00461633282072</v>
+        <v>353.18237030407738</v>
       </c>
       <c r="D1731" s="4"/>
       <c r="E1731" s="3"/>
@@ -23845,7 +23845,7 @@
         <v>45</v>
       </c>
       <c r="C1739">
-        <v>675.72763014031796</v>
+        <v>602.99944688509231</v>
       </c>
       <c r="D1739" s="4"/>
       <c r="E1739" s="3"/>
@@ -24040,7 +24040,7 @@
         <v>56</v>
       </c>
       <c r="C1754">
-        <v>603.79400878905608</v>
+        <v>176.74730491648168</v>
       </c>
       <c r="D1754" s="4"/>
       <c r="E1754" s="3"/>
@@ -24092,7 +24092,7 @@
         <v>15</v>
       </c>
       <c r="C1758">
-        <v>372.72745622583682</v>
+        <v>430.16355602809301</v>
       </c>
       <c r="D1758" s="4"/>
       <c r="E1758" s="3"/>
@@ -24157,7 +24157,7 @@
         <v>7</v>
       </c>
       <c r="C1763">
-        <v>190.5860901815274</v>
+        <v>1135.1436828102539</v>
       </c>
       <c r="D1763" s="4"/>
       <c r="E1763" s="3"/>
@@ -24183,7 +24183,7 @@
         <v>63</v>
       </c>
       <c r="C1765">
-        <v>439.09925048952255</v>
+        <v>611.9013390016047</v>
       </c>
       <c r="D1765" s="4"/>
       <c r="E1765" s="3"/>
@@ -24196,7 +24196,7 @@
         <v>64</v>
       </c>
       <c r="C1766">
-        <v>356.37226395210502</v>
+        <v>1263.6826175568917</v>
       </c>
       <c r="D1766" s="4"/>
       <c r="E1766" s="3"/>
@@ -24274,7 +24274,7 @@
         <v>68</v>
       </c>
       <c r="C1772">
-        <v>1047.8360049303365</v>
+        <v>980.58670626762739</v>
       </c>
       <c r="D1772" s="4"/>
       <c r="E1772" s="3"/>
@@ -24300,7 +24300,7 @@
         <v>70</v>
       </c>
       <c r="C1774">
-        <v>472.66812505736914</v>
+        <v>442.35722494396003</v>
       </c>
       <c r="D1774" s="4"/>
       <c r="E1774" s="3"/>
@@ -24326,7 +24326,7 @@
         <v>1</v>
       </c>
       <c r="C1776">
-        <v>1269.3859525377791</v>
+        <v>137.83575930231692</v>
       </c>
       <c r="D1776" s="4"/>
       <c r="E1776" s="3"/>
@@ -24365,7 +24365,7 @@
         <v>133</v>
       </c>
       <c r="C1779">
-        <v>863.26047228727532</v>
+        <v>1450.9580783466761</v>
       </c>
       <c r="D1779" s="4"/>
       <c r="E1779" s="3"/>
@@ -24378,7 +24378,7 @@
         <v>74</v>
       </c>
       <c r="C1780">
-        <v>602.30366060317476</v>
+        <v>750.43917653729739</v>
       </c>
       <c r="D1780" s="4"/>
       <c r="E1780" s="3"/>
@@ -24404,7 +24404,7 @@
         <v>76</v>
       </c>
       <c r="C1782">
-        <v>367.15089398415057</v>
+        <v>506.6436477616748</v>
       </c>
       <c r="D1782" s="4"/>
       <c r="E1782" s="3"/>
@@ -24430,7 +24430,7 @@
         <v>77</v>
       </c>
       <c r="C1784">
-        <v>1604.6873715423069</v>
+        <v>947.44537128088518</v>
       </c>
       <c r="D1784" s="4"/>
       <c r="E1784" s="3"/>
@@ -24443,7 +24443,7 @@
         <v>78</v>
       </c>
       <c r="C1785">
-        <v>559.9013064990661</v>
+        <v>1278.0774776372068</v>
       </c>
       <c r="D1785" s="4"/>
       <c r="E1785" s="3"/>
@@ -24560,7 +24560,7 @@
         <v>84</v>
       </c>
       <c r="C1794">
-        <v>358.79526997312962</v>
+        <v>343.7369019680936</v>
       </c>
       <c r="D1794" s="4"/>
       <c r="E1794" s="3"/>
@@ -24638,7 +24638,7 @@
         <v>138</v>
       </c>
       <c r="C1800">
-        <v>1039.8205966909745</v>
+        <v>93.365896101725397</v>
       </c>
       <c r="D1800" s="4"/>
       <c r="E1800" s="3"/>
@@ -24651,7 +24651,7 @@
         <v>90</v>
       </c>
       <c r="C1801">
-        <v>382.1329385976378</v>
+        <v>231.70313387751821</v>
       </c>
       <c r="D1801" s="4"/>
       <c r="E1801" s="3"/>
@@ -24664,7 +24664,7 @@
         <v>25</v>
       </c>
       <c r="C1802">
-        <v>565.26017742138276</v>
+        <v>875.80981919636145</v>
       </c>
       <c r="D1802" s="4"/>
       <c r="E1802" s="3"/>
@@ -24677,7 +24677,7 @@
         <v>139</v>
       </c>
       <c r="C1803">
-        <v>60.67894558284268</v>
+        <v>952.24826763729652</v>
       </c>
       <c r="D1803" s="4"/>
       <c r="E1803" s="3"/>
@@ -24729,7 +24729,7 @@
         <v>142</v>
       </c>
       <c r="C1807">
-        <v>726.55084946461045</v>
+        <v>1259.8713607345535</v>
       </c>
       <c r="D1807" s="4"/>
       <c r="E1807" s="3"/>
@@ -24768,7 +24768,7 @@
         <v>93</v>
       </c>
       <c r="C1810">
-        <v>993.74823704017604</v>
+        <v>1445.4234980647718</v>
       </c>
       <c r="D1810" s="4"/>
       <c r="E1810" s="3"/>
@@ -24781,7 +24781,7 @@
         <v>143</v>
       </c>
       <c r="C1811">
-        <v>587.46097669009237</v>
+        <v>643.23102308955788</v>
       </c>
       <c r="D1811" s="4"/>
       <c r="E1811" s="3"/>
@@ -24846,7 +24846,7 @@
         <v>96</v>
       </c>
       <c r="C1816">
-        <v>302.66258457069199</v>
+        <v>278.00229377585111</v>
       </c>
       <c r="D1816" s="4"/>
       <c r="E1816" s="3"/>
@@ -24872,7 +24872,7 @@
         <v>146</v>
       </c>
       <c r="C1818">
-        <v>755.16474024628485</v>
+        <v>736.36864186256935</v>
       </c>
       <c r="D1818" s="4"/>
       <c r="E1818" s="3"/>
@@ -24937,7 +24937,7 @@
         <v>100</v>
       </c>
       <c r="C1823">
-        <v>437.45137658500249</v>
+        <v>1283.3258123892042</v>
       </c>
       <c r="D1823" s="4"/>
       <c r="E1823" s="3"/>
@@ -25015,7 +25015,7 @@
         <v>102</v>
       </c>
       <c r="C1829">
-        <v>554.605364415748</v>
+        <v>534.51886690851552</v>
       </c>
       <c r="D1829" s="4"/>
       <c r="E1829" s="3"/>
@@ -25028,7 +25028,7 @@
         <v>103</v>
       </c>
       <c r="C1830">
-        <v>173.05393430160052</v>
+        <v>1097.904964460464</v>
       </c>
       <c r="D1830" s="4"/>
       <c r="E1830" s="3"/>
@@ -25041,7 +25041,7 @@
         <v>152</v>
       </c>
       <c r="C1831">
-        <v>996.69687391388265</v>
+        <v>405.13479955816092</v>
       </c>
       <c r="D1831" s="4"/>
       <c r="E1831" s="3"/>
@@ -25054,7 +25054,7 @@
         <v>104</v>
       </c>
       <c r="C1832">
-        <v>237.37051953853376</v>
+        <v>239.49224577247224</v>
       </c>
       <c r="D1832" s="4"/>
       <c r="E1832" s="3"/>
@@ -25145,7 +25145,7 @@
         <v>154</v>
       </c>
       <c r="C1839">
-        <v>170.095201109545</v>
+        <v>1063.0945739458066</v>
       </c>
       <c r="D1839" s="4"/>
       <c r="E1839" s="3"/>
@@ -25158,7 +25158,7 @@
         <v>155</v>
       </c>
       <c r="C1840">
-        <v>10524.119166462819</v>
+        <v>1157.5325979865631</v>
       </c>
       <c r="D1840" s="4"/>
       <c r="E1840" s="3"/>
@@ -25184,7 +25184,7 @@
         <v>111</v>
       </c>
       <c r="C1842">
-        <v>488.36785830115338</v>
+        <v>243.71711465635374</v>
       </c>
       <c r="D1842" s="4"/>
       <c r="E1842" s="3"/>
@@ -25236,7 +25236,7 @@
         <v>61</v>
       </c>
       <c r="C1846">
-        <v>217.00806448020342</v>
+        <v>742.45685800756212</v>
       </c>
       <c r="D1846" s="4"/>
       <c r="E1846" s="3"/>
@@ -25249,7 +25249,7 @@
         <v>158</v>
       </c>
       <c r="C1847">
-        <v>325.90528577324642</v>
+        <v>875.93817382755344</v>
       </c>
       <c r="D1847" s="4"/>
       <c r="E1847" s="3"/>
@@ -25496,7 +25496,7 @@
         <v>23</v>
       </c>
       <c r="C1866">
-        <v>256.30940033295121</v>
+        <v>300.84954521320242</v>
       </c>
       <c r="D1866" s="4"/>
       <c r="E1866" s="3"/>
@@ -25561,7 +25561,7 @@
         <v>27</v>
       </c>
       <c r="C1871">
-        <v>8257.2053823458173</v>
+        <v>453.41339059035732</v>
       </c>
       <c r="D1871" s="4"/>
       <c r="E1871" s="3"/>
@@ -25574,7 +25574,7 @@
         <v>28</v>
       </c>
       <c r="C1872">
-        <v>221.90075822067485</v>
+        <v>338.26421903856141</v>
       </c>
       <c r="D1872" s="4"/>
       <c r="E1872" s="3"/>
@@ -25626,7 +25626,7 @@
         <v>30</v>
       </c>
       <c r="C1876">
-        <v>378.29946252739393</v>
+        <v>356.35617038418923</v>
       </c>
       <c r="D1876" s="4"/>
       <c r="E1876" s="3"/>
@@ -25717,7 +25717,7 @@
         <v>37</v>
       </c>
       <c r="C1883">
-        <v>433.25325190237663</v>
+        <v>457.96831573284408</v>
       </c>
       <c r="D1883" s="4"/>
       <c r="E1883" s="3"/>
@@ -25730,7 +25730,7 @@
         <v>38</v>
       </c>
       <c r="C1884">
-        <v>424.34088711531211</v>
+        <v>1347.1668879028207</v>
       </c>
       <c r="D1884" s="4"/>
       <c r="E1884" s="3"/>
@@ -25743,7 +25743,7 @@
         <v>39</v>
       </c>
       <c r="C1885">
-        <v>556.71463597981801</v>
+        <v>487.64955486681146</v>
       </c>
       <c r="D1885" s="4"/>
       <c r="E1885" s="3"/>
@@ -25847,7 +25847,7 @@
         <v>45</v>
       </c>
       <c r="C1893">
-        <v>767.1674032590455</v>
+        <v>713.20882541865183</v>
       </c>
       <c r="D1893" s="4"/>
       <c r="E1893" s="3"/>
@@ -26042,7 +26042,7 @@
         <v>56</v>
       </c>
       <c r="C1908">
-        <v>402.9749919672152</v>
+        <v>244.10548217029589</v>
       </c>
       <c r="D1908" s="4"/>
       <c r="E1908" s="3"/>
@@ -26094,7 +26094,7 @@
         <v>15</v>
       </c>
       <c r="C1912">
-        <v>345.5185348481678</v>
+        <v>384.01166799342042</v>
       </c>
       <c r="D1912" s="4"/>
       <c r="E1912" s="3"/>
@@ -26159,7 +26159,7 @@
         <v>7</v>
       </c>
       <c r="C1917">
-        <v>338.37980683808246</v>
+        <v>1289.7754257183374</v>
       </c>
       <c r="D1917" s="4"/>
       <c r="E1917" s="3"/>
@@ -26185,7 +26185,7 @@
         <v>63</v>
       </c>
       <c r="C1919">
-        <v>362.19208853125781</v>
+        <v>411.05398307325919</v>
       </c>
       <c r="D1919" s="4"/>
       <c r="E1919" s="3"/>
@@ -26198,7 +26198,7 @@
         <v>64</v>
       </c>
       <c r="C1920">
-        <v>384.07210002578597</v>
+        <v>1352.722195055019</v>
       </c>
       <c r="D1920" s="4"/>
       <c r="E1920" s="3"/>
@@ -26263,7 +26263,7 @@
         <v>68</v>
       </c>
       <c r="C1925">
-        <v>883.9872912117919</v>
+        <v>808.33046212461886</v>
       </c>
       <c r="D1925" s="4"/>
       <c r="E1925" s="3"/>
@@ -26289,7 +26289,7 @@
         <v>70</v>
       </c>
       <c r="C1927">
-        <v>723.71203375314371</v>
+        <v>693.8847214883815</v>
       </c>
       <c r="D1927" s="4"/>
       <c r="E1927" s="3"/>
@@ -26315,7 +26315,7 @@
         <v>1</v>
       </c>
       <c r="C1929">
-        <v>1364.1434695521602</v>
+        <v>232.07212504305846</v>
       </c>
       <c r="D1929" s="4"/>
       <c r="E1929" s="3"/>
@@ -26354,7 +26354,7 @@
         <v>133</v>
       </c>
       <c r="C1932">
-        <v>913.82535986296864</v>
+        <v>1559.8047658044093</v>
       </c>
       <c r="D1932" s="4"/>
       <c r="E1932" s="3"/>
@@ -26367,7 +26367,7 @@
         <v>74</v>
       </c>
       <c r="C1933">
-        <v>717.7198706169969</v>
+        <v>650.09316692725088</v>
       </c>
       <c r="D1933" s="4"/>
       <c r="E1933" s="3"/>
@@ -26393,7 +26393,7 @@
         <v>76</v>
       </c>
       <c r="C1935">
-        <v>620.76504902342833</v>
+        <v>449.62580139889445</v>
       </c>
       <c r="D1935" s="4"/>
       <c r="E1935" s="3"/>
@@ -26419,7 +26419,7 @@
         <v>77</v>
       </c>
       <c r="C1937">
-        <v>1643.1188848732504</v>
+        <v>845.9289551857986</v>
       </c>
       <c r="D1937" s="4"/>
       <c r="E1937" s="3"/>
@@ -26432,7 +26432,7 @@
         <v>78</v>
       </c>
       <c r="C1938">
-        <v>783.0246257817164</v>
+        <v>1138.3902510050852</v>
       </c>
       <c r="D1938" s="4"/>
       <c r="E1938" s="3"/>
@@ -26549,7 +26549,7 @@
         <v>84</v>
       </c>
       <c r="C1947">
-        <v>466.16137884748809</v>
+        <v>475.32851268158038</v>
       </c>
       <c r="D1947" s="4"/>
       <c r="E1947" s="3"/>
@@ -26627,7 +26627,7 @@
         <v>138</v>
       </c>
       <c r="C1953">
-        <v>873.38974763101703</v>
+        <v>332.11071033583755</v>
       </c>
       <c r="D1953" s="4"/>
       <c r="E1953" s="3"/>
@@ -26640,7 +26640,7 @@
         <v>90</v>
       </c>
       <c r="C1954">
-        <v>343.92702198673271</v>
+        <v>99.848146415273746</v>
       </c>
       <c r="D1954" s="4"/>
       <c r="E1954" s="3"/>
@@ -26653,7 +26653,7 @@
         <v>25</v>
       </c>
       <c r="C1955">
-        <v>481.61224626471312</v>
+        <v>745.64358029433129</v>
       </c>
       <c r="D1955" s="4"/>
       <c r="E1955" s="3"/>
@@ -26666,7 +26666,7 @@
         <v>139</v>
       </c>
       <c r="C1956">
-        <v>316.27266786325328</v>
+        <v>849.12653142663976</v>
       </c>
       <c r="D1956" s="4"/>
       <c r="E1956" s="3"/>
@@ -26718,7 +26718,7 @@
         <v>142</v>
       </c>
       <c r="C1960">
-        <v>883.15746771834017</v>
+        <v>1349.5461434008487</v>
       </c>
       <c r="D1960" s="4"/>
       <c r="E1960" s="3"/>
@@ -26757,7 +26757,7 @@
         <v>93</v>
       </c>
       <c r="C1963">
-        <v>1112.2417426815014</v>
+        <v>1484.4099597430022</v>
       </c>
       <c r="D1963" s="4"/>
       <c r="E1963" s="3"/>
@@ -26770,7 +26770,7 @@
         <v>143</v>
       </c>
       <c r="C1964">
-        <v>619.90200374163931</v>
+        <v>729.66832845016177</v>
       </c>
       <c r="D1964" s="4"/>
       <c r="E1964" s="3"/>
@@ -26835,7 +26835,7 @@
         <v>96</v>
       </c>
       <c r="C1969">
-        <v>478.51178053698936</v>
+        <v>457.98398022070711</v>
       </c>
       <c r="D1969" s="4"/>
       <c r="E1969" s="3"/>
@@ -26861,7 +26861,7 @@
         <v>146</v>
       </c>
       <c r="C1971">
-        <v>853.80349919323191</v>
+        <v>830.69699209409191</v>
       </c>
       <c r="D1971" s="4"/>
       <c r="E1971" s="3"/>
@@ -26926,7 +26926,7 @@
         <v>100</v>
       </c>
       <c r="C1976">
-        <v>380.55564359314786</v>
+        <v>1299.7604657143361</v>
       </c>
       <c r="D1976" s="4"/>
       <c r="E1976" s="3"/>
@@ -27004,7 +27004,7 @@
         <v>102</v>
       </c>
       <c r="C1982">
-        <v>599.08469628807961</v>
+        <v>587.32368112109805</v>
       </c>
       <c r="D1982" s="4"/>
       <c r="E1982" s="3"/>
@@ -27017,7 +27017,7 @@
         <v>103</v>
       </c>
       <c r="C1983">
-        <v>338.10864889820908</v>
+        <v>1134.613855357285</v>
       </c>
       <c r="D1983" s="4"/>
       <c r="E1983" s="3"/>
@@ -27030,7 +27030,7 @@
         <v>152</v>
       </c>
       <c r="C1984">
-        <v>963.49095667571146</v>
+        <v>655.96013713089303</v>
       </c>
       <c r="D1984" s="4"/>
       <c r="E1984" s="3"/>
@@ -27043,7 +27043,7 @@
         <v>104</v>
       </c>
       <c r="C1985">
-        <v>314.76243074474843</v>
+        <v>326.42767938075389</v>
       </c>
       <c r="D1985" s="4"/>
       <c r="E1985" s="3"/>
@@ -27134,7 +27134,7 @@
         <v>154</v>
       </c>
       <c r="C1992">
-        <v>365.63542727730743</v>
+        <v>1239.7533133687987</v>
       </c>
       <c r="D1992" s="4"/>
       <c r="E1992" s="3"/>
@@ -27147,7 +27147,7 @@
         <v>155</v>
       </c>
       <c r="C1993">
-        <v>10284.612494427367</v>
+        <v>1012.1046332205266</v>
       </c>
       <c r="D1993" s="4"/>
       <c r="E1993" s="3"/>
@@ -27173,7 +27173,7 @@
         <v>111</v>
       </c>
       <c r="C1995">
-        <v>722.68991223076011</v>
+        <v>396.42433313113679</v>
       </c>
       <c r="D1995" s="4"/>
       <c r="E1995" s="3"/>
@@ -27225,7 +27225,7 @@
         <v>61</v>
       </c>
       <c r="C1999">
-        <v>472.57626062342888</v>
+        <v>610.98022723780832</v>
       </c>
       <c r="D1999" s="4"/>
       <c r="E1999" s="3"/>
@@ -27238,7 +27238,7 @@
         <v>158</v>
       </c>
       <c r="C2000">
-        <v>433.25325190237663</v>
+        <v>767.0687023465365</v>
       </c>
       <c r="D2000" s="4"/>
       <c r="E2000" s="3"/>
@@ -27485,7 +27485,7 @@
         <v>23</v>
       </c>
       <c r="C2019">
-        <v>842.38417921615519</v>
+        <v>860.73231596495373</v>
       </c>
       <c r="D2019" s="4"/>
       <c r="E2019" s="3"/>
@@ -27550,7 +27550,7 @@
         <v>27</v>
       </c>
       <c r="C2024">
-        <v>8466.5513671217595</v>
+        <v>1182.6336351012083</v>
       </c>
       <c r="D2024" s="4"/>
       <c r="E2024" s="3"/>
@@ -27563,7 +27563,7 @@
         <v>28</v>
       </c>
       <c r="C2025">
-        <v>963.0317232305955</v>
+        <v>702.20388059687593</v>
       </c>
       <c r="D2025" s="4"/>
       <c r="E2025" s="3"/>
@@ -27602,7 +27602,7 @@
         <v>30</v>
       </c>
       <c r="C2028">
-        <v>566.40040030299531</v>
+        <v>594.94153101756808</v>
       </c>
       <c r="D2028" s="4"/>
       <c r="E2028" s="3"/>
@@ -27693,7 +27693,7 @@
         <v>37</v>
       </c>
       <c r="C2035">
-        <v>1159.3358481844828</v>
+        <v>1119.0547633859326</v>
       </c>
       <c r="D2035" s="4"/>
       <c r="E2035" s="3"/>
@@ -27706,7 +27706,7 @@
         <v>38</v>
       </c>
       <c r="C2036">
-        <v>826.63211387744241</v>
+        <v>2132.8425184034736</v>
       </c>
       <c r="D2036" s="4"/>
       <c r="E2036" s="3"/>
@@ -27719,7 +27719,7 @@
         <v>39</v>
       </c>
       <c r="C2037">
-        <v>1267.4983024971577</v>
+        <v>1194.1638851563584</v>
       </c>
       <c r="D2037" s="4"/>
       <c r="E2037" s="3"/>
@@ -27823,7 +27823,7 @@
         <v>45</v>
       </c>
       <c r="C2045">
-        <v>1512.1465289449395</v>
+        <v>1443.2150919683622</v>
       </c>
       <c r="D2045" s="4"/>
       <c r="E2045" s="3"/>
@@ -28018,7 +28018,7 @@
         <v>56</v>
       </c>
       <c r="C2060">
-        <v>1108.1712965455292</v>
+        <v>665.95700590174192</v>
       </c>
       <c r="D2060" s="4"/>
       <c r="E2060" s="3"/>
@@ -28070,7 +28070,7 @@
         <v>15</v>
       </c>
       <c r="C2064">
-        <v>472.40273772546664</v>
+        <v>418.05393448751158</v>
       </c>
       <c r="D2064" s="4"/>
       <c r="E2064" s="3"/>
@@ -28135,7 +28135,7 @@
         <v>7</v>
       </c>
       <c r="C2069">
-        <v>681.18878205319743</v>
+        <v>1968.716679648941</v>
       </c>
       <c r="D2069" s="4"/>
       <c r="E2069" s="3"/>
@@ -28161,7 +28161,7 @@
         <v>63</v>
       </c>
       <c r="C2071">
-        <v>1148.322426179617</v>
+        <v>1114.4493009729774</v>
       </c>
       <c r="D2071" s="4"/>
       <c r="E2071" s="3"/>
@@ -28174,7 +28174,7 @@
         <v>64</v>
       </c>
       <c r="C2072">
-        <v>490.53917699846266</v>
+        <v>2103.0561198894698</v>
       </c>
       <c r="D2072" s="4"/>
       <c r="E2072" s="3"/>
@@ -28252,7 +28252,7 @@
         <v>68</v>
       </c>
       <c r="C2078">
-        <v>440.97193215131824</v>
+        <v>441.25809982843748</v>
       </c>
       <c r="D2078" s="4"/>
       <c r="E2078" s="3"/>
@@ -28278,7 +28278,7 @@
         <v>70</v>
       </c>
       <c r="C2080">
-        <v>1181.8550986348284</v>
+        <v>1154.9435055171452</v>
       </c>
       <c r="D2080" s="4"/>
       <c r="E2080" s="3"/>
@@ -28304,7 +28304,7 @@
         <v>1</v>
       </c>
       <c r="C2082">
-        <v>2109.9929463679177</v>
+        <v>705.07916603875231</v>
       </c>
       <c r="D2082" s="4"/>
       <c r="E2082" s="3"/>
@@ -28343,7 +28343,7 @@
         <v>133</v>
       </c>
       <c r="C2085">
-        <v>1684.3298758407591</v>
+        <v>2293.3168614480951</v>
       </c>
       <c r="D2085" s="4"/>
       <c r="E2085" s="3"/>
@@ -28356,7 +28356,7 @@
         <v>74</v>
       </c>
       <c r="C2086">
-        <v>1443.3825204458972</v>
+        <v>179.02214008820471</v>
       </c>
       <c r="D2086" s="4"/>
       <c r="E2086" s="3"/>
@@ -28382,7 +28382,7 @@
         <v>76</v>
       </c>
       <c r="C2088">
-        <v>977.6027998458527</v>
+        <v>1235.9451544375672</v>
       </c>
       <c r="D2088" s="4"/>
       <c r="E2088" s="3"/>
@@ -28408,7 +28408,7 @@
         <v>77</v>
       </c>
       <c r="C2090">
-        <v>2422.4114684537308</v>
+        <v>1609.1028315589751</v>
       </c>
       <c r="D2090" s="4"/>
       <c r="E2090" s="3"/>
@@ -28421,7 +28421,7 @@
         <v>78</v>
       </c>
       <c r="C2091">
-        <v>1345.5514588642147</v>
+        <v>528.62762610257982</v>
       </c>
       <c r="D2091" s="4"/>
       <c r="E2091" s="3"/>
@@ -28538,7 +28538,7 @@
         <v>84</v>
       </c>
       <c r="C2100">
-        <v>553.71435751313572</v>
+        <v>1184.0668594649223</v>
       </c>
       <c r="D2100" s="4"/>
       <c r="E2100" s="3"/>
@@ -28616,7 +28616,7 @@
         <v>138</v>
       </c>
       <c r="C2106">
-        <v>446.53616285892463</v>
+        <v>926.32787615228324</v>
       </c>
       <c r="D2106" s="4"/>
       <c r="E2106" s="3"/>
@@ -28629,7 +28629,7 @@
         <v>90</v>
       </c>
       <c r="C2107">
-        <v>465.72340741056638</v>
+        <v>700.79431946351713</v>
       </c>
       <c r="D2107" s="4"/>
       <c r="E2107" s="3"/>
@@ -28642,7 +28642,7 @@
         <v>25</v>
       </c>
       <c r="C2108">
-        <v>1264.4419535383536</v>
+        <v>251.69140144939922</v>
       </c>
       <c r="D2108" s="4"/>
       <c r="E2108" s="3"/>
@@ -28655,7 +28655,7 @@
         <v>139</v>
       </c>
       <c r="C2109">
-        <v>875.22397826967426</v>
+        <v>1611.1732230861371</v>
       </c>
       <c r="D2109" s="4"/>
       <c r="E2109" s="3"/>
@@ -28707,7 +28707,7 @@
         <v>142</v>
       </c>
       <c r="C2113">
-        <v>1564.309030600685</v>
+        <v>2099.3833429074043</v>
       </c>
       <c r="D2113" s="4"/>
       <c r="E2113" s="3"/>
@@ -28746,7 +28746,7 @@
         <v>93</v>
       </c>
       <c r="C2116">
-        <v>1836.1322184642247</v>
+        <v>2263.0153120403006</v>
       </c>
       <c r="D2116" s="4"/>
       <c r="E2116" s="3"/>
@@ -28759,7 +28759,7 @@
         <v>143</v>
       </c>
       <c r="C2117">
-        <v>323.03881189381235</v>
+        <v>1477.6126770601638</v>
       </c>
       <c r="D2117" s="4"/>
       <c r="E2117" s="3"/>
@@ -28824,7 +28824,7 @@
         <v>96</v>
       </c>
       <c r="C2122">
-        <v>1143.7133660451098</v>
+        <v>1118.9602607734134</v>
       </c>
       <c r="D2122" s="4"/>
       <c r="E2122" s="3"/>
@@ -28850,7 +28850,7 @@
         <v>146</v>
       </c>
       <c r="C2124">
-        <v>1594.2848197807702</v>
+        <v>1574.2483366899328</v>
       </c>
       <c r="D2124" s="4"/>
       <c r="E2124" s="3"/>
@@ -28915,7 +28915,7 @@
         <v>100</v>
       </c>
       <c r="C2129">
-        <v>1166.7672545513917</v>
+        <v>2083.7743441163789</v>
       </c>
       <c r="D2129" s="4"/>
       <c r="E2129" s="3"/>
@@ -28993,7 +28993,7 @@
         <v>102</v>
       </c>
       <c r="C2135">
-        <v>361.11613846906505</v>
+        <v>385.50467884904015</v>
       </c>
       <c r="D2135" s="4"/>
       <c r="E2135" s="3"/>
@@ -29006,7 +29006,7 @@
         <v>103</v>
       </c>
       <c r="C2136">
-        <v>704.40033649591612</v>
+        <v>1912.4235386987239</v>
       </c>
       <c r="D2136" s="4"/>
       <c r="E2136" s="3"/>
@@ -29019,7 +29019,7 @@
         <v>152</v>
       </c>
       <c r="C2137">
-        <v>185.75815246236613</v>
+        <v>972.36798904589784</v>
       </c>
       <c r="D2137" s="4"/>
       <c r="E2137" s="3"/>
@@ -29032,7 +29032,7 @@
         <v>104</v>
       </c>
       <c r="C2138">
-        <v>610.41136325426271</v>
+        <v>612.13018250841071</v>
       </c>
       <c r="D2138" s="4"/>
       <c r="E2138" s="3"/>
@@ -29123,7 +29123,7 @@
         <v>154</v>
       </c>
       <c r="C2145">
-        <v>739.11185234959407</v>
+        <v>1883.3472713354977</v>
       </c>
       <c r="D2145" s="4"/>
       <c r="E2145" s="3"/>
@@ -29136,7 +29136,7 @@
         <v>155</v>
       </c>
       <c r="C2146">
-        <v>10514.097932314491</v>
+        <v>1727.2353624342918</v>
       </c>
       <c r="D2146" s="4"/>
       <c r="E2146" s="3"/>
@@ -29162,7 +29162,7 @@
         <v>111</v>
       </c>
       <c r="C2148">
-        <v>1258.5328992925799</v>
+        <v>661.30747522584818</v>
       </c>
       <c r="D2148" s="4"/>
       <c r="E2148" s="3"/>
@@ -29214,7 +29214,7 @@
         <v>61</v>
       </c>
       <c r="C2152">
-        <v>962.51585962748743</v>
+        <v>1365.3466023218573</v>
       </c>
       <c r="D2152" s="4"/>
       <c r="E2152" s="3"/>
@@ -29227,7 +29227,7 @@
         <v>158</v>
       </c>
       <c r="C2153">
-        <v>1159.3358481844828</v>
+        <v>1528.6263733473349</v>
       </c>
       <c r="D2153" s="4"/>
       <c r="E2153" s="3"/>
@@ -29474,7 +29474,7 @@
         <v>23</v>
       </c>
       <c r="C2172">
-        <v>635.82151534846332</v>
+        <v>638.27615478805478</v>
       </c>
       <c r="D2172" s="4"/>
       <c r="E2172" s="3"/>
@@ -29539,7 +29539,7 @@
         <v>27</v>
       </c>
       <c r="C2177">
-        <v>8281.4673628952205</v>
+        <v>531.54182798742511</v>
       </c>
       <c r="D2177" s="4"/>
       <c r="E2177" s="3"/>
@@ -29552,7 +29552,7 @@
         <v>28</v>
       </c>
       <c r="C2178">
-        <v>484.14487162730097</v>
+        <v>808.96499115291476</v>
       </c>
       <c r="D2178" s="4"/>
       <c r="E2178" s="3"/>
@@ -29604,7 +29604,7 @@
         <v>30</v>
       </c>
       <c r="C2182">
-        <v>930.77927765956724</v>
+        <v>899.62070432229507</v>
       </c>
       <c r="D2182" s="4"/>
       <c r="E2182" s="3"/>
@@ -29682,7 +29682,7 @@
         <v>37</v>
       </c>
       <c r="C2188">
-        <v>316.8223220733679</v>
+        <v>421.52190182860858</v>
       </c>
       <c r="D2188" s="4"/>
       <c r="E2188" s="3"/>
@@ -29695,7 +29695,7 @@
         <v>38</v>
       </c>
       <c r="C2189">
-        <v>757.90264747313518</v>
+        <v>741.07489641304403</v>
       </c>
       <c r="D2189" s="4"/>
       <c r="E2189" s="3"/>
@@ -29708,7 +29708,7 @@
         <v>39</v>
       </c>
       <c r="C2190">
-        <v>274.34137807463611</v>
+        <v>319.24308481325022</v>
       </c>
       <c r="D2190" s="4"/>
       <c r="E2190" s="3"/>
@@ -29812,7 +29812,7 @@
         <v>45</v>
       </c>
       <c r="C2198">
-        <v>163.45619672799191</v>
+        <v>193.68542593029071</v>
       </c>
       <c r="D2198" s="4"/>
       <c r="E2198" s="3"/>
@@ -30007,7 +30007,7 @@
         <v>56</v>
       </c>
       <c r="C2213">
-        <v>592.08743241437946</v>
+        <v>797.13493074926873</v>
       </c>
       <c r="D2213" s="4"/>
       <c r="E2213" s="3"/>
@@ -30059,7 +30059,7 @@
         <v>15</v>
       </c>
       <c r="C2217">
-        <v>977.92150534309917</v>
+        <v>1029.1984487053487</v>
       </c>
       <c r="D2217" s="4"/>
       <c r="E2217" s="3"/>
@@ -30124,7 +30124,7 @@
         <v>7</v>
       </c>
       <c r="C2222">
-        <v>825.95427470892139</v>
+        <v>713.55675200824544</v>
       </c>
       <c r="D2222" s="4"/>
       <c r="E2222" s="3"/>
@@ -30150,7 +30150,7 @@
         <v>63</v>
       </c>
       <c r="C2224">
-        <v>348.12896394826402</v>
+        <v>594.54097900653016</v>
       </c>
       <c r="D2224" s="4"/>
       <c r="E2224" s="3"/>
@@ -30163,7 +30163,7 @@
         <v>64</v>
       </c>
       <c r="C2225">
-        <v>981.97072588339438</v>
+        <v>686.5727651457205</v>
       </c>
       <c r="D2225" s="4"/>
       <c r="E2225" s="3"/>
@@ -30241,7 +30241,7 @@
         <v>68</v>
       </c>
       <c r="C2231">
-        <v>1545.6002719617575</v>
+        <v>1466.6314464552356</v>
       </c>
       <c r="D2231" s="4"/>
       <c r="E2231" s="3"/>
@@ -30267,7 +30267,7 @@
         <v>70</v>
       </c>
       <c r="C2233">
-        <v>711.56531486673941</v>
+        <v>700.97611690403983</v>
       </c>
       <c r="D2233" s="4"/>
       <c r="E2233" s="3"/>
@@ -30293,7 +30293,7 @@
         <v>1</v>
       </c>
       <c r="C2235">
-        <v>701.32356647013955</v>
+        <v>759.58748749209951</v>
       </c>
       <c r="D2235" s="4"/>
       <c r="E2235" s="3"/>
@@ -30332,7 +30332,7 @@
         <v>133</v>
       </c>
       <c r="C2238">
-        <v>240.36846125310012</v>
+        <v>903.93750131410809</v>
       </c>
       <c r="D2238" s="4"/>
       <c r="E2238" s="3"/>
@@ -30345,7 +30345,7 @@
         <v>74</v>
       </c>
       <c r="C2239">
-        <v>208.62794220894773</v>
+        <v>1321.4829474316507</v>
       </c>
       <c r="D2239" s="4"/>
       <c r="E2239" s="3"/>
@@ -30371,7 +30371,7 @@
         <v>76</v>
       </c>
       <c r="C2241">
-        <v>805.62868730344462</v>
+        <v>274.72378515592942</v>
       </c>
       <c r="D2241" s="4"/>
       <c r="E2241" s="3"/>
@@ -30397,7 +30397,7 @@
         <v>77</v>
       </c>
       <c r="C2243">
-        <v>976.76808023639376</v>
+        <v>485.03753521425614</v>
       </c>
       <c r="D2243" s="4"/>
       <c r="E2243" s="3"/>
@@ -30410,7 +30410,7 @@
         <v>78</v>
       </c>
       <c r="C2244">
-        <v>578.00735973289795</v>
+        <v>1807.2626180077748</v>
       </c>
       <c r="D2244" s="4"/>
       <c r="E2244" s="3"/>
@@ -30527,7 +30527,7 @@
         <v>84</v>
       </c>
       <c r="C2253">
-        <v>993.96428608429926</v>
+        <v>322.01038371823745</v>
       </c>
       <c r="D2253" s="4"/>
       <c r="E2253" s="3"/>
@@ -30605,7 +30605,7 @@
         <v>138</v>
       </c>
       <c r="C2259">
-        <v>1533.7845303288234</v>
+        <v>582.18256764636646</v>
       </c>
       <c r="D2259" s="4"/>
       <c r="E2259" s="3"/>
@@ -30618,7 +30618,7 @@
         <v>90</v>
       </c>
       <c r="C2260">
-        <v>982.49828226666818</v>
+        <v>747.57173570782959</v>
       </c>
       <c r="D2260" s="4"/>
       <c r="E2260" s="3"/>
@@ -30631,7 +30631,7 @@
         <v>25</v>
       </c>
       <c r="C2261">
-        <v>308.52813871666189</v>
+        <v>1418.6221367147543</v>
       </c>
       <c r="D2261" s="4"/>
       <c r="E2261" s="3"/>
@@ -30644,7 +30644,7 @@
         <v>139</v>
       </c>
       <c r="C2262">
-        <v>631.3565044542969</v>
+        <v>492.2129786761455</v>
       </c>
       <c r="D2262" s="4"/>
       <c r="E2262" s="3"/>
@@ -30696,7 +30696,7 @@
         <v>142</v>
       </c>
       <c r="C2266">
-        <v>395.02870226352115</v>
+        <v>683.80483442010609</v>
       </c>
       <c r="D2266" s="4"/>
       <c r="E2266" s="3"/>
@@ -30735,7 +30735,7 @@
         <v>93</v>
       </c>
       <c r="C2269">
-        <v>487.2008687006292</v>
+        <v>817.2404018850433</v>
       </c>
       <c r="D2269" s="4"/>
       <c r="E2269" s="3"/>
@@ -30748,7 +30748,7 @@
         <v>143</v>
       </c>
       <c r="C2270">
-        <v>1220.3965888429136</v>
+        <v>135.14315744089009</v>
       </c>
       <c r="D2270" s="4"/>
       <c r="E2270" s="3"/>
@@ -30813,7 +30813,7 @@
         <v>96</v>
       </c>
       <c r="C2275">
-        <v>404.67448591422738</v>
+        <v>421.7051306155243</v>
       </c>
       <c r="D2275" s="4"/>
       <c r="E2275" s="3"/>
@@ -30839,7 +30839,7 @@
         <v>146</v>
       </c>
       <c r="C2277">
-        <v>234.6268323248531</v>
+        <v>209.41601018930197</v>
       </c>
       <c r="D2277" s="4"/>
       <c r="E2277" s="3"/>
@@ -30904,7 +30904,7 @@
         <v>100</v>
       </c>
       <c r="C2282">
-        <v>317.11832343228826</v>
+        <v>647.65925426985211</v>
       </c>
       <c r="D2282" s="4"/>
       <c r="E2282" s="3"/>
@@ -30982,7 +30982,7 @@
         <v>102</v>
       </c>
       <c r="C2288">
-        <v>1188.9496298372658</v>
+        <v>1169.5704790640632</v>
       </c>
       <c r="D2288" s="4"/>
       <c r="E2288" s="3"/>
@@ -30995,7 +30995,7 @@
         <v>103</v>
       </c>
       <c r="C2289">
-        <v>807.07836544458041</v>
+        <v>466.83556502807158</v>
       </c>
       <c r="D2289" s="4"/>
       <c r="E2289" s="3"/>
@@ -31008,7 +31008,7 @@
         <v>152</v>
       </c>
       <c r="C2290">
-        <v>1614.1056682158114</v>
+        <v>852.70582827507587</v>
       </c>
       <c r="D2290" s="4"/>
       <c r="E2290" s="3"/>
@@ -31021,7 +31021,7 @@
         <v>104</v>
       </c>
       <c r="C2291">
-        <v>868.24519753587231</v>
+        <v>872.36072710429073</v>
       </c>
       <c r="D2291" s="4"/>
       <c r="E2291" s="3"/>
@@ -31112,7 +31112,7 @@
         <v>154</v>
       </c>
       <c r="C2298">
-        <v>794.43642210930761</v>
+        <v>722.95095332910284</v>
       </c>
       <c r="D2298" s="4"/>
       <c r="E2298" s="3"/>
@@ -31125,7 +31125,7 @@
         <v>155</v>
       </c>
       <c r="C2299">
-        <v>10266.362825274164</v>
+        <v>753.72759772923428</v>
       </c>
       <c r="D2299" s="4"/>
       <c r="E2299" s="3"/>
@@ -31151,7 +31151,7 @@
         <v>111</v>
       </c>
       <c r="C2301">
-        <v>603.80358963280946</v>
+        <v>875.65293985326241</v>
       </c>
       <c r="D2301" s="4"/>
       <c r="E2301" s="3"/>
@@ -31203,7 +31203,7 @@
         <v>61</v>
       </c>
       <c r="C2305">
-        <v>658.74594217011656</v>
+        <v>447.25174434299925</v>
       </c>
       <c r="D2305" s="4"/>
       <c r="E2305" s="3"/>
@@ -31216,7 +31216,7 @@
         <v>158</v>
       </c>
       <c r="C2306">
-        <v>316.8223220733679</v>
+        <v>455.3097746581027</v>
       </c>
       <c r="D2306" s="4"/>
       <c r="E2306" s="3"/>
@@ -31463,7 +31463,7 @@
         <v>23</v>
       </c>
       <c r="C2325">
-        <v>372.72745622583682</v>
+        <v>395.70859958777294</v>
       </c>
       <c r="D2325" s="4"/>
       <c r="E2325" s="3"/>
@@ -31528,7 +31528,7 @@
         <v>27</v>
       </c>
       <c r="C2330">
-        <v>8448.5860525451426</v>
+        <v>789.80675403217106</v>
       </c>
       <c r="D2330" s="4"/>
       <c r="E2330" s="3"/>
@@ -31541,7 +31541,7 @@
         <v>28</v>
       </c>
       <c r="C2331">
-        <v>493.77728486023045</v>
+        <v>258.95190997213615</v>
       </c>
       <c r="D2331" s="4"/>
       <c r="E2331" s="3"/>
@@ -31593,7 +31593,7 @@
         <v>30</v>
       </c>
       <c r="C2335">
-        <v>150.73889925975661</v>
+        <v>164.0235374397497</v>
       </c>
       <c r="D2335" s="4"/>
       <c r="E2335" s="3"/>
@@ -31684,7 +31684,7 @@
         <v>37</v>
       </c>
       <c r="C2342">
-        <v>686.94458161896296</v>
+        <v>650.75889531517532</v>
       </c>
       <c r="D2342" s="4"/>
       <c r="E2342" s="3"/>
@@ -31697,7 +31697,7 @@
         <v>38</v>
       </c>
       <c r="C2343">
-        <v>398.56057741960569</v>
+        <v>1682.2544409720404</v>
       </c>
       <c r="D2343" s="4"/>
       <c r="E2343" s="3"/>
@@ -31710,7 +31710,7 @@
         <v>39</v>
       </c>
       <c r="C2344">
-        <v>795.85251044455129</v>
+        <v>722.39060646823918</v>
       </c>
       <c r="D2344" s="4"/>
       <c r="E2344" s="3"/>
@@ -31814,7 +31814,7 @@
         <v>45</v>
       </c>
       <c r="C2352">
-        <v>1039.7661654458198</v>
+        <v>971.03311960790506</v>
       </c>
       <c r="D2352" s="4"/>
       <c r="E2352" s="3"/>
@@ -32009,7 +32009,7 @@
         <v>56</v>
       </c>
       <c r="C2367">
-        <v>728.97938352236838</v>
+        <v>196.21458333789136</v>
       </c>
       <c r="D2367" s="4"/>
       <c r="E2367" s="3"/>
@@ -32113,7 +32113,7 @@
         <v>7</v>
       </c>
       <c r="C2375">
-        <v>239.19064125504926</v>
+        <v>1506.4830167957591</v>
       </c>
       <c r="D2375" s="4"/>
       <c r="E2375" s="3"/>
@@ -32139,7 +32139,7 @@
         <v>63</v>
       </c>
       <c r="C2377">
-        <v>700.54413395948052</v>
+        <v>736.5842246720938</v>
       </c>
       <c r="D2377" s="4"/>
       <c r="E2377" s="3"/>
@@ -32152,7 +32152,7 @@
         <v>64</v>
       </c>
       <c r="C2378">
-        <v>78.971103930799799</v>
+        <v>1630.6633108081844</v>
       </c>
       <c r="D2378" s="4"/>
       <c r="E2378" s="3"/>
@@ -32230,7 +32230,7 @@
         <v>68</v>
       </c>
       <c r="C2384">
-        <v>705.34593981790249</v>
+        <v>648.36446153792599</v>
       </c>
       <c r="D2384" s="4"/>
       <c r="E2384" s="3"/>
@@ -32256,7 +32256,7 @@
         <v>70</v>
       </c>
       <c r="C2386">
-        <v>770.00344880405999</v>
+        <v>740.36737273281665</v>
       </c>
       <c r="D2386" s="4"/>
       <c r="E2386" s="3"/>
@@ -32282,7 +32282,7 @@
         <v>1</v>
       </c>
       <c r="C2388">
-        <v>1637.7230717227349</v>
+        <v>234.90394810322547</v>
       </c>
       <c r="D2388" s="4"/>
       <c r="E2388" s="3"/>
@@ -32321,7 +32321,7 @@
         <v>133</v>
       </c>
       <c r="C2391">
-        <v>1214.5312276913273</v>
+        <v>1822.177975661943</v>
       </c>
       <c r="D2391" s="4"/>
       <c r="E2391" s="3"/>
@@ -32334,7 +32334,7 @@
         <v>74</v>
       </c>
       <c r="C2392">
-        <v>971.42208945060702</v>
+        <v>381.61335262523227</v>
       </c>
       <c r="D2392" s="4"/>
       <c r="E2392" s="3"/>
@@ -32360,7 +32360,7 @@
         <v>76</v>
       </c>
       <c r="C2394">
-        <v>589.40483390594511</v>
+        <v>785.68758136756878</v>
       </c>
       <c r="D2394" s="4"/>
       <c r="E2394" s="3"/>
@@ -32386,7 +32386,7 @@
         <v>77</v>
       </c>
       <c r="C2396">
-        <v>1954.6429519532264</v>
+        <v>1191.4369308516355</v>
       </c>
       <c r="D2396" s="4"/>
       <c r="E2396" s="3"/>
@@ -32399,7 +32399,7 @@
         <v>78</v>
       </c>
       <c r="C2397">
-        <v>905.74637031252905</v>
+        <v>915.72511838600315</v>
       </c>
       <c r="D2397" s="4"/>
       <c r="E2397" s="3"/>
@@ -32516,7 +32516,7 @@
         <v>84</v>
       </c>
       <c r="C2406">
-        <v>211.99831730313406</v>
+        <v>712.11598509060843</v>
       </c>
       <c r="D2406" s="4"/>
       <c r="E2406" s="3"/>
@@ -32594,7 +32594,7 @@
         <v>138</v>
       </c>
       <c r="C2412">
-        <v>699.80840581808832</v>
+        <v>460.57273139032895</v>
       </c>
       <c r="D2412" s="4"/>
       <c r="E2412" s="3"/>
@@ -32607,7 +32607,7 @@
         <v>90</v>
       </c>
       <c r="C2413">
-        <v>16.145365313514176</v>
+        <v>247.93966594497351</v>
       </c>
       <c r="D2413" s="4"/>
       <c r="E2413" s="3"/>
@@ -32620,7 +32620,7 @@
         <v>25</v>
       </c>
       <c r="C2414">
-        <v>824.08186644773468</v>
+        <v>515.99940557625337</v>
       </c>
       <c r="D2414" s="4"/>
       <c r="E2414" s="3"/>
@@ -32633,7 +32633,7 @@
         <v>139</v>
       </c>
       <c r="C2415">
-        <v>411.53655912293993</v>
+        <v>1194.6092361132444</v>
       </c>
       <c r="D2415" s="4"/>
       <c r="E2415" s="3"/>
@@ -32685,7 +32685,7 @@
         <v>142</v>
       </c>
       <c r="C2419">
-        <v>1098.7924484200989</v>
+        <v>1626.9967527816545</v>
       </c>
       <c r="D2419" s="4"/>
       <c r="E2419" s="3"/>
@@ -32724,7 +32724,7 @@
         <v>93</v>
       </c>
       <c r="C2422">
-        <v>1365.3292434803454</v>
+        <v>1795.0897370521861</v>
       </c>
       <c r="D2422" s="4"/>
       <c r="E2422" s="3"/>
@@ -32737,7 +32737,7 @@
         <v>143</v>
       </c>
       <c r="C2423">
-        <v>276.41835659845975</v>
+        <v>1005.3403255799393</v>
       </c>
       <c r="D2423" s="4"/>
       <c r="E2423" s="3"/>
@@ -32802,7 +32802,7 @@
         <v>96</v>
       </c>
       <c r="C2428">
-        <v>675.36164903852591</v>
+        <v>650.67663563772612</v>
       </c>
       <c r="D2428" s="4"/>
       <c r="E2428" s="3"/>
@@ -32828,7 +32828,7 @@
         <v>146</v>
       </c>
       <c r="C2430">
-        <v>1121.9213945281913</v>
+        <v>1101.8457637790357</v>
       </c>
       <c r="D2430" s="4"/>
       <c r="E2430" s="3"/>
@@ -32893,7 +32893,7 @@
         <v>100</v>
       </c>
       <c r="C2435">
-        <v>714.28051840081639</v>
+        <v>1620.7337800751473</v>
       </c>
       <c r="D2435" s="4"/>
       <c r="E2435" s="3"/>
@@ -32971,7 +32971,7 @@
         <v>102</v>
       </c>
       <c r="C2441">
-        <v>260.05153366417414</v>
+        <v>252.80726337751912</v>
       </c>
       <c r="D2441" s="4"/>
       <c r="E2441" s="3"/>
@@ -32984,7 +32984,7 @@
         <v>103</v>
       </c>
       <c r="C2442">
-        <v>260.94701573447514</v>
+        <v>1444.7570029493079</v>
       </c>
       <c r="D2442" s="4"/>
       <c r="E2442" s="3"/>
@@ -32997,7 +32997,7 @@
         <v>152</v>
       </c>
       <c r="C2443">
-        <v>636.1851792713112</v>
+        <v>601.81323971569111</v>
       </c>
       <c r="D2443" s="4"/>
       <c r="E2443" s="3"/>
@@ -33010,7 +33010,7 @@
         <v>104</v>
       </c>
       <c r="C2444">
-        <v>157.61862328688903</v>
+        <v>165.03367946440719</v>
       </c>
       <c r="D2444" s="4"/>
       <c r="E2444" s="3"/>
@@ -33101,7 +33101,7 @@
         <v>154</v>
       </c>
       <c r="C2451">
-        <v>302.82373991936606</v>
+        <v>1429.4233771533991</v>
       </c>
       <c r="D2451" s="4"/>
       <c r="E2451" s="3"/>
@@ -33114,7 +33114,7 @@
         <v>155</v>
       </c>
       <c r="C2452">
-        <v>10486.99065018677</v>
+        <v>1350.1941359248694</v>
       </c>
       <c r="D2452" s="4"/>
       <c r="E2452" s="3"/>
@@ -33140,7 +33140,7 @@
         <v>111</v>
       </c>
       <c r="C2454">
-        <v>823.83114023259134</v>
+        <v>248.84809610098384</v>
       </c>
       <c r="D2454" s="4"/>
       <c r="E2454" s="3"/>
@@ -33192,7 +33192,7 @@
         <v>61</v>
       </c>
       <c r="C2458">
-        <v>523.326631284364</v>
+        <v>955.30588703867818</v>
       </c>
       <c r="D2458" s="4"/>
       <c r="E2458" s="3"/>
@@ -33205,7 +33205,7 @@
         <v>158</v>
       </c>
       <c r="C2459">
-        <v>686.94458161896296</v>
+        <v>1112.4835437589691</v>
       </c>
       <c r="D2459" s="4"/>
       <c r="E2459" s="3"/>
@@ -33452,7 +33452,7 @@
         <v>23</v>
       </c>
       <c r="C2478">
-        <v>791.27963179327742</v>
+        <v>815.85372280460274</v>
       </c>
       <c r="D2478" s="4"/>
       <c r="E2478" s="3"/>
@@ -33517,7 +33517,7 @@
         <v>27</v>
       </c>
       <c r="C2483">
-        <v>8342.0947900466908</v>
+        <v>1068.1547038711406</v>
       </c>
       <c r="D2483" s="4"/>
       <c r="E2483" s="3"/>
@@ -33530,7 +33530,7 @@
         <v>28</v>
       </c>
       <c r="C2484">
-        <v>890.63296860608909</v>
+        <v>672.01230591111732</v>
       </c>
       <c r="D2484" s="4"/>
       <c r="E2484" s="3"/>
@@ -33582,7 +33582,7 @@
         <v>30</v>
       </c>
       <c r="C2488">
-        <v>542.47536983367058</v>
+        <v>567.05662745242626</v>
       </c>
       <c r="D2488" s="4"/>
       <c r="E2488" s="3"/>
@@ -33673,7 +33673,7 @@
         <v>37</v>
       </c>
       <c r="C2495">
-        <v>1095.2821525966308</v>
+        <v>1069.1594425882854</v>
       </c>
       <c r="D2495" s="4"/>
       <c r="E2495" s="3"/>
@@ -33686,7 +33686,7 @@
         <v>38</v>
       </c>
       <c r="C2496">
-        <v>806.31951344243782</v>
+        <v>2035.1637541190064</v>
       </c>
       <c r="D2496" s="4"/>
       <c r="E2496" s="3"/>
@@ -33699,7 +33699,7 @@
         <v>39</v>
       </c>
       <c r="C2497">
-        <v>1209.3228121685568</v>
+        <v>1135.7907095865644</v>
       </c>
       <c r="D2497" s="4"/>
       <c r="E2497" s="3"/>
@@ -33803,7 +33803,7 @@
         <v>45</v>
       </c>
       <c r="C2505">
-        <v>1446.0943059230262</v>
+        <v>1381.6575350880794</v>
       </c>
       <c r="D2505" s="4"/>
       <c r="E2505" s="3"/>
@@ -33985,7 +33985,7 @@
         <v>56</v>
       </c>
       <c r="C2519">
-        <v>991.25880005756017</v>
+        <v>615.82782102936551</v>
       </c>
       <c r="D2519" s="4"/>
       <c r="E2519" s="3"/>
@@ -34037,7 +34037,7 @@
         <v>15</v>
       </c>
       <c r="C2523">
-        <v>420.24564107170005</v>
+        <v>362.04824771279806</v>
       </c>
       <c r="D2523" s="4"/>
       <c r="E2523" s="3"/>
@@ -34102,7 +34102,7 @@
         <v>7</v>
       </c>
       <c r="C2528">
-        <v>651.21628324415826</v>
+        <v>1926.2145089820269</v>
       </c>
       <c r="D2528" s="4"/>
       <c r="E2528" s="3"/>
@@ -34128,7 +34128,7 @@
         <v>63</v>
       </c>
       <c r="C2530">
-        <v>1055.0367461620444</v>
+        <v>997.13229526151304</v>
       </c>
       <c r="D2530" s="4"/>
       <c r="E2530" s="3"/>
@@ -34141,7 +34141,7 @@
         <v>64</v>
       </c>
       <c r="C2531">
-        <v>459.749685076258</v>
+        <v>2037.231174994344</v>
       </c>
       <c r="D2531" s="4"/>
       <c r="E2531" s="3"/>
@@ -34219,7 +34219,7 @@
         <v>68</v>
       </c>
       <c r="C2537">
-        <v>347.75743550838962</v>
+        <v>328.10386055197489</v>
       </c>
       <c r="D2537" s="4"/>
       <c r="E2537" s="3"/>
@@ -34245,7 +34245,7 @@
         <v>70</v>
       </c>
       <c r="C2539">
-        <v>1173.3811986682188</v>
+        <v>1144.9127327638284</v>
       </c>
       <c r="D2539" s="4"/>
       <c r="E2539" s="3"/>
@@ -34271,7 +34271,7 @@
         <v>1</v>
       </c>
       <c r="C2541">
-        <v>2046.0768444432645</v>
+        <v>653.97812780884749</v>
       </c>
       <c r="D2541" s="4"/>
       <c r="E2541" s="3"/>
@@ -34310,7 +34310,7 @@
         <v>133</v>
       </c>
       <c r="C2544">
-        <v>1607.7344254863776</v>
+        <v>2234.7629433990946</v>
       </c>
       <c r="D2544" s="4"/>
       <c r="E2544" s="3"/>
@@ -34323,7 +34323,7 @@
         <v>74</v>
       </c>
       <c r="C2545">
-        <v>1383.1701370022911</v>
+        <v>48.314602923264886</v>
       </c>
       <c r="D2545" s="4"/>
       <c r="E2545" s="3"/>
@@ -34349,7 +34349,7 @@
         <v>76</v>
       </c>
       <c r="C2547">
-        <v>977.49043869739342</v>
+        <v>1143.1151371155674</v>
       </c>
       <c r="D2547" s="4"/>
       <c r="E2547" s="3"/>
@@ -34375,7 +34375,7 @@
         <v>77</v>
       </c>
       <c r="C2549">
-        <v>2340.1678669354187</v>
+        <v>1498.4470579564181</v>
       </c>
       <c r="D2549" s="4"/>
       <c r="E2549" s="3"/>
@@ -34388,7 +34388,7 @@
         <v>78</v>
       </c>
       <c r="C2550">
-        <v>1322.046522032254</v>
+        <v>503.98021820764313</v>
       </c>
       <c r="D2550" s="4"/>
       <c r="E2550" s="3"/>
@@ -34505,7 +34505,7 @@
         <v>84</v>
       </c>
       <c r="C2559">
-        <v>552.15641582947683</v>
+        <v>1124.9418867103668</v>
       </c>
       <c r="D2559" s="4"/>
       <c r="E2559" s="3"/>
@@ -34583,7 +34583,7 @@
         <v>138</v>
       </c>
       <c r="C2565">
-        <v>349.33330443536875</v>
+        <v>880.49185178879975</v>
       </c>
       <c r="D2565" s="4"/>
       <c r="E2565" s="3"/>
@@ -34596,7 +34596,7 @@
         <v>90</v>
       </c>
       <c r="C2566">
-        <v>409.59033180144809</v>
+        <v>620.85704735454749</v>
       </c>
       <c r="D2566" s="4"/>
       <c r="E2566" s="3"/>
@@ -34609,7 +34609,7 @@
         <v>25</v>
       </c>
       <c r="C2567">
-        <v>1165.909295074199</v>
+        <v>138.27547590176096</v>
       </c>
       <c r="D2567" s="4"/>
       <c r="E2567" s="3"/>
@@ -34622,7 +34622,7 @@
         <v>139</v>
       </c>
       <c r="C2568">
-        <v>831.76809701478055</v>
+        <v>1500.1231193448591</v>
       </c>
       <c r="D2568" s="4"/>
       <c r="E2568" s="3"/>
@@ -34674,7 +34674,7 @@
         <v>142</v>
       </c>
       <c r="C2572">
-        <v>1517.8217884917403</v>
+        <v>2033.7631873859395</v>
       </c>
       <c r="D2572" s="4"/>
       <c r="E2572" s="3"/>
@@ -34713,7 +34713,7 @@
         <v>93</v>
       </c>
       <c r="C2575">
-        <v>1779.2602962391036</v>
+        <v>2181.3523106197526</v>
       </c>
       <c r="D2575" s="4"/>
       <c r="E2575" s="3"/>
@@ -34726,7 +34726,7 @@
         <v>143</v>
       </c>
       <c r="C2576">
-        <v>362.42055934620959</v>
+        <v>1410.2575671747366</v>
       </c>
       <c r="D2576" s="4"/>
       <c r="E2576" s="3"/>
@@ -34791,7 +34791,7 @@
         <v>96</v>
       </c>
       <c r="C2581">
-        <v>1093.6562076306056</v>
+        <v>1069.0853312236509</v>
       </c>
       <c r="D2581" s="4"/>
       <c r="E2581" s="3"/>
@@ -34817,7 +34817,7 @@
         <v>146</v>
       </c>
       <c r="C2583">
-        <v>1530.3535678398614</v>
+        <v>1509.0948112346086</v>
       </c>
       <c r="D2583" s="4"/>
       <c r="E2583" s="3"/>
@@ -34882,7 +34882,7 @@
         <v>100</v>
       </c>
       <c r="C2588">
-        <v>1076.1004192504588</v>
+        <v>1996.3235421702382</v>
       </c>
       <c r="D2588" s="4"/>
       <c r="E2588" s="3"/>
@@ -34960,7 +34960,7 @@
         <v>102</v>
       </c>
       <c r="C2594">
-        <v>394.31918270440428</v>
+        <v>415.4891634202026</v>
       </c>
       <c r="D2594" s="4"/>
       <c r="E2594" s="3"/>
@@ -34973,7 +34973,7 @@
         <v>103</v>
       </c>
       <c r="C2595">
-        <v>674.14330279216097</v>
+        <v>1831.2872655717651</v>
       </c>
       <c r="D2595" s="4"/>
       <c r="E2595" s="3"/>
@@ -34986,7 +34986,7 @@
         <v>152</v>
       </c>
       <c r="C2596">
-        <v>317.08880298615702</v>
+        <v>979.13850077226743</v>
       </c>
       <c r="D2596" s="4"/>
       <c r="E2596" s="3"/>
@@ -34999,7 +34999,7 @@
         <v>104</v>
       </c>
       <c r="C2597">
-        <v>573.1767382663021</v>
+        <v>577.847871072158</v>
       </c>
       <c r="D2597" s="4"/>
       <c r="E2597" s="3"/>
@@ -35090,7 +35090,7 @@
         <v>154</v>
       </c>
       <c r="C2604">
-        <v>713.20342267980698</v>
+        <v>1849.5299574025512</v>
       </c>
       <c r="D2604" s="4"/>
       <c r="E2604" s="3"/>
@@ -35103,7 +35103,7 @@
         <v>155</v>
       </c>
       <c r="C2605">
-        <v>10389.070736766356</v>
+        <v>1604.6844833196051</v>
       </c>
       <c r="D2605" s="4"/>
       <c r="E2605" s="3"/>
@@ -35129,7 +35129,7 @@
         <v>111</v>
       </c>
       <c r="C2607">
-        <v>1237.9996240139271</v>
+        <v>643.63010047299554</v>
       </c>
       <c r="D2607" s="4"/>
       <c r="E2607" s="3"/>
@@ -35181,7 +35181,7 @@
         <v>61</v>
       </c>
       <c r="C2611">
-        <v>937.66634805997046</v>
+        <v>1253.9447621595048</v>
       </c>
       <c r="D2611" s="4"/>
       <c r="E2611" s="3"/>
@@ -35194,7 +35194,7 @@
         <v>158</v>
       </c>
       <c r="C2612">
-        <v>1095.2821525966308</v>
+        <v>1417.9624864869377</v>
       </c>
       <c r="D2612" s="4"/>
       <c r="E2612" s="3"/>

--- a/Rutas_Cemix_Origen_TodosDestinos.xlsx
+++ b/Rutas_Cemix_Origen_TodosDestinos.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Cemix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\DS-de-Cimex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1433BAA-79E4-4D26-8B4A-EE4E419527DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EEF88A-CC96-4B82-81DE-021EC05040DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{ABC5CFBD-A642-4244-A295-C882748C920D}"/>
   </bookViews>
@@ -900,15 +900,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AB4770-D27B-4A3E-A38A-755CF371868C}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J2619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2598" workbookViewId="0">
-      <selection activeCell="E2613" sqref="E2613"/>
+    <sheetView tabSelected="1" topLeftCell="A1083" workbookViewId="0">
+      <selection activeCell="C1085" sqref="C1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
@@ -5615,7 +5616,7 @@
       <c r="B325" t="s">
         <v>17</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325">
         <v>692.9470455548543</v>
       </c>
       <c r="E325" s="3"/>
@@ -5627,7 +5628,7 @@
       <c r="B326" t="s">
         <v>18</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326">
         <v>885.20669497148197</v>
       </c>
       <c r="E326" s="3"/>
@@ -5639,7 +5640,7 @@
       <c r="B327" t="s">
         <v>19</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327">
         <v>1150.0703779607113</v>
       </c>
       <c r="E327" s="3"/>
@@ -5651,7 +5652,7 @@
       <c r="B328" t="s">
         <v>20</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328">
         <v>1006.7505965275366</v>
       </c>
       <c r="E328" s="3"/>
@@ -5663,7 +5664,7 @@
       <c r="B329" t="s">
         <v>118</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329">
         <v>1158.2389151408797</v>
       </c>
       <c r="E329" s="3"/>
@@ -5675,7 +5676,7 @@
       <c r="B330" t="s">
         <v>3</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330">
         <v>1225.4236262360214</v>
       </c>
       <c r="E330" s="3"/>
@@ -5687,7 +5688,7 @@
       <c r="B331" t="s">
         <v>119</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331">
         <v>369.21242101660999</v>
       </c>
       <c r="E331" s="3"/>
@@ -5699,7 +5700,7 @@
       <c r="B332" t="s">
         <v>21</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332">
         <v>705.20789561034485</v>
       </c>
       <c r="E332" s="3"/>
@@ -5711,7 +5712,7 @@
       <c r="B333" t="s">
         <v>22</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333">
         <v>213.35371817323306</v>
       </c>
       <c r="E333" s="3"/>
@@ -5723,7 +5724,7 @@
       <c r="B334" t="s">
         <v>120</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334">
         <v>452.37160932622476</v>
       </c>
       <c r="E334" s="3"/>
@@ -5735,7 +5736,7 @@
       <c r="B335" t="s">
         <v>6</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335">
         <v>460.34294920257878</v>
       </c>
       <c r="E335" s="3"/>
@@ -5747,7 +5748,7 @@
       <c r="B336" t="s">
         <v>23</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336">
         <v>172.69108762435241</v>
       </c>
       <c r="E336" s="3"/>
@@ -5759,7 +5760,7 @@
       <c r="B337" t="s">
         <v>121</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337">
         <v>1506.5709976835965</v>
       </c>
       <c r="E337" s="3"/>
@@ -5771,7 +5772,7 @@
       <c r="B338" t="s">
         <v>24</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338">
         <v>86.395448454908816</v>
       </c>
       <c r="E338" s="3"/>
@@ -5783,7 +5784,7 @@
       <c r="B339" t="s">
         <v>122</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339">
         <v>1266.109450934375</v>
       </c>
       <c r="E339" s="3"/>
@@ -5795,7 +5796,7 @@
       <c r="B340" t="s">
         <v>26</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340">
         <v>1294.8975884469862</v>
       </c>
       <c r="E340" s="3"/>
@@ -5807,7 +5808,7 @@
       <c r="B341" t="s">
         <v>27</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341">
         <v>770.20872652214587</v>
       </c>
       <c r="E341" s="3"/>
@@ -5819,7 +5820,7 @@
       <c r="B342" t="s">
         <v>29</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342">
         <v>1227.0952044566877</v>
       </c>
       <c r="E342" s="3"/>
@@ -5831,7 +5832,7 @@
       <c r="B343" t="s">
         <v>123</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343">
         <v>702.20388059687593</v>
       </c>
       <c r="E343" s="3"/>
@@ -5843,7 +5844,7 @@
       <c r="B344" t="s">
         <v>124</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344">
         <v>1040.0978426687807</v>
       </c>
       <c r="E344" s="3"/>
@@ -5855,7 +5856,7 @@
       <c r="B345" t="s">
         <v>30</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345">
         <v>107.26751991582893</v>
       </c>
       <c r="E345" s="3"/>
@@ -5867,7 +5868,7 @@
       <c r="B346" t="s">
         <v>31</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346">
         <v>743.04909255491941</v>
       </c>
       <c r="E346" s="3"/>
@@ -5879,7 +5880,7 @@
       <c r="B347" t="s">
         <v>32</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347">
         <v>635.3751151481182</v>
       </c>
       <c r="E347" s="3"/>
@@ -5891,7 +5892,7 @@
       <c r="B348" t="s">
         <v>33</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348">
         <v>808.96499115291476</v>
       </c>
       <c r="E348" s="3"/>
@@ -5903,7 +5904,7 @@
       <c r="B349" t="s">
         <v>34</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349">
         <v>1608.5927757566528</v>
       </c>
       <c r="E349" s="3"/>
@@ -5915,7 +5916,7 @@
       <c r="B350" t="s">
         <v>35</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350">
         <v>862.46631303510583</v>
       </c>
       <c r="E350" s="3"/>
@@ -5927,7 +5928,7 @@
       <c r="B351" t="s">
         <v>36</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351">
         <v>699.36106474473979</v>
       </c>
       <c r="E351" s="3"/>
@@ -5939,7 +5940,7 @@
       <c r="B352" t="s">
         <v>37</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352">
         <v>427.47573644794733</v>
       </c>
       <c r="E352" s="3"/>
@@ -5951,7 +5952,7 @@
       <c r="B353" t="s">
         <v>38</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353">
         <v>1542.6340822584768</v>
       </c>
       <c r="E353" s="3"/>
@@ -5963,7 +5964,7 @@
       <c r="B354" t="s">
         <v>39</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354">
         <v>515.15080926441919</v>
       </c>
       <c r="E354" s="3"/>
@@ -5975,7 +5976,7 @@
       <c r="B355" t="s">
         <v>40</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355">
         <v>1038.7557683583104</v>
       </c>
       <c r="E355" s="3"/>
@@ -5987,7 +5988,7 @@
       <c r="B356" t="s">
         <v>41</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356">
         <v>217.8275722175413</v>
       </c>
       <c r="E356" s="3"/>
@@ -5999,7 +6000,7 @@
       <c r="B357" t="s">
         <v>9</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357">
         <v>2187.5879259966969</v>
       </c>
       <c r="E357" s="3"/>
@@ -6011,7 +6012,7 @@
       <c r="B358" t="s">
         <v>42</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358">
         <v>325.54304798275223</v>
       </c>
       <c r="E358" s="3"/>
@@ -6023,7 +6024,7 @@
       <c r="B359" t="s">
         <v>125</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359">
         <v>736.49963941416763</v>
       </c>
       <c r="E359" s="3"/>
@@ -6035,7 +6036,7 @@
       <c r="B360" t="s">
         <v>43</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360">
         <v>1279.1713302442058</v>
       </c>
       <c r="E360" s="3"/>
@@ -6047,7 +6048,7 @@
       <c r="B361" t="s">
         <v>44</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361">
         <v>1160.6660639867453</v>
       </c>
       <c r="E361" s="3"/>
@@ -6059,7 +6060,7 @@
       <c r="B362" t="s">
         <v>45</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362">
         <v>763.26411880549449</v>
       </c>
       <c r="E362" s="3"/>
@@ -6071,7 +6072,7 @@
       <c r="B363" t="s">
         <v>126</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363">
         <v>1166.8294843197446</v>
       </c>
       <c r="E363" s="3"/>
@@ -6083,7 +6084,7 @@
       <c r="B364" t="s">
         <v>127</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364">
         <v>649.87360610594271</v>
       </c>
       <c r="E364" s="3"/>
@@ -6095,7 +6096,7 @@
       <c r="B365" t="s">
         <v>46</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365">
         <v>353.66745415776444</v>
       </c>
       <c r="E365" s="3"/>
@@ -6107,7 +6108,7 @@
       <c r="B366" t="s">
         <v>47</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366">
         <v>478.84616753133486</v>
       </c>
       <c r="E366" s="3"/>
@@ -6119,7 +6120,7 @@
       <c r="B367" t="s">
         <v>48</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367">
         <v>354.11463090449018</v>
       </c>
       <c r="E367" s="3"/>
@@ -6131,7 +6132,7 @@
       <c r="B368" t="s">
         <v>128</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368">
         <v>1067.6214618039678</v>
       </c>
       <c r="E368" s="3"/>
@@ -6143,7 +6144,7 @@
       <c r="B369" t="s">
         <v>49</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369">
         <v>204.38965687303215</v>
       </c>
       <c r="E369" s="3"/>
@@ -6155,7 +6156,7 @@
       <c r="B370" t="s">
         <v>50</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370">
         <v>725.27523106611193</v>
       </c>
       <c r="E370" s="3"/>
@@ -6167,7 +6168,7 @@
       <c r="B371" t="s">
         <v>51</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371">
         <v>2225.5124931822029</v>
       </c>
       <c r="E371" s="3"/>
@@ -6179,7 +6180,7 @@
       <c r="B372" t="s">
         <v>52</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372">
         <v>252.03344399097637</v>
       </c>
       <c r="E372" s="3"/>
@@ -6191,7 +6192,7 @@
       <c r="B373" t="s">
         <v>16</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373">
         <v>672.01230591111732</v>
       </c>
       <c r="E373" s="3"/>
@@ -6203,7 +6204,7 @@
       <c r="B374" t="s">
         <v>53</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374">
         <v>1143.458196002618</v>
       </c>
       <c r="E374" s="3"/>
@@ -6215,7 +6216,7 @@
       <c r="B375" t="s">
         <v>54</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375">
         <v>864.24496601025101</v>
       </c>
       <c r="E375" s="3"/>
@@ -6227,7 +6228,7 @@
       <c r="B376" t="s">
         <v>55</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376">
         <v>802.90840514853573</v>
       </c>
       <c r="E376" s="3"/>
@@ -6239,7 +6240,7 @@
       <c r="B377" t="s">
         <v>56</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377">
         <v>108.7769127849463</v>
       </c>
       <c r="E377" s="3"/>
@@ -6251,7 +6252,7 @@
       <c r="B378" t="s">
         <v>57</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378">
         <v>2293.6133069396337</v>
       </c>
       <c r="E378" s="3"/>
@@ -6263,7 +6264,7 @@
       <c r="B379" t="s">
         <v>58</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379">
         <v>190.88688400370984</v>
       </c>
       <c r="E379" s="3"/>
@@ -6275,7 +6276,7 @@
       <c r="B380" t="s">
         <v>59</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380">
         <v>296.28092413463992</v>
       </c>
       <c r="E380" s="3"/>
@@ -6287,7 +6288,7 @@
       <c r="B381" t="s">
         <v>15</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381">
         <v>315.81510437756668</v>
       </c>
       <c r="E381" s="3"/>
@@ -6299,7 +6300,7 @@
       <c r="B382" t="s">
         <v>129</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382">
         <v>1308.0199071341444</v>
       </c>
       <c r="E382" s="3"/>
@@ -6311,7 +6312,7 @@
       <c r="B383" t="s">
         <v>60</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383">
         <v>513.49468811876636</v>
       </c>
       <c r="E383" s="3"/>
@@ -6323,7 +6324,7 @@
       <c r="B384" t="s">
         <v>130</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384">
         <v>895.26021108585223</v>
       </c>
       <c r="E384" s="3"/>
@@ -6335,7 +6336,7 @@
       <c r="B385" t="s">
         <v>62</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385">
         <v>304.2477274964437</v>
       </c>
       <c r="E385" s="3"/>
@@ -6347,7 +6348,7 @@
       <c r="B386" t="s">
         <v>7</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386">
         <v>1266.870682206918</v>
       </c>
       <c r="E386" s="3"/>
@@ -6359,7 +6360,7 @@
       <c r="B387" t="s">
         <v>131</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387">
         <v>814.88889625327749</v>
       </c>
       <c r="E387" s="3"/>
@@ -6371,7 +6372,7 @@
       <c r="B388" t="s">
         <v>63</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388">
         <v>740.14504115985392</v>
       </c>
       <c r="E388" s="3"/>
@@ -6383,7 +6384,7 @@
       <c r="B389" t="s">
         <v>64</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389">
         <v>1421.9063243641403</v>
       </c>
       <c r="E389" s="3"/>
@@ -6395,7 +6396,7 @@
       <c r="B390" t="s">
         <v>65</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390">
         <v>260.46791085894472</v>
       </c>
       <c r="E390" s="3"/>
@@ -6407,7 +6408,7 @@
       <c r="B391" t="s">
         <v>12</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391">
         <v>338.26421903856141</v>
       </c>
       <c r="E391" s="3"/>
@@ -6419,7 +6420,7 @@
       <c r="B392" t="s">
         <v>66</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392">
         <v>642.819495306401</v>
       </c>
       <c r="E392" s="3"/>
@@ -6431,7 +6432,7 @@
       <c r="B393" t="s">
         <v>67</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393">
         <v>733.15248349731371</v>
       </c>
       <c r="E393" s="3"/>
@@ -6443,7 +6444,7 @@
       <c r="B394" t="s">
         <v>132</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394">
         <v>1960.2621517309826</v>
       </c>
       <c r="E394" s="3"/>
@@ -6455,7 +6456,7 @@
       <c r="B395" t="s">
         <v>68</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395">
         <v>905.04809029955641</v>
       </c>
       <c r="E395" s="3"/>
@@ -6467,7 +6468,7 @@
       <c r="B396" t="s">
         <v>69</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396">
         <v>879.80997861796789</v>
       </c>
       <c r="E396" s="3"/>
@@ -6479,7 +6480,7 @@
       <c r="B397" t="s">
         <v>70</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397">
         <v>481.7769295899119</v>
       </c>
       <c r="E397" s="3"/>
@@ -6491,7 +6492,7 @@
       <c r="B398" t="s">
         <v>71</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398">
         <v>269.86344255679461</v>
       </c>
       <c r="E398" s="3"/>
@@ -6503,7 +6504,7 @@
       <c r="B399" t="s">
         <v>1</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399">
         <v>106.59930983884098</v>
       </c>
       <c r="E399" s="3"/>
@@ -6515,7 +6516,7 @@
       <c r="B400" t="s">
         <v>72</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400">
         <v>603.3931968314115</v>
       </c>
       <c r="E400" s="3"/>
@@ -6527,7 +6528,7 @@
       <c r="B401" t="s">
         <v>73</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401">
         <v>238.47713668020438</v>
       </c>
       <c r="E401" s="3"/>
@@ -6539,7 +6540,7 @@
       <c r="B402" t="s">
         <v>133</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402">
         <v>1601.1909504354824</v>
       </c>
       <c r="E402" s="3"/>
@@ -6551,7 +6552,7 @@
       <c r="B403" t="s">
         <v>74</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403">
         <v>636.58640701526576</v>
       </c>
       <c r="E403" s="3"/>
@@ -6563,7 +6564,7 @@
       <c r="B404" t="s">
         <v>75</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404">
         <v>1008.1977328300192</v>
       </c>
       <c r="E404" s="3"/>
@@ -6575,7 +6576,7 @@
       <c r="B405" t="s">
         <v>76</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405">
         <v>676.47873076282747</v>
       </c>
       <c r="E405" s="3"/>
@@ -6587,7 +6588,7 @@
       <c r="B406" t="s">
         <v>134</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406">
         <v>1683.196298644787</v>
       </c>
       <c r="E406" s="3"/>
@@ -6599,7 +6600,7 @@
       <c r="B407" t="s">
         <v>77</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407">
         <v>1114.2306721975945</v>
       </c>
       <c r="E407" s="3"/>
@@ -6611,7 +6612,7 @@
       <c r="B408" t="s">
         <v>78</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408">
         <v>1172.3817373219688</v>
       </c>
       <c r="E408" s="3"/>
@@ -6623,7 +6624,7 @@
       <c r="B409" t="s">
         <v>79</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409">
         <v>1698.1241695053361</v>
       </c>
       <c r="E409" s="3"/>
@@ -6635,7 +6636,7 @@
       <c r="B410" t="s">
         <v>80</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410">
         <v>966.58348519936146</v>
       </c>
       <c r="E410" s="3"/>
@@ -6647,7 +6648,7 @@
       <c r="B411" t="s">
         <v>81</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411">
         <v>57.106826330357059</v>
       </c>
       <c r="E411" s="3"/>
@@ -6659,7 +6660,7 @@
       <c r="B412" t="s">
         <v>82</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412">
         <v>57.781575542136721</v>
       </c>
       <c r="E412" s="3"/>
@@ -6671,7 +6672,7 @@
       <c r="B413" t="s">
         <v>135</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413">
         <v>529.90803950192003</v>
       </c>
       <c r="E413" s="3"/>
@@ -6683,7 +6684,7 @@
       <c r="B414" t="s">
         <v>136</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414">
         <v>753.77581858648534</v>
       </c>
       <c r="E414" s="3"/>
@@ -6695,7 +6696,7 @@
       <c r="B415" t="s">
         <v>83</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415">
         <v>1858.0891674780239</v>
       </c>
       <c r="E415" s="3"/>
@@ -6707,7 +6708,7 @@
       <c r="B416" t="s">
         <v>137</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416">
         <v>1233.6551179234411</v>
       </c>
       <c r="E416" s="3"/>
@@ -6719,7 +6720,7 @@
       <c r="B417" t="s">
         <v>84</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417">
         <v>507.05463881171568</v>
       </c>
       <c r="E417" s="3"/>
@@ -6731,7 +6732,7 @@
       <c r="B418" t="s">
         <v>85</v>
       </c>
-      <c r="C418" s="4">
+      <c r="C418">
         <v>232.86914653687487</v>
       </c>
       <c r="E418" s="3"/>
@@ -6743,7 +6744,7 @@
       <c r="B419" t="s">
         <v>86</v>
       </c>
-      <c r="C419" s="4">
+      <c r="C419">
         <v>535.92587085417983</v>
       </c>
       <c r="E419" s="3"/>
@@ -6755,7 +6756,7 @@
       <c r="B420" t="s">
         <v>87</v>
       </c>
-      <c r="C420" s="4">
+      <c r="C420">
         <v>1244.9465338657635</v>
       </c>
       <c r="E420" s="3"/>
@@ -6767,7 +6768,7 @@
       <c r="B421" t="s">
         <v>88</v>
       </c>
-      <c r="C421" s="4">
+      <c r="C421">
         <v>247.14134429167186</v>
       </c>
       <c r="E421" s="3"/>
@@ -6779,7 +6780,7 @@
       <c r="B422" t="s">
         <v>89</v>
       </c>
-      <c r="C422" s="4">
+      <c r="C422">
         <v>203.77673799656694</v>
       </c>
       <c r="E422" s="3"/>
@@ -6791,7 +6792,7 @@
       <c r="B423" t="s">
         <v>138</v>
       </c>
-      <c r="C423" s="4">
+      <c r="C423">
         <v>235.45716917009227</v>
       </c>
       <c r="E423" s="3"/>
@@ -6803,7 +6804,7 @@
       <c r="B424" t="s">
         <v>90</v>
       </c>
-      <c r="C424" s="4">
+      <c r="C424">
         <v>261.72641542278933</v>
       </c>
       <c r="E424" s="3"/>
@@ -6815,7 +6816,7 @@
       <c r="B425" t="s">
         <v>25</v>
       </c>
-      <c r="C425" s="4">
+      <c r="C425">
         <v>774.32998727141535</v>
       </c>
       <c r="E425" s="3"/>
@@ -6827,7 +6828,7 @@
       <c r="B426" t="s">
         <v>139</v>
       </c>
-      <c r="C426" s="4">
+      <c r="C426">
         <v>1118.7431021295995</v>
       </c>
       <c r="E426" s="3"/>
@@ -6839,7 +6840,7 @@
       <c r="B427" t="s">
         <v>140</v>
       </c>
-      <c r="C427" s="4">
+      <c r="C427">
         <v>99.8613505543575</v>
       </c>
       <c r="E427" s="3"/>
@@ -6851,7 +6852,7 @@
       <c r="B428" t="s">
         <v>141</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428">
         <v>400.83679258521954</v>
       </c>
       <c r="E428" s="3"/>
@@ -6863,7 +6864,7 @@
       <c r="B429" t="s">
         <v>91</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429">
         <v>1543.12413950207</v>
       </c>
       <c r="E429" s="3"/>
@@ -6875,7 +6876,7 @@
       <c r="B430" t="s">
         <v>142</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430">
         <v>1417.9280651296338</v>
       </c>
       <c r="E430" s="3"/>
@@ -6887,7 +6888,7 @@
       <c r="B431" t="s">
         <v>92</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431">
         <v>541.67804482218776</v>
       </c>
       <c r="E431" s="3"/>
@@ -6899,7 +6900,7 @@
       <c r="B432" t="s">
         <v>83</v>
       </c>
-      <c r="C432" s="4">
+      <c r="C432">
         <v>1858.0891674780239</v>
       </c>
       <c r="E432" s="3"/>
@@ -6911,7 +6912,7 @@
       <c r="B433" t="s">
         <v>93</v>
       </c>
-      <c r="C433" s="4">
+      <c r="C433">
         <v>1614.4729913928259</v>
       </c>
       <c r="E433" s="3"/>
@@ -6923,7 +6924,7 @@
       <c r="B434" t="s">
         <v>143</v>
       </c>
-      <c r="C434" s="4">
+      <c r="C434">
         <v>808.82809987455107</v>
       </c>
       <c r="E434" s="3"/>
@@ -6935,7 +6936,7 @@
       <c r="B435" t="s">
         <v>94</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C435">
         <v>335.07395524282862</v>
       </c>
       <c r="E435" s="3"/>
@@ -6947,7 +6948,7 @@
       <c r="B436" t="s">
         <v>144</v>
       </c>
-      <c r="C436" s="4">
+      <c r="C436">
         <v>367.05284617454527</v>
       </c>
       <c r="E436" s="3"/>
@@ -6959,7 +6960,7 @@
       <c r="B437" t="s">
         <v>145</v>
       </c>
-      <c r="C437" s="4">
+      <c r="C437">
         <v>1713.3754762538372</v>
       </c>
       <c r="E437" s="3"/>
@@ -6971,7 +6972,7 @@
       <c r="B438" t="s">
         <v>95</v>
       </c>
-      <c r="C438" s="4">
+      <c r="C438">
         <v>862.6461629366645</v>
       </c>
       <c r="E438" s="3"/>
@@ -6983,7 +6984,7 @@
       <c r="B439" t="s">
         <v>96</v>
       </c>
-      <c r="C439" s="4">
+      <c r="C439">
         <v>427.35389817076401</v>
       </c>
       <c r="E439" s="3"/>
@@ -6995,7 +6996,7 @@
       <c r="B440" t="s">
         <v>97</v>
       </c>
-      <c r="C440" s="4">
+      <c r="C440">
         <v>690.70253375705715</v>
       </c>
       <c r="E440" s="3"/>
@@ -7007,7 +7008,7 @@
       <c r="B441" t="s">
         <v>146</v>
       </c>
-      <c r="C441" s="4">
+      <c r="C441">
         <v>898.51291812725231</v>
       </c>
       <c r="E441" s="3"/>
@@ -7019,7 +7020,7 @@
       <c r="B442" t="s">
         <v>10</v>
       </c>
-      <c r="C442" s="4">
+      <c r="C442">
         <v>1345.7678799316629</v>
       </c>
       <c r="E442" s="3"/>
@@ -7031,7 +7032,7 @@
       <c r="B443" t="s">
         <v>147</v>
       </c>
-      <c r="C443" s="4">
+      <c r="C443">
         <v>1182.475499354056</v>
       </c>
       <c r="E443" s="3"/>
@@ -7043,7 +7044,7 @@
       <c r="B444" t="s">
         <v>99</v>
       </c>
-      <c r="C444" s="4">
+      <c r="C444">
         <v>211.81142778330812</v>
       </c>
       <c r="E444" s="3"/>
@@ -7055,7 +7056,7 @@
       <c r="B445" t="s">
         <v>62</v>
       </c>
-      <c r="C445" s="4">
+      <c r="C445">
         <v>304.2477274964437</v>
       </c>
       <c r="E445" s="3"/>
@@ -7067,7 +7068,7 @@
       <c r="B446" t="s">
         <v>100</v>
       </c>
-      <c r="C446" s="4">
+      <c r="C446">
         <v>1455.8746436371093</v>
       </c>
       <c r="E446" s="3"/>
@@ -7079,7 +7080,7 @@
       <c r="B447" t="s">
         <v>148</v>
       </c>
-      <c r="C447" s="4">
+      <c r="C447">
         <v>832.3939319097866</v>
       </c>
       <c r="E447" s="3"/>
@@ -7091,7 +7092,7 @@
       <c r="B448" t="s">
         <v>149</v>
       </c>
-      <c r="C448" s="4">
+      <c r="C448">
         <v>749.02601552791441</v>
       </c>
       <c r="E448" s="3"/>
@@ -7103,7 +7104,7 @@
       <c r="B449" t="s">
         <v>150</v>
       </c>
-      <c r="C449" s="4">
+      <c r="C449">
         <v>832.44372508134506</v>
       </c>
       <c r="E449" s="3"/>
@@ -7115,7 +7116,7 @@
       <c r="B450" t="s">
         <v>101</v>
       </c>
-      <c r="C450" s="4">
+      <c r="C450">
         <v>363.01623442036555</v>
       </c>
       <c r="E450" s="3"/>
@@ -7127,7 +7128,7 @@
       <c r="B451" t="s">
         <v>151</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451">
         <v>127.1960771048962</v>
       </c>
       <c r="E451" s="3"/>
@@ -7139,7 +7140,7 @@
       <c r="B452" t="s">
         <v>102</v>
       </c>
-      <c r="C452" s="4">
+      <c r="C452">
         <v>366.35855434186544</v>
       </c>
       <c r="E452" s="3"/>
@@ -7151,7 +7152,7 @@
       <c r="B453" t="s">
         <v>103</v>
       </c>
-      <c r="C453" s="4">
+      <c r="C453">
         <v>1268.5490149726163</v>
       </c>
       <c r="E453" s="3"/>
@@ -7163,7 +7164,7 @@
       <c r="B454" t="s">
         <v>152</v>
       </c>
-      <c r="C454" s="4">
+      <c r="C454">
         <v>361.45397563439116</v>
       </c>
       <c r="E454" s="3"/>
@@ -7175,7 +7176,7 @@
       <c r="B455" t="s">
         <v>104</v>
       </c>
-      <c r="C455" s="4">
+      <c r="C455">
         <v>94.606317504974285</v>
       </c>
       <c r="E455" s="3"/>
@@ -7187,7 +7188,7 @@
       <c r="B456" t="s">
         <v>105</v>
       </c>
-      <c r="C456" s="4">
+      <c r="C456">
         <v>212.51507047672422</v>
       </c>
       <c r="E456" s="3"/>
@@ -7199,7 +7200,7 @@
       <c r="B457" t="s">
         <v>106</v>
       </c>
-      <c r="C457" s="4">
+      <c r="C457">
         <v>93.138895021374537</v>
       </c>
       <c r="E457" s="3"/>
@@ -7211,7 +7212,7 @@
       <c r="B458" t="s">
         <v>107</v>
       </c>
-      <c r="C458" s="4">
+      <c r="C458">
         <v>42.629103117245421</v>
       </c>
       <c r="E458" s="3"/>
@@ -7223,7 +7224,7 @@
       <c r="B459" t="s">
         <v>108</v>
       </c>
-      <c r="C459" s="4">
+      <c r="C459">
         <v>881.97012301463485</v>
       </c>
       <c r="E459" s="3"/>
@@ -7235,7 +7236,7 @@
       <c r="B460" t="s">
         <v>153</v>
       </c>
-      <c r="C460" s="4">
+      <c r="C460">
         <v>214.97246899183432</v>
       </c>
       <c r="E460" s="3"/>
@@ -7247,7 +7248,7 @@
       <c r="B461" t="s">
         <v>109</v>
       </c>
-      <c r="C461" s="4">
+      <c r="C461">
         <v>92.687440468983127</v>
       </c>
       <c r="E461" s="3"/>
@@ -7259,7 +7260,7 @@
       <c r="B462" t="s">
         <v>154</v>
       </c>
-      <c r="C462" s="4">
+      <c r="C462">
         <v>1181.8798577183375</v>
       </c>
       <c r="E462" s="3"/>
@@ -7271,7 +7272,7 @@
       <c r="B463" t="s">
         <v>155</v>
       </c>
-      <c r="C463" s="4">
+      <c r="C463">
         <v>1314.1332360146855</v>
       </c>
       <c r="E463" s="3"/>
@@ -7283,7 +7284,7 @@
       <c r="B464" t="s">
         <v>110</v>
       </c>
-      <c r="C464" s="4">
+      <c r="C464">
         <v>2292.0065080158088</v>
       </c>
       <c r="E464" s="3"/>
@@ -7295,7 +7296,7 @@
       <c r="B465" t="s">
         <v>111</v>
       </c>
-      <c r="C465" s="4">
+      <c r="C465">
         <v>69.869123092669753</v>
       </c>
       <c r="E465" s="3"/>
@@ -7307,7 +7308,7 @@
       <c r="B466" t="s">
         <v>112</v>
       </c>
-      <c r="C466" s="4">
+      <c r="C466">
         <v>87.268012771614337</v>
       </c>
       <c r="E466" s="3"/>
@@ -7319,7 +7320,7 @@
       <c r="B467" t="s">
         <v>156</v>
       </c>
-      <c r="C467" s="4">
+      <c r="C467">
         <v>362.29196370835035</v>
       </c>
       <c r="E467" s="3"/>
@@ -7331,7 +7332,7 @@
       <c r="B468" t="s">
         <v>157</v>
       </c>
-      <c r="C468" s="4">
+      <c r="C468">
         <v>230.19362742792055</v>
       </c>
       <c r="E468" s="3"/>
@@ -7343,7 +7344,7 @@
       <c r="B469" t="s">
         <v>61</v>
       </c>
-      <c r="C469" s="4">
+      <c r="C469">
         <v>900.45029954325207</v>
       </c>
       <c r="E469" s="3"/>
@@ -7355,7 +7356,7 @@
       <c r="B470" t="s">
         <v>158</v>
       </c>
-      <c r="C470" s="4">
+      <c r="C470">
         <v>1040.7649316737686</v>
       </c>
       <c r="E470" s="3"/>
@@ -7367,7 +7368,7 @@
       <c r="B471" t="s">
         <v>113</v>
       </c>
-      <c r="C471" s="4">
+      <c r="C471">
         <v>739.75254003570114</v>
       </c>
       <c r="E471" s="3"/>
@@ -7379,7 +7380,7 @@
       <c r="B472" t="s">
         <v>114</v>
       </c>
-      <c r="C472" s="4">
+      <c r="C472">
         <v>780.21139630808636</v>
       </c>
       <c r="E472" s="3"/>
@@ -7391,7 +7392,7 @@
       <c r="B473" t="s">
         <v>115</v>
       </c>
-      <c r="C473" s="4">
+      <c r="C473">
         <v>61.145660885545034</v>
       </c>
       <c r="E473" s="3"/>
@@ -7403,7 +7404,7 @@
       <c r="B474" t="s">
         <v>159</v>
       </c>
-      <c r="C474" s="4">
+      <c r="C474">
         <v>249.30188927117325</v>
       </c>
       <c r="E474" s="3"/>
@@ -7415,7 +7416,7 @@
       <c r="B475" t="s">
         <v>116</v>
       </c>
-      <c r="C475" s="4">
+      <c r="C475">
         <v>1006.7255892792932</v>
       </c>
       <c r="E475" s="3"/>
@@ -7427,7 +7428,7 @@
       <c r="B476" t="s">
         <v>117</v>
       </c>
-      <c r="C476" s="4">
+      <c r="C476">
         <v>1178.3535843287802</v>
       </c>
       <c r="E476" s="3"/>
@@ -7439,7 +7440,7 @@
       <c r="B477" t="s">
         <v>98</v>
       </c>
-      <c r="C477" s="4">
+      <c r="C477">
         <v>670.52024114618996</v>
       </c>
       <c r="E477" s="3"/>
@@ -15408,7 +15409,7 @@
         <v>17</v>
       </c>
       <c r="C1090">
-        <v>5863.5424001638939</v>
+        <v>1352.4171849501404</v>
       </c>
       <c r="D1090" s="4"/>
       <c r="E1090" s="3"/>
@@ -15421,7 +15422,7 @@
         <v>18</v>
       </c>
       <c r="C1091">
-        <v>4619.5444506453896</v>
+        <v>1093.1813280222345</v>
       </c>
       <c r="D1091" s="4"/>
       <c r="E1091" s="3"/>
@@ -15434,7 +15435,7 @@
         <v>19</v>
       </c>
       <c r="C1092">
-        <v>4678.9960655019077</v>
+        <v>801.4826088306354</v>
       </c>
       <c r="D1092" s="4"/>
       <c r="E1092" s="3"/>
@@ -15447,7 +15448,7 @@
         <v>20</v>
       </c>
       <c r="C1093">
-        <v>4779.9585212943484</v>
+        <v>858.06951780590475</v>
       </c>
       <c r="D1093" s="4"/>
       <c r="E1093" s="3"/>
@@ -15460,7 +15461,7 @@
         <v>118</v>
       </c>
       <c r="C1094">
-        <v>4580.6478659776303</v>
+        <v>858.13217853017784</v>
       </c>
       <c r="D1094" s="4"/>
       <c r="E1094" s="3"/>
@@ -15473,7 +15474,7 @@
         <v>3</v>
       </c>
       <c r="C1095">
-        <v>6450.6687783320531</v>
+        <v>994.058120631625</v>
       </c>
       <c r="D1095" s="4"/>
       <c r="E1095" s="3"/>
@@ -15486,7 +15487,7 @@
         <v>119</v>
       </c>
       <c r="C1096">
-        <v>5586.1063123770409</v>
+        <v>904.19022764259569</v>
       </c>
       <c r="D1096" s="4"/>
       <c r="E1096" s="3"/>
@@ -15499,7 +15500,7 @@
         <v>21</v>
       </c>
       <c r="C1097">
-        <v>5841.2239000503732</v>
+        <v>981.36886731313746</v>
       </c>
       <c r="D1097" s="4"/>
       <c r="E1097" s="3"/>
@@ -15512,7 +15513,7 @@
         <v>22</v>
       </c>
       <c r="C1098">
-        <v>5446.5410563232563</v>
+        <v>1357.3164973805763</v>
       </c>
       <c r="D1098" s="4"/>
       <c r="E1098" s="3"/>
@@ -15525,7 +15526,7 @@
         <v>120</v>
       </c>
       <c r="C1099">
-        <v>4798.7326909036683</v>
+        <v>1272.2367403664446</v>
       </c>
       <c r="D1099" s="4"/>
       <c r="E1099" s="3"/>
@@ -15538,7 +15539,7 @@
         <v>6</v>
       </c>
       <c r="C1100">
-        <v>5642.4625318166991</v>
+        <v>2042.8419783235697</v>
       </c>
       <c r="D1100" s="4"/>
       <c r="E1100" s="3"/>
@@ -15551,7 +15552,7 @@
         <v>23</v>
       </c>
       <c r="C1101">
-        <v>5410.8192599520453</v>
+        <v>2410.1456141581025</v>
       </c>
       <c r="D1101" s="4"/>
       <c r="E1101" s="3"/>
@@ -15564,7 +15565,7 @@
         <v>121</v>
       </c>
       <c r="C1102">
-        <v>6731.949322467407</v>
+        <v>1306.3888724029168</v>
       </c>
       <c r="D1102" s="4"/>
       <c r="E1102" s="3"/>
@@ -15577,7 +15578,7 @@
         <v>24</v>
       </c>
       <c r="C1103">
-        <v>5267.4080295563617</v>
+        <v>144.46981916701975</v>
       </c>
       <c r="D1103" s="4"/>
       <c r="E1103" s="3"/>
@@ -15590,7 +15591,7 @@
         <v>122</v>
       </c>
       <c r="C1104">
-        <v>4617.0447081986113</v>
+        <v>784.43953841320172</v>
       </c>
       <c r="D1104" s="4"/>
       <c r="E1104" s="3"/>
@@ -15603,7 +15604,7 @@
         <v>26</v>
       </c>
       <c r="C1105">
-        <v>4658.3391639374868</v>
+        <v>784.43953841320172</v>
       </c>
       <c r="D1105" s="4"/>
       <c r="E1105" s="3"/>
@@ -15616,7 +15617,7 @@
         <v>27</v>
       </c>
       <c r="C1106">
-        <v>5760.0616033343631</v>
+        <v>1024.5947146504047</v>
       </c>
       <c r="D1106" s="4"/>
       <c r="E1106" s="3"/>
@@ -15629,7 +15630,7 @@
         <v>28</v>
       </c>
       <c r="C1107">
-        <v>5238.2917171884246</v>
+        <v>1232.8229272836868</v>
       </c>
       <c r="D1107" s="4"/>
       <c r="E1107" s="3"/>
@@ -15642,7 +15643,7 @@
         <v>29</v>
       </c>
       <c r="C1108">
-        <v>4593.7637517916073</v>
+        <v>2095.4605518442445</v>
       </c>
       <c r="D1108" s="4"/>
       <c r="E1108" s="3"/>
@@ -15655,7 +15656,7 @@
         <v>123</v>
       </c>
       <c r="C1109">
-        <v>4600.788682513753</v>
+        <v>760.68643612870483</v>
       </c>
       <c r="D1109" s="4"/>
       <c r="E1109" s="3"/>
@@ -15668,7 +15669,7 @@
         <v>124</v>
       </c>
       <c r="C1110">
-        <v>6113.8366657597053</v>
+        <v>2427.3519572618266</v>
       </c>
       <c r="D1110" s="4"/>
       <c r="E1110" s="3"/>
@@ -15681,7 +15682,7 @@
         <v>30</v>
       </c>
       <c r="C1111">
-        <v>5140.439569142598</v>
+        <v>2102.6302186001408</v>
       </c>
       <c r="D1111" s="4"/>
       <c r="E1111" s="3"/>
@@ -15694,7 +15695,7 @@
         <v>31</v>
       </c>
       <c r="C1112">
-        <v>5747.9365876050833</v>
+        <v>2008.3559621067948</v>
       </c>
       <c r="D1112" s="4"/>
       <c r="E1112" s="3"/>
@@ -15707,7 +15708,7 @@
         <v>32</v>
       </c>
       <c r="C1113">
-        <v>4740.9889625858705</v>
+        <v>145.64154173610399</v>
       </c>
       <c r="D1113" s="4"/>
       <c r="E1113" s="3"/>
@@ -15720,7 +15721,7 @@
         <v>33</v>
       </c>
       <c r="C1114">
-        <v>6035.5794876280634</v>
+        <v>372.68917951321191</v>
       </c>
       <c r="D1114" s="4"/>
       <c r="E1114" s="3"/>
@@ -15733,7 +15734,7 @@
         <v>34</v>
       </c>
       <c r="C1115">
-        <v>6844.4595539365346</v>
+        <v>1056.2997936720149</v>
       </c>
       <c r="D1115" s="4"/>
       <c r="E1115" s="3"/>
@@ -15746,7 +15747,7 @@
         <v>35</v>
       </c>
       <c r="C1116">
-        <v>6015.7161666088277</v>
+        <v>1083.7101960482214</v>
       </c>
       <c r="D1116" s="4"/>
       <c r="E1116" s="3"/>
@@ -15759,7 +15760,7 @@
         <v>36</v>
       </c>
       <c r="C1117">
-        <v>5835.1784710938682</v>
+        <v>2090.1628661570016</v>
       </c>
       <c r="D1117" s="4"/>
       <c r="E1117" s="3"/>
@@ -15772,7 +15773,7 @@
         <v>37</v>
       </c>
       <c r="C1118">
-        <v>5662.5156277987171</v>
+        <v>2361.2044006978072</v>
       </c>
       <c r="D1118" s="4"/>
       <c r="E1118" s="3"/>
@@ -15785,7 +15786,7 @@
         <v>38</v>
       </c>
       <c r="C1119">
-        <v>6733.2672824880292</v>
+        <v>647.58868235954492</v>
       </c>
       <c r="D1119" s="4"/>
       <c r="E1119" s="3"/>
@@ -15798,7 +15799,7 @@
         <v>39</v>
       </c>
       <c r="C1120">
-        <v>5753.3910512356688</v>
+        <v>1339.9600132113685</v>
       </c>
       <c r="D1120" s="4"/>
       <c r="E1120" s="3"/>
@@ -15811,7 +15812,7 @@
         <v>40</v>
       </c>
       <c r="C1121">
-        <v>6260.0756724711055</v>
+        <v>1773.7063636929081</v>
       </c>
       <c r="D1121" s="4"/>
       <c r="E1121" s="3"/>
@@ -15824,7 +15825,7 @@
         <v>41</v>
       </c>
       <c r="C1122">
-        <v>5408.0747620127249</v>
+        <v>871.70512887893813</v>
       </c>
       <c r="D1122" s="4"/>
       <c r="E1122" s="3"/>
@@ -15837,7 +15838,7 @@
         <v>9</v>
       </c>
       <c r="C1123">
-        <v>7424.5367279949232</v>
+        <v>1886.5902349059079</v>
       </c>
       <c r="D1123" s="4"/>
       <c r="E1123" s="3"/>
@@ -15850,7 +15851,7 @@
         <v>42</v>
       </c>
       <c r="C1124">
-        <v>5557.0943292618931</v>
+        <v>2081.4134734350719</v>
       </c>
       <c r="D1124" s="4"/>
       <c r="E1124" s="3"/>
@@ -15863,7 +15864,7 @@
         <v>125</v>
       </c>
       <c r="C1125">
-        <v>5728.4352892762472</v>
+        <v>2434.6437857070573</v>
       </c>
       <c r="D1125" s="4"/>
       <c r="E1125" s="3"/>
@@ -15876,7 +15877,7 @@
         <v>43</v>
       </c>
       <c r="C1126">
-        <v>4597.7742067976696</v>
+        <v>584.6022645384819</v>
       </c>
       <c r="D1126" s="4"/>
       <c r="E1126" s="3"/>
@@ -15889,7 +15890,7 @@
         <v>44</v>
       </c>
       <c r="C1127">
-        <v>4720.4115697844391</v>
+        <v>1313.2504868971328</v>
       </c>
       <c r="D1127" s="4"/>
       <c r="E1127" s="3"/>
@@ -15902,7 +15903,7 @@
         <v>45</v>
       </c>
       <c r="C1128">
-        <v>6000.2598238388618</v>
+        <v>1283.8021871614653</v>
       </c>
       <c r="D1128" s="4"/>
       <c r="E1128" s="3"/>
@@ -15915,7 +15916,7 @@
         <v>126</v>
       </c>
       <c r="C1129">
-        <v>6306.2370210411564</v>
+        <v>304.29933302658287</v>
       </c>
       <c r="D1129" s="4"/>
       <c r="E1129" s="3"/>
@@ -15928,7 +15929,7 @@
         <v>127</v>
       </c>
       <c r="C1130">
-        <v>5781.8146856880803</v>
+        <v>1100.1384809323467</v>
       </c>
       <c r="D1130" s="4"/>
       <c r="E1130" s="3"/>
@@ -15941,7 +15942,7 @@
         <v>46</v>
       </c>
       <c r="C1131">
-        <v>5489.8600299365989</v>
+        <v>586.88289275064903</v>
       </c>
       <c r="D1131" s="4"/>
       <c r="E1131" s="3"/>
@@ -15954,7 +15955,7 @@
         <v>47</v>
       </c>
       <c r="C1132">
-        <v>5599.8091783048767</v>
+        <v>1101.157229289252</v>
       </c>
       <c r="D1132" s="4"/>
       <c r="E1132" s="3"/>
@@ -15967,7 +15968,7 @@
         <v>48</v>
       </c>
       <c r="C1133">
-        <v>5445.0475068532714</v>
+        <v>1245.0638584219412</v>
       </c>
       <c r="D1133" s="4"/>
       <c r="E1133" s="3"/>
@@ -15980,7 +15981,7 @@
         <v>128</v>
       </c>
       <c r="C1134">
-        <v>6302.4899729826875</v>
+        <v>795.91942377877433</v>
       </c>
       <c r="D1134" s="4"/>
       <c r="E1134" s="3"/>
@@ -15993,7 +15994,7 @@
         <v>49</v>
       </c>
       <c r="C1135">
-        <v>5365.4184567469501</v>
+        <v>1057.264926648352</v>
       </c>
       <c r="D1135" s="4"/>
       <c r="E1135" s="3"/>
@@ -16006,7 +16007,7 @@
         <v>50</v>
       </c>
       <c r="C1136">
-        <v>5872.8264028484364</v>
+        <v>2114.7047704159595</v>
       </c>
       <c r="D1136" s="4"/>
       <c r="E1136" s="3"/>
@@ -16019,7 +16020,7 @@
         <v>51</v>
       </c>
       <c r="C1137">
-        <v>7455.0053597005581</v>
+        <v>2342.0043926429476</v>
       </c>
       <c r="D1137" s="4"/>
       <c r="E1137" s="3"/>
@@ -16032,7 +16033,7 @@
         <v>52</v>
       </c>
       <c r="C1138">
-        <v>5482.3375869628608</v>
+        <v>719.56919914588059</v>
       </c>
       <c r="D1138" s="4"/>
       <c r="E1138" s="3"/>
@@ -16045,7 +16046,7 @@
         <v>16</v>
       </c>
       <c r="C1139">
-        <v>4699.5013938526308</v>
+        <v>992.14361701232008</v>
       </c>
       <c r="D1139" s="4"/>
       <c r="E1139" s="3"/>
@@ -16058,7 +16059,7 @@
         <v>53</v>
       </c>
       <c r="C1140">
-        <v>4474.8450065425923</v>
+        <v>813.99095694016466</v>
       </c>
       <c r="D1140" s="4"/>
       <c r="E1140" s="3"/>
@@ -16071,7 +16072,7 @@
         <v>54</v>
       </c>
       <c r="C1141">
-        <v>6068.4279219373147</v>
+        <v>815.9521688932814</v>
       </c>
       <c r="D1141" s="4"/>
       <c r="E1141" s="3"/>
@@ -16084,7 +16085,7 @@
         <v>55</v>
       </c>
       <c r="C1142">
-        <v>4580.0944006448426</v>
+        <v>1018.2300080972932</v>
       </c>
       <c r="D1142" s="4"/>
       <c r="E1142" s="3"/>
@@ -16097,7 +16098,7 @@
         <v>56</v>
       </c>
       <c r="C1143">
-        <v>5238.756659540195</v>
+        <v>234.41416320476114</v>
       </c>
       <c r="D1143" s="4"/>
       <c r="E1143" s="3"/>
@@ -16110,7 +16111,7 @@
         <v>57</v>
       </c>
       <c r="C1144">
-        <v>7525.7555887960052</v>
+        <v>442.81579229027187</v>
       </c>
       <c r="D1144" s="4"/>
       <c r="E1144" s="3"/>
@@ -16123,7 +16124,7 @@
         <v>58</v>
       </c>
       <c r="C1145">
-        <v>5153.2176419063144</v>
+        <v>554.54753226905677</v>
       </c>
       <c r="D1145" s="4"/>
       <c r="E1145" s="3"/>
@@ -16136,7 +16137,7 @@
         <v>59</v>
       </c>
       <c r="C1146">
-        <v>5087.1291227423426</v>
+        <v>559.57577027254115</v>
       </c>
       <c r="D1146" s="4"/>
       <c r="E1146" s="3"/>
@@ -16149,7 +16150,7 @@
         <v>15</v>
       </c>
       <c r="C1147">
-        <v>5010.9118826918857</v>
+        <v>1478.6122010914457</v>
       </c>
       <c r="D1147" s="4"/>
       <c r="E1147" s="3"/>
@@ -16162,7 +16163,7 @@
         <v>129</v>
       </c>
       <c r="C1148">
-        <v>4659.6265265678339</v>
+        <v>1265.4717645699823</v>
       </c>
       <c r="D1148" s="4"/>
       <c r="E1148" s="3"/>
@@ -16175,7 +16176,7 @@
         <v>60</v>
       </c>
       <c r="C1149">
-        <v>4809.3739662488588</v>
+        <v>998.19596934147557</v>
       </c>
       <c r="D1149" s="4"/>
       <c r="E1149" s="3"/>
@@ -16188,7 +16189,7 @@
         <v>130</v>
       </c>
       <c r="C1150">
-        <v>5945.8069272011599</v>
+        <v>2437.73791905794</v>
       </c>
       <c r="D1150" s="4"/>
       <c r="E1150" s="3"/>
@@ -16201,7 +16202,7 @@
         <v>62</v>
       </c>
       <c r="C1151">
-        <v>5446.617376125686</v>
+        <v>1380.904529049146</v>
       </c>
       <c r="D1151" s="4"/>
       <c r="E1151" s="3"/>
@@ -16214,7 +16215,7 @@
         <v>131</v>
       </c>
       <c r="C1152">
-        <v>4499.0201529129945</v>
+        <v>1301.8154617614239</v>
       </c>
       <c r="D1152" s="4"/>
       <c r="E1152" s="3"/>
@@ -16227,7 +16228,7 @@
         <v>63</v>
       </c>
       <c r="C1153">
-        <v>5685.0131002658045</v>
+        <v>920.25204784179698</v>
       </c>
       <c r="D1153" s="4"/>
       <c r="E1153" s="3"/>
@@ -16240,7 +16241,7 @@
         <v>64</v>
       </c>
       <c r="C1154">
-        <v>6652.7959381912879</v>
+        <v>906.96401405104132</v>
       </c>
       <c r="D1154" s="4"/>
       <c r="E1154" s="3"/>
@@ -16253,7 +16254,7 @@
         <v>65</v>
       </c>
       <c r="C1155">
-        <v>5497.5148756227709</v>
+        <v>1145.3265889606844</v>
       </c>
       <c r="D1155" s="4"/>
       <c r="E1155" s="3"/>
@@ -16266,7 +16267,7 @@
         <v>12</v>
       </c>
       <c r="C1156">
-        <v>5387.0968049159219</v>
+        <v>2098.6616154698277</v>
       </c>
       <c r="D1156" s="4"/>
       <c r="E1156" s="3"/>
@@ -16279,7 +16280,7 @@
         <v>66</v>
       </c>
       <c r="C1157">
-        <v>5822.8903320886384</v>
+        <v>1087.1828859147042</v>
       </c>
       <c r="D1157" s="4"/>
       <c r="E1157" s="3"/>
@@ -16292,7 +16293,7 @@
         <v>67</v>
       </c>
       <c r="C1158">
-        <v>5680.2933793395841</v>
+        <v>947.00433799798327</v>
       </c>
       <c r="D1158" s="4"/>
       <c r="E1158" s="3"/>
@@ -16305,7 +16306,7 @@
         <v>132</v>
       </c>
       <c r="C1159">
-        <v>7198.0208065624038</v>
+        <v>1105.6757663280812</v>
       </c>
       <c r="D1159" s="4"/>
       <c r="E1159" s="3"/>
@@ -16318,7 +16319,7 @@
         <v>68</v>
       </c>
       <c r="C1160">
-        <v>4722.7653154454138</v>
+        <v>226.82870762033988</v>
       </c>
       <c r="D1160" s="4"/>
       <c r="E1160" s="3"/>
@@ -16331,7 +16332,7 @@
         <v>69</v>
       </c>
       <c r="C1161">
-        <v>4388.4658792433911</v>
+        <v>1173.3808285508621</v>
       </c>
       <c r="D1161" s="4"/>
       <c r="E1161" s="3"/>
@@ -16344,7 +16345,7 @@
         <v>70</v>
       </c>
       <c r="C1162">
-        <v>5561.3567073351105</v>
+        <v>835.92793456549657</v>
       </c>
       <c r="D1162" s="4"/>
       <c r="E1162" s="3"/>
@@ -16357,7 +16358,7 @@
         <v>71</v>
       </c>
       <c r="C1163">
-        <v>5497.5397121878477</v>
+        <v>1304.4316891432522</v>
       </c>
       <c r="D1163" s="4"/>
       <c r="E1163" s="3"/>
@@ -16370,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="C1164">
-        <v>5276.6882008811845</v>
+        <v>409.55741555980148</v>
       </c>
       <c r="D1164" s="4"/>
       <c r="E1164" s="3"/>
@@ -16383,7 +16384,7 @@
         <v>72</v>
       </c>
       <c r="C1165">
-        <v>5712.3079131863651</v>
+        <v>2151.5773157019089</v>
       </c>
       <c r="D1165" s="4"/>
       <c r="E1165" s="3"/>
@@ -16396,7 +16397,7 @@
         <v>73</v>
       </c>
       <c r="C1166">
-        <v>5337.3162506838462</v>
+        <v>1068.2598787941465</v>
       </c>
       <c r="D1166" s="4"/>
       <c r="E1166" s="3"/>
@@ -16409,7 +16410,7 @@
         <v>133</v>
       </c>
       <c r="C1167">
-        <v>6811.1317169823405</v>
+        <v>1266.870682206918</v>
       </c>
       <c r="D1167" s="4"/>
       <c r="E1167" s="3"/>
@@ -16422,7 +16423,7 @@
         <v>74</v>
       </c>
       <c r="C1168">
-        <v>4747.7575527941954</v>
+        <v>1800.5953415671711</v>
       </c>
       <c r="D1168" s="4"/>
       <c r="E1168" s="3"/>
@@ -16435,7 +16436,7 @@
         <v>75</v>
       </c>
       <c r="C1169">
-        <v>4812.1413850016734</v>
+        <v>943.528374090189</v>
       </c>
       <c r="D1169" s="4"/>
       <c r="E1169" s="3"/>
@@ -16448,7 +16449,7 @@
         <v>76</v>
       </c>
       <c r="C1170">
-        <v>5836.7156222826188</v>
+        <v>1022.3549603533987</v>
       </c>
       <c r="D1170" s="4"/>
       <c r="E1170" s="3"/>
@@ -16461,7 +16462,7 @@
         <v>134</v>
       </c>
       <c r="C1171">
-        <v>6913.571849406324</v>
+        <v>1062.0115842892515</v>
       </c>
       <c r="D1171" s="4"/>
       <c r="E1171" s="3"/>
@@ -16474,7 +16475,7 @@
         <v>77</v>
       </c>
       <c r="C1172">
-        <v>6192.7985690937858</v>
+        <v>695.79624223686255</v>
       </c>
       <c r="D1172" s="4"/>
       <c r="E1172" s="3"/>
@@ -16487,7 +16488,7 @@
         <v>78</v>
       </c>
       <c r="C1173">
-        <v>4372.9850801374296</v>
+        <v>1331.6679001422292</v>
       </c>
       <c r="D1173" s="4"/>
       <c r="E1173" s="3"/>
@@ -16500,7 +16501,7 @@
         <v>79</v>
       </c>
       <c r="C1174">
-        <v>6933.5680487199306</v>
+        <v>333.45597040506556</v>
       </c>
       <c r="D1174" s="4"/>
       <c r="E1174" s="3"/>
@@ -16513,7 +16514,7 @@
         <v>80</v>
       </c>
       <c r="C1175">
-        <v>6082.4815849597453</v>
+        <v>377.20214010276862</v>
       </c>
       <c r="D1175" s="4"/>
       <c r="E1175" s="3"/>
@@ -16526,7 +16527,7 @@
         <v>81</v>
       </c>
       <c r="C1176">
-        <v>5264.084233120996</v>
+        <v>736.91222826299895</v>
       </c>
       <c r="D1176" s="4"/>
       <c r="E1176" s="3"/>
@@ -16539,7 +16540,7 @@
         <v>82</v>
       </c>
       <c r="C1177">
-        <v>5203.6577098649987</v>
+        <v>1141.8053518818911</v>
       </c>
       <c r="D1177" s="4"/>
       <c r="E1177" s="3"/>
@@ -16552,7 +16553,7 @@
         <v>135</v>
       </c>
       <c r="C1178">
-        <v>5638.1678361350805</v>
+        <v>1617.192456287939</v>
       </c>
       <c r="D1178" s="4"/>
       <c r="E1178" s="3"/>
@@ -16565,7 +16566,7 @@
         <v>136</v>
       </c>
       <c r="C1179">
-        <v>5879.61875966766</v>
+        <v>838.75945887903845</v>
       </c>
       <c r="D1179" s="4"/>
       <c r="E1179" s="3"/>
@@ -16578,7 +16579,7 @@
         <v>83</v>
       </c>
       <c r="C1180">
-        <v>7095.7380700737685</v>
+        <v>1272.5596843907747</v>
       </c>
       <c r="D1180" s="4"/>
       <c r="E1180" s="3"/>
@@ -16591,7 +16592,7 @@
         <v>137</v>
       </c>
       <c r="C1181">
-        <v>6453.0505578227258</v>
+        <v>2059.4868912429733</v>
       </c>
       <c r="D1181" s="4"/>
       <c r="E1181" s="3"/>
@@ -16604,7 +16605,7 @@
         <v>84</v>
       </c>
       <c r="C1182">
-        <v>5745.342511550326</v>
+        <v>1885.5796344379203</v>
       </c>
       <c r="D1182" s="4"/>
       <c r="E1182" s="3"/>
@@ -16617,7 +16618,7 @@
         <v>85</v>
       </c>
       <c r="C1183">
-        <v>5094.0472403848289</v>
+        <v>1097.7751222129748</v>
       </c>
       <c r="D1183" s="4"/>
       <c r="E1183" s="3"/>
@@ -16630,7 +16631,7 @@
         <v>86</v>
       </c>
       <c r="C1184">
-        <v>4767.3349686655247</v>
+        <v>1544.0098127444587</v>
       </c>
       <c r="D1184" s="4"/>
       <c r="E1184" s="3"/>
@@ -16643,7 +16644,7 @@
         <v>87</v>
       </c>
       <c r="C1185">
-        <v>6430.8163389711735</v>
+        <v>2417.6299992674881</v>
       </c>
       <c r="D1185" s="4"/>
       <c r="E1185" s="3"/>
@@ -16656,7 +16657,7 @@
         <v>88</v>
       </c>
       <c r="C1186">
-        <v>5247.2000807884351</v>
+        <v>1382.0746692345422</v>
       </c>
       <c r="D1186" s="4"/>
       <c r="E1186" s="3"/>
@@ -16669,7 +16670,7 @@
         <v>89</v>
       </c>
       <c r="C1187">
-        <v>5330.5170017526098</v>
+        <v>2139.7140612497251</v>
       </c>
       <c r="D1187" s="4"/>
       <c r="E1187" s="3"/>
@@ -16682,7 +16683,7 @@
         <v>138</v>
       </c>
       <c r="C1188">
-        <v>5473.4562144032479</v>
+        <v>1374.0208235265336</v>
       </c>
       <c r="D1188" s="4"/>
       <c r="E1188" s="3"/>
@@ -16695,7 +16696,7 @@
         <v>90</v>
       </c>
       <c r="C1189">
-        <v>5299.5117156649139</v>
+        <v>1659.6147486054072</v>
       </c>
       <c r="D1189" s="4"/>
       <c r="E1189" s="3"/>
@@ -16708,7 +16709,7 @@
         <v>25</v>
       </c>
       <c r="C1190">
-        <v>4688.3246735339899</v>
+        <v>875.30744795035764</v>
       </c>
       <c r="D1190" s="4"/>
       <c r="E1190" s="3"/>
@@ -16721,7 +16722,7 @@
         <v>139</v>
       </c>
       <c r="C1191">
-        <v>6193.9206756179992</v>
+        <v>652.3372837832494</v>
       </c>
       <c r="D1191" s="4"/>
       <c r="E1191" s="3"/>
@@ -16734,7 +16735,7 @@
         <v>140</v>
       </c>
       <c r="C1192">
-        <v>5144.8793719670448</v>
+        <v>1110.9335460897082</v>
       </c>
       <c r="D1192" s="4"/>
       <c r="E1192" s="3"/>
@@ -16747,7 +16748,7 @@
         <v>141</v>
       </c>
       <c r="C1193">
-        <v>5605.0948003062258</v>
+        <v>1228.2677534950544</v>
       </c>
       <c r="D1193" s="4"/>
       <c r="E1193" s="3"/>
@@ -16760,7 +16761,7 @@
         <v>91</v>
       </c>
       <c r="C1194">
-        <v>6772.1990259518898</v>
+        <v>1246.822239262325</v>
       </c>
       <c r="D1194" s="4"/>
       <c r="E1194" s="3"/>
@@ -16773,7 +16774,7 @@
         <v>142</v>
       </c>
       <c r="C1195">
-        <v>6648.5628031220158</v>
+        <v>1344.3535159929954</v>
       </c>
       <c r="D1195" s="4"/>
       <c r="E1195" s="3"/>
@@ -16786,7 +16787,7 @@
         <v>92</v>
       </c>
       <c r="C1196">
-        <v>5595.7254341339194</v>
+        <v>1127.2293287979201</v>
       </c>
       <c r="D1196" s="4"/>
       <c r="E1196" s="3"/>
@@ -16799,7 +16800,7 @@
         <v>83</v>
       </c>
       <c r="C1197">
-        <v>7095.7380700737685</v>
+        <v>1014.7871558185151</v>
       </c>
       <c r="D1197" s="4"/>
       <c r="E1197" s="3"/>
@@ -16812,7 +16813,7 @@
         <v>93</v>
       </c>
       <c r="C1198">
-        <v>6850.5326175293003</v>
+        <v>1016.8458216228283</v>
       </c>
       <c r="D1198" s="4"/>
       <c r="E1198" s="3"/>
@@ -16825,7 +16826,7 @@
         <v>143</v>
       </c>
       <c r="C1199">
-        <v>6047.0701695838834</v>
+        <v>1028.7341853888706</v>
       </c>
       <c r="D1199" s="4"/>
       <c r="E1199" s="3"/>
@@ -16838,7 +16839,7 @@
         <v>94</v>
       </c>
       <c r="C1200">
-        <v>5513.1087793713832</v>
+        <v>951.38565192609315</v>
       </c>
       <c r="D1200" s="4"/>
       <c r="E1200" s="3"/>
@@ -16851,7 +16852,7 @@
         <v>144</v>
       </c>
       <c r="C1201">
-        <v>5556.0376150329412</v>
+        <v>1366.7259824205298</v>
       </c>
       <c r="D1201" s="4"/>
       <c r="E1201" s="3"/>
@@ -16864,7 +16865,7 @@
         <v>145</v>
       </c>
       <c r="C1202">
-        <v>6951.6391181465633</v>
+        <v>2014.8290932730913</v>
       </c>
       <c r="D1202" s="4"/>
       <c r="E1202" s="3"/>
@@ -16877,7 +16878,7 @@
         <v>95</v>
       </c>
       <c r="C1203">
-        <v>4599.9909273037474</v>
+        <v>135.46795443993946</v>
       </c>
       <c r="D1203" s="4"/>
       <c r="E1203" s="3"/>
@@ -16890,7 +16891,7 @@
         <v>96</v>
       </c>
       <c r="C1204">
-        <v>5662.3772985524438</v>
+        <v>596.84497484809549</v>
       </c>
       <c r="D1204" s="4"/>
       <c r="E1204" s="3"/>
@@ -16903,7 +16904,7 @@
         <v>97</v>
       </c>
       <c r="C1205">
-        <v>4637.3799069943188</v>
+        <v>1018.7434263612967</v>
       </c>
       <c r="D1205" s="4"/>
       <c r="E1205" s="3"/>
@@ -16916,7 +16917,7 @@
         <v>146</v>
       </c>
       <c r="C1206">
-        <v>6136.0396142478794</v>
+        <v>1045.9108656135813</v>
       </c>
       <c r="D1206" s="4"/>
       <c r="E1206" s="3"/>
@@ -16929,7 +16930,7 @@
         <v>10</v>
       </c>
       <c r="C1207">
-        <v>6575.9076682656223</v>
+        <v>790.05356262485509</v>
       </c>
       <c r="D1207" s="4"/>
       <c r="E1207" s="3"/>
@@ -16942,7 +16943,7 @@
         <v>147</v>
       </c>
       <c r="C1208">
-        <v>6311.280226019463</v>
+        <v>1447.7555388518574</v>
       </c>
       <c r="D1208" s="4"/>
       <c r="E1208" s="3"/>
@@ -16955,7 +16956,7 @@
         <v>99</v>
       </c>
       <c r="C1209">
-        <v>5036.4820033893475</v>
+        <v>705.88204376623082</v>
       </c>
       <c r="D1209" s="4"/>
       <c r="E1209" s="3"/>
@@ -16968,7 +16969,7 @@
         <v>62</v>
       </c>
       <c r="C1210">
-        <v>5446.617376125686</v>
+        <v>405.57500798206081</v>
       </c>
       <c r="D1210" s="4"/>
       <c r="E1210" s="3"/>
@@ -16981,7 +16982,7 @@
         <v>100</v>
       </c>
       <c r="C1211">
-        <v>6680.3740130159676</v>
+        <v>1023.9100133325994</v>
       </c>
       <c r="D1211" s="4"/>
       <c r="E1211" s="3"/>
@@ -16994,7 +16995,7 @@
         <v>148</v>
       </c>
       <c r="C1212">
-        <v>6040.1935917389956</v>
+        <v>504.78800229314169</v>
       </c>
       <c r="D1212" s="4"/>
       <c r="E1212" s="3"/>
@@ -17007,7 +17008,7 @@
         <v>149</v>
       </c>
       <c r="C1213">
-        <v>4568.2205629832733</v>
+        <v>1224.0763048117467</v>
       </c>
       <c r="D1213" s="4"/>
       <c r="E1213" s="3"/>
@@ -17020,7 +17021,7 @@
         <v>150</v>
       </c>
       <c r="C1214">
-        <v>4488.4506029441327</v>
+        <v>1289.7754257183374</v>
       </c>
       <c r="D1214" s="4"/>
       <c r="E1214" s="3"/>
@@ -17033,7 +17034,7 @@
         <v>101</v>
       </c>
       <c r="C1215">
-        <v>5573.1207357789108</v>
+        <v>1278.8674583593668</v>
       </c>
       <c r="D1215" s="4"/>
       <c r="E1215" s="3"/>
@@ -17046,7 +17047,7 @@
         <v>151</v>
       </c>
       <c r="C1216">
-        <v>5111.8821078422634</v>
+        <v>2142.498444707509</v>
       </c>
       <c r="D1216" s="4"/>
       <c r="E1216" s="3"/>
@@ -17059,7 +17060,7 @@
         <v>102</v>
       </c>
       <c r="C1217">
-        <v>4872.1583914264147</v>
+        <v>1954.3799402831571</v>
       </c>
       <c r="D1217" s="4"/>
       <c r="E1217" s="3"/>
@@ -17072,7 +17073,7 @@
         <v>103</v>
       </c>
       <c r="C1218">
-        <v>6501.6312541117823</v>
+        <v>1478.2809463969149</v>
       </c>
       <c r="D1218" s="4"/>
       <c r="E1218" s="3"/>
@@ -17085,7 +17086,7 @@
         <v>152</v>
       </c>
       <c r="C1219">
-        <v>5345.9382092925853</v>
+        <v>866.95758050947791</v>
       </c>
       <c r="D1219" s="4"/>
       <c r="E1219" s="3"/>
@@ -17098,7 +17099,7 @@
         <v>104</v>
       </c>
       <c r="C1220">
-        <v>5166.1710757430337</v>
+        <v>627.89861572940083</v>
       </c>
       <c r="D1220" s="4"/>
       <c r="E1220" s="3"/>
@@ -17111,7 +17112,7 @@
         <v>105</v>
       </c>
       <c r="C1221">
-        <v>5112.7526170589963</v>
+        <v>1415.2183942667461</v>
       </c>
       <c r="D1221" s="4"/>
       <c r="E1221" s="3"/>
@@ -17124,7 +17125,7 @@
         <v>106</v>
       </c>
       <c r="C1222">
-        <v>5177.1411152769524</v>
+        <v>2174.9749799088559</v>
       </c>
       <c r="D1222" s="4"/>
       <c r="E1222" s="3"/>
@@ -17137,7 +17138,7 @@
         <v>107</v>
       </c>
       <c r="C1223">
-        <v>5265.9847840512184</v>
+        <v>1134.1665362827782</v>
       </c>
       <c r="D1223" s="4"/>
       <c r="E1223" s="3"/>
@@ -17150,7 +17151,7 @@
         <v>108</v>
       </c>
       <c r="C1224">
-        <v>4688.2540565991521</v>
+        <v>2296.0020079908531</v>
       </c>
       <c r="D1224" s="4"/>
       <c r="E1224" s="3"/>
@@ -17163,7 +17164,7 @@
         <v>153</v>
       </c>
       <c r="C1225">
-        <v>5214.5562197591971</v>
+        <v>1356.7362663434706</v>
       </c>
       <c r="D1225" s="4"/>
       <c r="E1225" s="3"/>
@@ -17176,7 +17177,7 @@
         <v>109</v>
       </c>
       <c r="C1226">
-        <v>5146.5507001885217</v>
+        <v>1225.1256713806756</v>
       </c>
       <c r="D1226" s="4"/>
       <c r="E1226" s="3"/>
@@ -17189,7 +17190,7 @@
         <v>154</v>
       </c>
       <c r="C1227">
-        <v>6310.3344011857707</v>
+        <v>713.55675200824544</v>
       </c>
       <c r="D1227" s="4"/>
       <c r="E1227" s="3"/>
@@ -17202,7 +17203,7 @@
         <v>155</v>
       </c>
       <c r="C1228">
-        <v>6263.1247635078425</v>
+        <v>1310.4614569450259</v>
       </c>
       <c r="D1228" s="4"/>
       <c r="E1228" s="3"/>
@@ -17215,7 +17216,7 @@
         <v>110</v>
       </c>
       <c r="C1229">
-        <v>7522.9602368338856</v>
+        <v>2393.4323359011828</v>
       </c>
       <c r="D1229" s="4"/>
       <c r="E1229" s="3"/>
@@ -17228,7 +17229,7 @@
         <v>111</v>
       </c>
       <c r="C1230">
-        <v>5176.8862479082181</v>
+        <v>1371.6035768538638</v>
       </c>
       <c r="D1230" s="4"/>
       <c r="E1230" s="3"/>
@@ -17241,7 +17242,7 @@
         <v>112</v>
       </c>
       <c r="C1231">
-        <v>5179.3236429706203</v>
+        <v>1968.716679648941</v>
       </c>
       <c r="D1231" s="4"/>
       <c r="E1231" s="3"/>
@@ -17254,7 +17255,7 @@
         <v>156</v>
       </c>
       <c r="C1232">
-        <v>4908.5638435814662</v>
+        <v>1003.64522803816</v>
       </c>
       <c r="D1232" s="4"/>
       <c r="E1232" s="3"/>
@@ -17267,7 +17268,7 @@
         <v>157</v>
       </c>
       <c r="C1233">
-        <v>5008.627974499148</v>
+        <v>1003.64522803816</v>
       </c>
       <c r="D1233" s="4"/>
       <c r="E1233" s="3"/>
@@ -17280,7 +17281,7 @@
         <v>61</v>
       </c>
       <c r="C1234">
-        <v>5948.6489182792611</v>
+        <v>2302.4661737584074</v>
       </c>
       <c r="D1234" s="4"/>
       <c r="E1234" s="3"/>
@@ -17293,7 +17294,7 @@
         <v>158</v>
       </c>
       <c r="C1235">
-        <v>6112.7017734703495</v>
+        <v>1564.4408798679469</v>
       </c>
       <c r="D1235" s="4"/>
       <c r="E1235" s="3"/>
@@ -17306,7 +17307,7 @@
         <v>113</v>
       </c>
       <c r="C1236">
-        <v>5838.1087066929776</v>
+        <v>1135.62039195597</v>
       </c>
       <c r="D1236" s="4"/>
       <c r="E1236" s="3"/>
@@ -17319,7 +17320,7 @@
         <v>114</v>
       </c>
       <c r="C1237">
-        <v>4566.3115991109134</v>
+        <v>1926.2145089820269</v>
       </c>
       <c r="D1237" s="4"/>
       <c r="E1237" s="3"/>
@@ -17332,7 +17333,7 @@
         <v>115</v>
       </c>
       <c r="C1238">
-        <v>5253.1007136568969</v>
+        <v>1473.5387611674037</v>
       </c>
       <c r="D1238" s="4"/>
       <c r="E1238" s="3"/>
@@ -17345,7 +17346,7 @@
         <v>159</v>
       </c>
       <c r="C1239">
-        <v>5150.4734850160776</v>
+        <v>803.92232194030464</v>
       </c>
       <c r="D1239" s="4"/>
       <c r="E1239" s="3"/>
@@ -17358,7 +17359,7 @@
         <v>116</v>
       </c>
       <c r="C1240">
-        <v>4718.8604461153764</v>
+        <v>1301.4528605007804</v>
       </c>
       <c r="D1240" s="4"/>
       <c r="E1240" s="3"/>
@@ -17371,7 +17372,7 @@
         <v>117</v>
       </c>
       <c r="C1241">
-        <v>6398.1223012209875</v>
+        <v>946.08749489208265</v>
       </c>
       <c r="D1241" s="4"/>
       <c r="E1241" s="3"/>
@@ -17384,7 +17385,7 @@
         <v>98</v>
       </c>
       <c r="C1242">
-        <v>5811.4891472932995</v>
+        <v>1253.5116993969236</v>
       </c>
       <c r="D1242" s="4"/>
       <c r="E1242" s="3"/>
@@ -17397,7 +17398,7 @@
         <v>17</v>
       </c>
       <c r="C1243">
-        <v>8641.7529488894033</v>
+        <v>1174.9464865190289</v>
       </c>
       <c r="D1243" s="4"/>
       <c r="E1243" s="3"/>
@@ -17410,7 +17411,7 @@
         <v>18</v>
       </c>
       <c r="C1244">
-        <v>8253.0771909493542</v>
+        <v>1470.313015276527</v>
       </c>
       <c r="D1244" s="4"/>
       <c r="E1244" s="3"/>
@@ -17423,7 +17424,7 @@
         <v>19</v>
       </c>
       <c r="C1245">
-        <v>7898.3453895488647</v>
+        <v>2293.8132426088523</v>
       </c>
       <c r="D1245" s="4"/>
       <c r="E1245" s="3"/>
@@ -17436,7 +17437,7 @@
         <v>118</v>
       </c>
       <c r="C1246">
-        <v>7949.6472287362476</v>
+        <v>1317.5905868023258</v>
       </c>
       <c r="D1246" s="4"/>
       <c r="E1246" s="3"/>
@@ -17449,7 +17450,7 @@
         <v>3</v>
       </c>
       <c r="C1247">
-        <v>8821.6490881224745</v>
+        <v>1317.5808599900579</v>
       </c>
       <c r="D1247" s="4"/>
       <c r="E1247" s="3"/>
@@ -17462,7 +17463,7 @@
         <v>119</v>
       </c>
       <c r="C1248">
-        <v>8800.1895324061461</v>
+        <v>1363.2821751350198</v>
       </c>
       <c r="D1248" s="4"/>
       <c r="E1248" s="3"/>
@@ -17475,7 +17476,7 @@
         <v>21</v>
       </c>
       <c r="C1249">
-        <v>8570.3739804122488</v>
+        <v>1321.406744238174</v>
       </c>
       <c r="D1249" s="4"/>
       <c r="E1249" s="3"/>
@@ -17488,7 +17489,7 @@
         <v>22</v>
       </c>
       <c r="C1250">
-        <v>8961.5786339017632</v>
+        <v>1232.8383747286027</v>
       </c>
       <c r="D1250" s="4"/>
       <c r="E1250" s="3"/>
@@ -17501,7 +17502,7 @@
         <v>120</v>
       </c>
       <c r="C1251">
-        <v>8969.1569275191705</v>
+        <v>953.85364522354666</v>
       </c>
       <c r="D1251" s="4"/>
       <c r="E1251" s="3"/>
@@ -17514,7 +17515,7 @@
         <v>6</v>
       </c>
       <c r="C1252">
-        <v>9156.8715768125621</v>
+        <v>947.27172418540295</v>
       </c>
       <c r="D1252" s="4"/>
       <c r="E1252" s="3"/>
@@ -17527,7 +17528,7 @@
         <v>23</v>
       </c>
       <c r="C1253">
-        <v>8904.1296789347234</v>
+        <v>515.30893151076964</v>
       </c>
       <c r="D1253" s="4"/>
       <c r="E1253" s="3"/>
@@ -17540,7 +17541,7 @@
         <v>121</v>
       </c>
       <c r="C1254">
-        <v>8831.4104135005637</v>
+        <v>412.53735645687436</v>
       </c>
       <c r="D1254" s="4"/>
       <c r="E1254" s="3"/>
@@ -17553,7 +17554,7 @@
         <v>24</v>
       </c>
       <c r="C1255">
-        <v>8818.8223235341029</v>
+        <v>974.56020845106741</v>
       </c>
       <c r="D1255" s="4"/>
       <c r="E1255" s="3"/>
@@ -17566,7 +17567,7 @@
         <v>122</v>
       </c>
       <c r="C1256">
-        <v>7806.8476788713688</v>
+        <v>2105.5760778884774</v>
       </c>
       <c r="D1256" s="4"/>
       <c r="E1256" s="3"/>
@@ -17579,7 +17580,7 @@
         <v>26</v>
       </c>
       <c r="C1257">
-        <v>7753.5527676112033</v>
+        <v>2545.0297647943453</v>
       </c>
       <c r="D1257" s="4"/>
       <c r="E1257" s="3"/>
@@ -17592,7 +17593,7 @@
         <v>27</v>
       </c>
       <c r="C1258">
-        <v>8356.7402319434914</v>
+        <v>2545.0297647943453</v>
       </c>
       <c r="D1258" s="4"/>
       <c r="E1258" s="3"/>
@@ -17605,7 +17606,7 @@
         <v>28</v>
       </c>
       <c r="C1259">
-        <v>8897.8326177800463</v>
+        <v>1207.8376215143089</v>
       </c>
       <c r="D1259" s="4"/>
       <c r="E1259" s="3"/>
@@ -17618,7 +17619,7 @@
         <v>29</v>
       </c>
       <c r="C1260">
-        <v>7863.480901110428</v>
+        <v>1068.2232722629981</v>
       </c>
       <c r="D1260" s="4"/>
       <c r="E1260" s="3"/>
@@ -17631,7 +17632,7 @@
         <v>123</v>
       </c>
       <c r="C1261">
-        <v>8574.4856799341396</v>
+        <v>156.28753828999487</v>
       </c>
       <c r="D1261" s="4"/>
       <c r="E1261" s="3"/>
@@ -17644,7 +17645,7 @@
         <v>124</v>
       </c>
       <c r="C1262">
-        <v>8385.1975792497797</v>
+        <v>2336.2655606391186</v>
       </c>
       <c r="D1262" s="4"/>
       <c r="E1262" s="3"/>
@@ -17657,7 +17658,7 @@
         <v>30</v>
       </c>
       <c r="C1263">
-        <v>8846.8098131276165</v>
+        <v>285.60133004581149</v>
       </c>
       <c r="D1263" s="4"/>
       <c r="E1263" s="3"/>
@@ -17670,7 +17671,7 @@
         <v>31</v>
       </c>
       <c r="C1264">
-        <v>8382.7581286603472</v>
+        <v>344.75155680759241</v>
       </c>
       <c r="D1264" s="4"/>
       <c r="E1264" s="3"/>
@@ -17683,7 +17684,7 @@
         <v>32</v>
       </c>
       <c r="C1265">
-        <v>8482.5870246049617</v>
+        <v>347.22454885123136</v>
       </c>
       <c r="D1265" s="4"/>
       <c r="E1265" s="3"/>
@@ -17696,7 +17697,7 @@
         <v>33</v>
       </c>
       <c r="C1266">
-        <v>8825.2403472873848</v>
+        <v>2105.2629427771303</v>
       </c>
       <c r="D1266" s="4"/>
       <c r="E1266" s="3"/>
@@ -17709,7 +17710,7 @@
         <v>34</v>
       </c>
       <c r="C1267">
-        <v>9152.5012296389141</v>
+        <v>2182.2670122620048</v>
       </c>
       <c r="D1267" s="4"/>
       <c r="E1267" s="3"/>
@@ -17722,7 +17723,7 @@
         <v>35</v>
       </c>
       <c r="C1268">
-        <v>8575.6258077054445</v>
+        <v>1167.3388752376686</v>
       </c>
       <c r="D1268" s="4"/>
       <c r="E1268" s="3"/>
@@ -17735,7 +17736,7 @@
         <v>36</v>
       </c>
       <c r="C1269">
-        <v>8571.2958840213432</v>
+        <v>1179.8956993984216</v>
       </c>
       <c r="D1269" s="4"/>
       <c r="E1269" s="3"/>
@@ -17748,7 +17749,7 @@
         <v>37</v>
       </c>
       <c r="C1270">
-        <v>8987.3156730773808</v>
+        <v>215.84564193065026</v>
       </c>
       <c r="D1270" s="4"/>
       <c r="E1270" s="3"/>
@@ -17761,7 +17762,7 @@
         <v>38</v>
       </c>
       <c r="C1271">
-        <v>8633.0284625630393</v>
+        <v>304.89169749011228</v>
       </c>
       <c r="D1271" s="4"/>
       <c r="E1271" s="3"/>
@@ -17774,7 +17775,7 @@
         <v>39</v>
       </c>
       <c r="C1272">
-        <v>8949.1452456089901</v>
+        <v>1853.5946906118575</v>
       </c>
       <c r="D1272" s="4"/>
       <c r="E1272" s="3"/>
@@ -17787,7 +17788,7 @@
         <v>40</v>
       </c>
       <c r="C1273">
-        <v>9189.0677545955787</v>
+        <v>1107.0145533752966</v>
       </c>
       <c r="D1273" s="4"/>
       <c r="E1273" s="3"/>
@@ -17800,7 +17801,7 @@
         <v>41</v>
       </c>
       <c r="C1274">
-        <v>9049.0075649434275</v>
+        <v>598.09299282034578</v>
       </c>
       <c r="D1274" s="4"/>
       <c r="E1274" s="3"/>
@@ -17813,7 +17814,7 @@
         <v>9</v>
       </c>
       <c r="C1275">
-        <v>9214.0839672300826</v>
+        <v>1486.7970100057564</v>
       </c>
       <c r="D1275" s="4"/>
       <c r="E1275" s="3"/>
@@ -17826,7 +17827,7 @@
         <v>42</v>
       </c>
       <c r="C1276">
-        <v>8991.189582376177</v>
+        <v>484.81759303154917</v>
       </c>
       <c r="D1276" s="4"/>
       <c r="E1276" s="3"/>
@@ -17839,7 +17840,7 @@
         <v>125</v>
       </c>
       <c r="C1277">
-        <v>8372.310120894108</v>
+        <v>586.99316450338233</v>
       </c>
       <c r="D1277" s="4"/>
       <c r="E1277" s="3"/>
@@ -17852,7 +17853,7 @@
         <v>43</v>
       </c>
       <c r="C1278">
-        <v>7803.7519674573441</v>
+        <v>280.70459886741105</v>
       </c>
       <c r="D1278" s="4"/>
       <c r="E1278" s="3"/>
@@ -17865,7 +17866,7 @@
         <v>44</v>
       </c>
       <c r="C1279">
-        <v>7865.0209651431078</v>
+        <v>1927.5622019110172</v>
       </c>
       <c r="D1279" s="4"/>
       <c r="E1279" s="3"/>
@@ -17878,7 +17879,7 @@
         <v>45</v>
       </c>
       <c r="C1280">
-        <v>9011.5453119229896</v>
+        <v>1008.8403020769318</v>
       </c>
       <c r="D1280" s="4"/>
       <c r="E1280" s="3"/>
@@ -17891,7 +17892,7 @@
         <v>126</v>
       </c>
       <c r="C1281">
-        <v>9493.0612347664974</v>
+        <v>1032.6745541362309</v>
       </c>
       <c r="D1281" s="4"/>
       <c r="E1281" s="3"/>
@@ -17904,7 +17905,7 @@
         <v>127</v>
       </c>
       <c r="C1282">
-        <v>9311.0715651324281</v>
+        <v>1870.6435833146011</v>
       </c>
       <c r="D1282" s="4"/>
       <c r="E1282" s="3"/>
@@ -17917,7 +17918,7 @@
         <v>46</v>
       </c>
       <c r="C1283">
-        <v>8665.9525065957132</v>
+        <v>1469.6059134252764</v>
       </c>
       <c r="D1283" s="4"/>
       <c r="E1283" s="3"/>
@@ -17930,7 +17931,7 @@
         <v>47</v>
       </c>
       <c r="C1284">
-        <v>8606.7270946927947</v>
+        <v>1572.2543293527142</v>
       </c>
       <c r="D1284" s="4"/>
       <c r="E1284" s="3"/>
@@ -17943,7 +17944,7 @@
         <v>48</v>
       </c>
       <c r="C1285">
-        <v>9204.6913876437175</v>
+        <v>1395.0664619402805</v>
       </c>
       <c r="D1285" s="4"/>
       <c r="E1285" s="3"/>
@@ -17956,7 +17957,7 @@
         <v>128</v>
       </c>
       <c r="C1286">
-        <v>8905.4607241462872</v>
+        <v>1054.4092091939058</v>
       </c>
       <c r="D1286" s="4"/>
       <c r="E1286" s="3"/>
@@ -17969,7 +17970,7 @@
         <v>49</v>
       </c>
       <c r="C1287">
-        <v>8746.8816969056024</v>
+        <v>1524.9805467193391</v>
       </c>
       <c r="D1287" s="4"/>
       <c r="E1287" s="3"/>
@@ -17982,7 +17983,7 @@
         <v>50</v>
       </c>
       <c r="C1288">
-        <v>8587.8028669709147</v>
+        <v>2938.659208955653</v>
       </c>
       <c r="D1288" s="4"/>
       <c r="E1288" s="3"/>
@@ -17995,7 +17996,7 @@
         <v>51</v>
       </c>
       <c r="C1289">
-        <v>9351.1607689956272</v>
+        <v>292.47144182850155</v>
       </c>
       <c r="D1289" s="4"/>
       <c r="E1289" s="3"/>
@@ -18008,7 +18009,7 @@
         <v>52</v>
       </c>
       <c r="C1290">
-        <v>8981.4732519373629</v>
+        <v>209.18763387548762</v>
       </c>
       <c r="D1290" s="4"/>
       <c r="E1290" s="3"/>
@@ -18021,7 +18022,7 @@
         <v>16</v>
       </c>
       <c r="C1291">
-        <v>8475.4084435868062</v>
+        <v>2059.8131049316244</v>
       </c>
       <c r="D1291" s="4"/>
       <c r="E1291" s="3"/>
@@ -18034,7 +18035,7 @@
         <v>53</v>
       </c>
       <c r="C1292">
-        <v>8048.1658904897922</v>
+        <v>1248.0417549188953</v>
       </c>
       <c r="D1292" s="4"/>
       <c r="E1292" s="3"/>
@@ -18047,7 +18048,7 @@
         <v>54</v>
       </c>
       <c r="C1293">
-        <v>9223.4249652393228</v>
+        <v>1428.2518342309445</v>
       </c>
       <c r="D1293" s="4"/>
       <c r="E1293" s="3"/>
@@ -18060,7 +18061,7 @@
         <v>55</v>
       </c>
       <c r="C1294">
-        <v>8417.020258768307</v>
+        <v>1341.1851866989653</v>
       </c>
       <c r="D1294" s="4"/>
       <c r="E1294" s="3"/>
@@ -18073,7 +18074,7 @@
         <v>56</v>
       </c>
       <c r="C1295">
-        <v>8789.3583812069992</v>
+        <v>1183.7699688281634</v>
       </c>
       <c r="D1295" s="4"/>
       <c r="E1295" s="3"/>
@@ -18086,7 +18087,7 @@
         <v>57</v>
       </c>
       <c r="C1296">
-        <v>9328.0801440050491</v>
+        <v>1998.078121485853</v>
       </c>
       <c r="D1296" s="4"/>
       <c r="E1296" s="3"/>
@@ -18099,7 +18100,7 @@
         <v>58</v>
       </c>
       <c r="C1297">
-        <v>8721.8220359580919</v>
+        <v>2302.473144402235</v>
       </c>
       <c r="D1297" s="4"/>
       <c r="E1297" s="3"/>
@@ -18112,7 +18113,7 @@
         <v>59</v>
       </c>
       <c r="C1298">
-        <v>9137.2037691189653</v>
+        <v>2330.3249121171975</v>
       </c>
       <c r="D1298" s="4"/>
       <c r="E1298" s="3"/>
@@ -18125,7 +18126,7 @@
         <v>15</v>
       </c>
       <c r="C1299">
-        <v>8665.7031138210205</v>
+        <v>1760.5549989115393</v>
       </c>
       <c r="D1299" s="4"/>
       <c r="E1299" s="3"/>
@@ -18138,7 +18139,7 @@
         <v>129</v>
       </c>
       <c r="C1300">
-        <v>7738.9784874579163</v>
+        <v>927.22235775161255</v>
       </c>
       <c r="D1300" s="4"/>
       <c r="E1300" s="3"/>
@@ -18151,7 +18152,7 @@
         <v>60</v>
       </c>
       <c r="C1301">
-        <v>8594.2303904526361</v>
+        <v>915.17767047856034</v>
       </c>
       <c r="D1301" s="4"/>
       <c r="E1301" s="3"/>
@@ -18164,7 +18165,7 @@
         <v>130</v>
       </c>
       <c r="C1302">
-        <v>8387.0822791388091</v>
+        <v>1222.0117078496269</v>
       </c>
       <c r="D1302" s="4"/>
       <c r="E1302" s="3"/>
@@ -18177,7 +18178,7 @@
         <v>62</v>
       </c>
       <c r="C1303">
-        <v>9138.5909507936412</v>
+        <v>298.48669969500196</v>
       </c>
       <c r="D1303" s="4"/>
       <c r="E1303" s="3"/>
@@ -18190,7 +18191,7 @@
         <v>7</v>
       </c>
       <c r="C1304">
-        <v>9461.8075694282106</v>
+        <v>963.44514363895848</v>
       </c>
       <c r="D1304" s="4"/>
       <c r="E1304" s="3"/>
@@ -18203,7 +18204,7 @@
         <v>131</v>
       </c>
       <c r="C1305">
-        <v>8525.6039537572578</v>
+        <v>1041.6902701512695</v>
       </c>
       <c r="D1305" s="4"/>
       <c r="E1305" s="3"/>
@@ -18216,7 +18217,7 @@
         <v>63</v>
       </c>
       <c r="C1306">
-        <v>8328.1544863988529</v>
+        <v>2050.4112459753819</v>
       </c>
       <c r="D1306" s="4"/>
       <c r="E1306" s="3"/>
@@ -18229,7 +18230,7 @@
         <v>64</v>
       </c>
       <c r="C1307">
-        <v>9190.2337028011589</v>
+        <v>1344.2695249123606</v>
       </c>
       <c r="D1307" s="4"/>
       <c r="E1307" s="3"/>
@@ -18242,7 +18243,7 @@
         <v>65</v>
       </c>
       <c r="C1308">
-        <v>8944.7866007925695</v>
+        <v>2154.3003807527753</v>
       </c>
       <c r="D1308" s="4"/>
       <c r="E1308" s="3"/>
@@ -18255,7 +18256,7 @@
         <v>12</v>
       </c>
       <c r="C1309">
-        <v>8603.328486446766</v>
+        <v>1239.5599017661252</v>
       </c>
       <c r="D1309" s="4"/>
       <c r="E1309" s="3"/>
@@ -18268,7 +18269,7 @@
         <v>66</v>
       </c>
       <c r="C1310">
-        <v>9224.1399688839283</v>
+        <v>575.768935630545</v>
       </c>
       <c r="D1310" s="4"/>
       <c r="E1310" s="3"/>
@@ -18281,7 +18282,7 @@
         <v>67</v>
       </c>
       <c r="C1311">
-        <v>8333.2581854433083</v>
+        <v>1361.8726654424613</v>
       </c>
       <c r="D1311" s="4"/>
       <c r="E1311" s="3"/>
@@ -18294,7 +18295,7 @@
         <v>132</v>
       </c>
       <c r="C1312">
-        <v>9150.4954193384492</v>
+        <v>1254.1273734781682</v>
       </c>
       <c r="D1312" s="4"/>
       <c r="E1312" s="3"/>
@@ -18307,7 +18308,7 @@
         <v>68</v>
       </c>
       <c r="C1313">
-        <v>8147.5670021983851</v>
+        <v>1093.5532481857006</v>
       </c>
       <c r="D1313" s="4"/>
       <c r="E1313" s="3"/>
@@ -18320,7 +18321,7 @@
         <v>69</v>
       </c>
       <c r="C1314">
-        <v>8629.9127434228321</v>
+        <v>2048.4599049783492</v>
       </c>
       <c r="D1314" s="4"/>
       <c r="E1314" s="3"/>
@@ -18333,7 +18334,7 @@
         <v>70</v>
       </c>
       <c r="C1315">
-        <v>9287.6691959450163</v>
+        <v>981.14698568207984</v>
       </c>
       <c r="D1315" s="4"/>
       <c r="E1315" s="3"/>
@@ -18346,7 +18347,7 @@
         <v>71</v>
       </c>
       <c r="C1316">
-        <v>8994.9867681398046</v>
+        <v>1547.3223392493912</v>
       </c>
       <c r="D1316" s="4"/>
       <c r="E1316" s="3"/>
@@ -18359,7 +18360,7 @@
         <v>1</v>
       </c>
       <c r="C1317">
-        <v>8801.3891911196388</v>
+        <v>971.93242725122309</v>
       </c>
       <c r="D1317" s="4"/>
       <c r="E1317" s="3"/>
@@ -18372,7 +18373,7 @@
         <v>72</v>
       </c>
       <c r="C1318">
-        <v>8553.4036439033462</v>
+        <v>1749.9082257192831</v>
       </c>
       <c r="D1318" s="4"/>
       <c r="E1318" s="3"/>
@@ -18385,7 +18386,7 @@
         <v>73</v>
       </c>
       <c r="C1319">
-        <v>8687.6799021393344</v>
+        <v>2863.5614533712483</v>
       </c>
       <c r="D1319" s="4"/>
       <c r="E1319" s="3"/>
@@ -18398,7 +18399,7 @@
         <v>133</v>
       </c>
       <c r="C1320">
-        <v>9376.7156627274489</v>
+        <v>1009.6702243737061</v>
       </c>
       <c r="D1320" s="4"/>
       <c r="E1320" s="3"/>
@@ -18411,7 +18412,7 @@
         <v>74</v>
       </c>
       <c r="C1321">
-        <v>8472.9218388714307</v>
+        <v>619.95030365661989</v>
       </c>
       <c r="D1321" s="4"/>
       <c r="E1321" s="3"/>
@@ -18424,7 +18425,7 @@
         <v>75</v>
       </c>
       <c r="C1322">
-        <v>7983.6543154979263</v>
+        <v>1369.3845891404319</v>
       </c>
       <c r="D1322" s="4"/>
       <c r="E1322" s="3"/>
@@ -18437,7 +18438,7 @@
         <v>76</v>
       </c>
       <c r="C1323">
-        <v>8622.3059845301686</v>
+        <v>1212.6915393785719</v>
       </c>
       <c r="D1323" s="4"/>
       <c r="E1323" s="3"/>
@@ -18450,7 +18451,7 @@
         <v>134</v>
       </c>
       <c r="C1324">
-        <v>8888.339231241087</v>
+        <v>1217.003997310964</v>
       </c>
       <c r="D1324" s="4"/>
       <c r="E1324" s="3"/>
@@ -18463,7 +18464,7 @@
         <v>77</v>
       </c>
       <c r="C1325">
-        <v>8376.8448982253612</v>
+        <v>2263.4471834445967</v>
       </c>
       <c r="D1325" s="4"/>
       <c r="E1325" s="3"/>
@@ -18476,7 +18477,7 @@
         <v>78</v>
       </c>
       <c r="C1326">
-        <v>8106.3606696152947</v>
+        <v>839.11344434501734</v>
       </c>
       <c r="D1326" s="4"/>
       <c r="E1326" s="3"/>
@@ -18489,7 +18490,7 @@
         <v>79</v>
       </c>
       <c r="C1327">
-        <v>8960.9946189006769</v>
+        <v>2118.6747233441179</v>
       </c>
       <c r="D1327" s="4"/>
       <c r="E1327" s="3"/>
@@ -18502,7 +18503,7 @@
         <v>80</v>
       </c>
       <c r="C1328">
-        <v>8478.4837488359444</v>
+        <v>2184.888140992744</v>
       </c>
       <c r="D1328" s="4"/>
       <c r="E1328" s="3"/>
@@ -18515,7 +18516,7 @@
         <v>81</v>
       </c>
       <c r="C1329">
-        <v>8950.7277049772711</v>
+        <v>2109.6496610776308</v>
       </c>
       <c r="D1329" s="4"/>
       <c r="E1329" s="3"/>
@@ -18528,7 +18529,7 @@
         <v>82</v>
       </c>
       <c r="C1330">
-        <v>8941.1294196940253</v>
+        <v>1238.3679250447453</v>
       </c>
       <c r="D1330" s="4"/>
       <c r="E1330" s="3"/>
@@ -18541,7 +18542,7 @@
         <v>135</v>
       </c>
       <c r="C1331">
-        <v>9286.2563055912433</v>
+        <v>866.26929278068212</v>
       </c>
       <c r="D1331" s="4"/>
       <c r="E1331" s="3"/>
@@ -18554,7 +18555,7 @@
         <v>136</v>
       </c>
       <c r="C1332">
-        <v>8541.6523896068102</v>
+        <v>1766.7371373250671</v>
       </c>
       <c r="D1332" s="4"/>
       <c r="E1332" s="3"/>
@@ -18567,7 +18568,7 @@
         <v>83</v>
       </c>
       <c r="C1333">
-        <v>9140.9216684567127</v>
+        <v>956.84644459937078</v>
       </c>
       <c r="D1333" s="4"/>
       <c r="E1333" s="3"/>
@@ -18580,7 +18581,7 @@
         <v>137</v>
       </c>
       <c r="C1334">
-        <v>9241.3207862943182</v>
+        <v>455.09349089367885</v>
       </c>
       <c r="D1334" s="4"/>
       <c r="E1334" s="3"/>
@@ -18593,7 +18594,7 @@
         <v>84</v>
       </c>
       <c r="C1335">
-        <v>8938.8700307002327</v>
+        <v>474.95233536193717</v>
       </c>
       <c r="D1335" s="4"/>
       <c r="E1335" s="3"/>
@@ -18606,7 +18607,7 @@
         <v>85</v>
       </c>
       <c r="C1336">
-        <v>8706.3365978616548</v>
+        <v>1397.0213022334738</v>
       </c>
       <c r="D1336" s="4"/>
       <c r="E1336" s="3"/>
@@ -18619,7 +18620,7 @@
         <v>86</v>
       </c>
       <c r="C1337">
-        <v>8618.0217902979075</v>
+        <v>1028.7362493529251</v>
       </c>
       <c r="D1337" s="4"/>
       <c r="E1337" s="3"/>
@@ -18632,7 +18633,7 @@
         <v>87</v>
       </c>
       <c r="C1338">
-        <v>8628.2791866962907</v>
+        <v>264.44208336079964</v>
       </c>
       <c r="D1338" s="4"/>
       <c r="E1338" s="3"/>
@@ -18645,7 +18646,7 @@
         <v>88</v>
       </c>
       <c r="C1339">
-        <v>8651.8427628722511</v>
+        <v>817.49579556802007</v>
       </c>
       <c r="D1339" s="4"/>
       <c r="E1339" s="3"/>
@@ -18658,7 +18659,7 @@
         <v>89</v>
       </c>
       <c r="C1340">
-        <v>8722.6538098742567</v>
+        <v>35.350871576938822</v>
       </c>
       <c r="D1340" s="4"/>
       <c r="E1340" s="3"/>
@@ -18671,7 +18672,7 @@
         <v>138</v>
       </c>
       <c r="C1341">
-        <v>8928.8350447071061</v>
+        <v>923.83397869549538</v>
       </c>
       <c r="D1341" s="4"/>
       <c r="E1341" s="3"/>
@@ -18684,7 +18685,7 @@
         <v>90</v>
       </c>
       <c r="C1342">
-        <v>8647.5603629315683</v>
+        <v>971.23808903106431</v>
       </c>
       <c r="D1342" s="4"/>
       <c r="E1342" s="3"/>
@@ -18697,7 +18698,7 @@
         <v>25</v>
       </c>
       <c r="C1343">
-        <v>8337.7712320542596</v>
+        <v>2639.2359310549336</v>
       </c>
       <c r="D1343" s="4"/>
       <c r="E1343" s="3"/>
@@ -18710,7 +18711,7 @@
         <v>139</v>
       </c>
       <c r="C1344">
-        <v>8369.6593577946023</v>
+        <v>1623.8367249837413</v>
       </c>
       <c r="D1344" s="4"/>
       <c r="E1344" s="3"/>
@@ -18723,7 +18724,7 @@
         <v>140</v>
       </c>
       <c r="C1345">
-        <v>8855.6916578869532</v>
+        <v>1102.4219678900536</v>
       </c>
       <c r="D1345" s="4"/>
       <c r="E1345" s="3"/>
@@ -18736,7 +18737,7 @@
         <v>141</v>
       </c>
       <c r="C1346">
-        <v>9093.2167126733166</v>
+        <v>1052.3348230014467</v>
       </c>
       <c r="D1346" s="4"/>
       <c r="E1346" s="3"/>
@@ -18749,7 +18750,7 @@
         <v>91</v>
       </c>
       <c r="C1347">
-        <v>9230.0708450340499</v>
+        <v>1030.5290142356573</v>
       </c>
       <c r="D1347" s="4"/>
       <c r="E1347" s="3"/>
@@ -18762,7 +18763,7 @@
         <v>142</v>
       </c>
       <c r="C1348">
-        <v>9192.1491557626632</v>
+        <v>1493.7045094516334</v>
       </c>
       <c r="D1348" s="4"/>
       <c r="E1348" s="3"/>
@@ -18775,7 +18776,7 @@
         <v>92</v>
       </c>
       <c r="C1349">
-        <v>9341.8047063636441</v>
+        <v>2996.2964532665337</v>
       </c>
       <c r="D1349" s="4"/>
       <c r="E1349" s="3"/>
@@ -18788,7 +18789,7 @@
         <v>83</v>
       </c>
       <c r="C1350">
-        <v>9140.9216684567127</v>
+        <v>1395.34205597307</v>
       </c>
       <c r="D1350" s="4"/>
       <c r="E1350" s="3"/>
@@ -18801,7 +18802,7 @@
         <v>93</v>
       </c>
       <c r="C1351">
-        <v>8965.8607095451807</v>
+        <v>1202.9447616964105</v>
       </c>
       <c r="D1351" s="4"/>
       <c r="E1351" s="3"/>
@@ -18814,7 +18815,7 @@
         <v>143</v>
       </c>
       <c r="C1352">
-        <v>8960.381098217993</v>
+        <v>1234.0431692709394</v>
       </c>
       <c r="D1352" s="4"/>
       <c r="E1352" s="3"/>
@@ -18827,7 +18828,7 @@
         <v>94</v>
       </c>
       <c r="C1353">
-        <v>9114.7603470775703</v>
+        <v>1264.9767669970954</v>
       </c>
       <c r="D1353" s="4"/>
       <c r="E1353" s="3"/>
@@ -18840,7 +18841,7 @@
         <v>144</v>
       </c>
       <c r="C1354">
-        <v>9110.9070092223028</v>
+        <v>933.50639973249963</v>
       </c>
       <c r="D1354" s="4"/>
       <c r="E1354" s="3"/>
@@ -18853,7 +18854,7 @@
         <v>145</v>
       </c>
       <c r="C1355">
-        <v>9059.258461502588</v>
+        <v>569.42558102453677</v>
       </c>
       <c r="D1355" s="4"/>
       <c r="E1355" s="3"/>
@@ -18866,7 +18867,7 @@
         <v>95</v>
       </c>
       <c r="C1356">
-        <v>8303.0487718330587</v>
+        <v>2084.0398257513557</v>
       </c>
       <c r="D1356" s="4"/>
       <c r="E1356" s="3"/>
@@ -18879,7 +18880,7 @@
         <v>96</v>
       </c>
       <c r="C1357">
-        <v>8987.4310908914304</v>
+        <v>1579.3546584501448</v>
       </c>
       <c r="D1357" s="4"/>
       <c r="E1357" s="3"/>
@@ -18892,7 +18893,7 @@
         <v>97</v>
       </c>
       <c r="C1358">
-        <v>8531.8427106385989</v>
+        <v>1138.247388002954</v>
       </c>
       <c r="D1358" s="4"/>
       <c r="E1358" s="3"/>
@@ -18905,7 +18906,7 @@
         <v>146</v>
       </c>
       <c r="C1359">
-        <v>9017.6823221299346</v>
+        <v>1157.4919890295103</v>
       </c>
       <c r="D1359" s="4"/>
       <c r="E1359" s="3"/>
@@ -18918,7 +18919,7 @@
         <v>10</v>
       </c>
       <c r="C1360">
-        <v>9184.2599562563009</v>
+        <v>1459.4327165901248</v>
       </c>
       <c r="D1360" s="4"/>
       <c r="E1360" s="3"/>
@@ -18931,7 +18932,7 @@
         <v>147</v>
       </c>
       <c r="C1361">
-        <v>9521.9790547393386</v>
+        <v>764.78514725411105</v>
       </c>
       <c r="D1361" s="4"/>
       <c r="E1361" s="3"/>
@@ -18944,7 +18945,7 @@
         <v>99</v>
       </c>
       <c r="C1362">
-        <v>8819.4387535945898</v>
+        <v>2387.4431575200811</v>
       </c>
       <c r="D1362" s="4"/>
       <c r="E1362" s="3"/>
@@ -18957,7 +18958,7 @@
         <v>62</v>
       </c>
       <c r="C1363">
-        <v>9138.5909507936412</v>
+        <v>2402.5084181668199</v>
       </c>
       <c r="D1363" s="4"/>
       <c r="E1363" s="3"/>
@@ -18970,7 +18971,7 @@
         <v>100</v>
       </c>
       <c r="C1364">
-        <v>8822.4988209178555</v>
+        <v>1194.4218904066765</v>
       </c>
       <c r="D1364" s="4"/>
       <c r="E1364" s="3"/>
@@ -18983,7 +18984,7 @@
         <v>148</v>
       </c>
       <c r="C1365">
-        <v>8735.2125663673141</v>
+        <v>1680.3852911931253</v>
       </c>
       <c r="D1365" s="4"/>
       <c r="E1365" s="3"/>
@@ -18996,7 +18997,7 @@
         <v>149</v>
       </c>
       <c r="C1366">
-        <v>8535.2091078562607</v>
+        <v>954.8097825861214</v>
       </c>
       <c r="D1366" s="4"/>
       <c r="E1366" s="3"/>
@@ -19009,7 +19010,7 @@
         <v>150</v>
       </c>
       <c r="C1367">
-        <v>8507.7412284051788</v>
+        <v>865.86705914514152</v>
       </c>
       <c r="D1367" s="4"/>
       <c r="E1367" s="3"/>
@@ -19022,7 +19023,7 @@
         <v>101</v>
       </c>
       <c r="C1368">
-        <v>9068.3378031796547</v>
+        <v>892.90724373479713</v>
       </c>
       <c r="D1368" s="4"/>
       <c r="E1368" s="3"/>
@@ -19035,7 +19036,7 @@
         <v>151</v>
       </c>
       <c r="C1369">
-        <v>8902.132972225103</v>
+        <v>731.179540306435</v>
       </c>
       <c r="D1369" s="4"/>
       <c r="E1369" s="3"/>
@@ -19048,7 +19049,7 @@
         <v>102</v>
       </c>
       <c r="C1370">
-        <v>8858.6476307818903</v>
+        <v>547.2161075751103</v>
       </c>
       <c r="D1370" s="4"/>
       <c r="E1370" s="3"/>
@@ -19061,7 +19062,7 @@
         <v>103</v>
       </c>
       <c r="C1371">
-        <v>8894.8177154942568</v>
+        <v>862.70427779806312</v>
       </c>
       <c r="D1371" s="4"/>
       <c r="E1371" s="3"/>
@@ -19074,7 +19075,7 @@
         <v>152</v>
       </c>
       <c r="C1372">
-        <v>9252.1923120487445</v>
+        <v>1358.7567270351326</v>
       </c>
       <c r="D1372" s="4"/>
       <c r="E1372" s="3"/>
@@ -19087,7 +19088,7 @@
         <v>104</v>
       </c>
       <c r="C1373">
-        <v>8831.526144310923</v>
+        <v>1586.0985047720017</v>
       </c>
       <c r="D1373" s="4"/>
       <c r="E1373" s="3"/>
@@ -19100,7 +19101,7 @@
         <v>105</v>
       </c>
       <c r="C1374">
-        <v>9057.472736491738</v>
+        <v>819.30399117942386</v>
       </c>
       <c r="D1374" s="4"/>
       <c r="E1374" s="3"/>
@@ -19113,7 +19114,7 @@
         <v>106</v>
       </c>
       <c r="C1375">
-        <v>8962.8136282184187</v>
+        <v>67.552080560393165</v>
       </c>
       <c r="D1375" s="4"/>
       <c r="E1375" s="3"/>
@@ -19126,7 +19127,7 @@
         <v>107</v>
       </c>
       <c r="C1376">
-        <v>8867.6265578204911</v>
+        <v>2992.9574903849862</v>
       </c>
       <c r="D1376" s="4"/>
       <c r="E1376" s="3"/>
@@ -19139,7 +19140,7 @@
         <v>108</v>
       </c>
       <c r="C1377">
-        <v>8199.6297817542236</v>
+        <v>151.00150183346258</v>
       </c>
       <c r="D1377" s="4"/>
       <c r="E1377" s="3"/>
@@ -19152,7 +19153,7 @@
         <v>153</v>
       </c>
       <c r="C1378">
-        <v>8683.1102948392418</v>
+        <v>920.6854433915521</v>
       </c>
       <c r="D1378" s="4"/>
       <c r="E1378" s="3"/>
@@ -19165,7 +19166,7 @@
         <v>109</v>
       </c>
       <c r="C1379">
-        <v>8877.6999731956421</v>
+        <v>1066.6202706340696</v>
       </c>
       <c r="D1379" s="4"/>
       <c r="E1379" s="3"/>
@@ -19178,7 +19179,7 @@
         <v>154</v>
       </c>
       <c r="C1380">
-        <v>9522.5132855582542</v>
+        <v>1499.0232259765639</v>
       </c>
       <c r="D1380" s="4"/>
       <c r="E1380" s="3"/>
@@ -19191,7 +19192,7 @@
         <v>155</v>
       </c>
       <c r="C1381">
-        <v>8118.5529128760618</v>
+        <v>917.90383147863065</v>
       </c>
       <c r="D1381" s="4"/>
       <c r="E1381" s="3"/>
@@ -19204,7 +19205,7 @@
         <v>110</v>
       </c>
       <c r="C1382">
-        <v>9344.6475486161089</v>
+        <v>240.62778354213071</v>
       </c>
       <c r="D1382" s="4"/>
       <c r="E1382" s="3"/>
@@ -19217,7 +19218,7 @@
         <v>111</v>
       </c>
       <c r="C1383">
-        <v>8926.1688685575737</v>
+        <v>810.74441799893316</v>
       </c>
       <c r="D1383" s="4"/>
       <c r="E1383" s="3"/>
@@ -19230,7 +19231,7 @@
         <v>112</v>
       </c>
       <c r="C1384">
-        <v>8957.1171593126128</v>
+        <v>597.46462343621329</v>
       </c>
       <c r="D1384" s="4"/>
       <c r="E1384" s="3"/>
@@ -19243,7 +19244,7 @@
         <v>156</v>
       </c>
       <c r="C1385">
-        <v>9019.4463619452617</v>
+        <v>1309.3634367050624</v>
       </c>
       <c r="D1385" s="4"/>
       <c r="E1385" s="3"/>
@@ -19256,7 +19257,7 @@
         <v>157</v>
       </c>
       <c r="C1386">
-        <v>8895.9279366736009</v>
+        <v>1309.3634367050624</v>
       </c>
       <c r="D1386" s="4"/>
       <c r="E1386" s="3"/>
@@ -19269,7 +19270,7 @@
         <v>61</v>
       </c>
       <c r="C1387">
-        <v>8382.2472498646785</v>
+        <v>148.2089375014705</v>
       </c>
       <c r="D1387" s="4"/>
       <c r="E1387" s="3"/>
@@ -19282,7 +19283,7 @@
         <v>158</v>
       </c>
       <c r="C1388">
-        <v>8381.9524198022445</v>
+        <v>711.36156307193255</v>
       </c>
       <c r="D1388" s="4"/>
       <c r="E1388" s="3"/>
@@ -19295,7 +19296,7 @@
         <v>113</v>
       </c>
       <c r="C1389">
-        <v>8500.3305991475318</v>
+        <v>1028.7503036274152</v>
       </c>
       <c r="D1389" s="4"/>
       <c r="E1389" s="3"/>
@@ -19308,7 +19309,7 @@
         <v>114</v>
       </c>
       <c r="C1390">
-        <v>8476.737570101448</v>
+        <v>480.94839773188306</v>
       </c>
       <c r="D1390" s="4"/>
       <c r="E1390" s="3"/>
@@ -19321,7 +19322,7 @@
         <v>115</v>
       </c>
       <c r="C1391">
-        <v>8958.1775352512614</v>
+        <v>779.76973596402684</v>
       </c>
       <c r="D1391" s="4"/>
       <c r="E1391" s="3"/>
@@ -19334,7 +19335,7 @@
         <v>159</v>
       </c>
       <c r="C1392">
-        <v>8659.670469028857</v>
+        <v>1353.5144294398153</v>
       </c>
       <c r="D1392" s="4"/>
       <c r="E1392" s="3"/>
@@ -19347,7 +19348,7 @@
         <v>116</v>
       </c>
       <c r="C1393">
-        <v>8033.9410473122243</v>
+        <v>1037.4061459095942</v>
       </c>
       <c r="D1393" s="4"/>
       <c r="E1393" s="3"/>
@@ -19360,7 +19361,7 @@
         <v>117</v>
       </c>
       <c r="C1394">
-        <v>9227.3937717164954</v>
+        <v>1323.9776401966124</v>
       </c>
       <c r="D1394" s="4"/>
       <c r="E1394" s="3"/>
@@ -19373,7 +19374,7 @@
         <v>98</v>
       </c>
       <c r="C1395">
-        <v>8586.741272784142</v>
+        <v>996.8711456841786</v>
       </c>
       <c r="D1395" s="4"/>
       <c r="E1395" s="3"/>
